--- a/赛马/总账.xlsx
+++ b/赛马/总账.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="总账" sheetId="1" r:id="rId1"/>
@@ -12,13 +12,15 @@
     <sheet name="结算模版" sheetId="3" r:id="rId3"/>
     <sheet name="易明的账" sheetId="4" r:id="rId4"/>
     <sheet name="特码外抛公式" sheetId="5" r:id="rId5"/>
+    <sheet name="支出" sheetId="7" r:id="rId6"/>
+    <sheet name="Sheet1" sheetId="6" r:id="rId7"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="551" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="688" uniqueCount="170">
   <si>
     <t>期数</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -364,10 +366,273 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>老江</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>老况</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>把子</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>连肖</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>连码</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>一肖</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>大小单双</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>不中</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩法</t>
+  </si>
+  <si>
+    <t>下注</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>中奖</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>合计</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>盈亏</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>49打和，打和无水0.03</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>金刚</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>金刚</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>把子</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>WX</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>减1700的数，借2000给况</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>况实际支付6648 其中2000是之前借给他的2000</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>YM单独欠我</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>KTV了事</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>打牌</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>碰胡</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>丁佩结婚</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>便命卡利息</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>幫我墊碼錢</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>給你還信用卡</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>你還完了還給我</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>給你姐夫跟譚義</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>你給我</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>老江朋友押金</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>老颜色</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>很多年前的信用卡</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>给YM姐夫</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>把子的码钱</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>从建行转走的打牌</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>从建行卡转走500给杨玉阳打牌</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>转到杨玉香微信上</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>杨玉乡微信转5000过来到主微信号</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>取16W现金 给我38500现金</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>给易明还信用卡</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>wx</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>手机话费</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>刷流水输了</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>下注金额</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>返水比例</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>赔率</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>最高可接金额</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>外抛金额</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>返水金额</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>中奖金额</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>盈亏</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>抛姐夫</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>接姐夫</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>姐夫家里槟榔+红牛+的费</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>贡菩萨老爷的水果加上次买抹布那次的水果</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>老曾返水</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>尾数</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>老曾</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>老曾</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>wx</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>手机话费</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>转100给易明微信 说是恰酒写数</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>易明姐夫转10000过来，其中4800是YM信用卡内刷的，4254是2018054期赔的，退回946给易明姐夫，后来刷卡只刷了4500，支付宝还了300给姐夫</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>返水率</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>玩法</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>老江</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -376,6 +641,10 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>金刚</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>把子</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -388,6 +657,14 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>老曾</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>特码</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>连肖</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -400,210 +677,27 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>特尾</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>色波</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>大小单双</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>合肖</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>不中</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>玩法</t>
-  </si>
-  <si>
-    <t>下注</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>中奖</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>合计</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>盈亏</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>49打和，打和无水0.03</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>金刚</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>金刚</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>把子</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>WX</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>减1700的数，借2000给况</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>况实际支付6648 其中2000是之前借给他的2000</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>YM单独欠我</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>KTV了事</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>打牌</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>碰胡</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>丁佩结婚</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>便命卡利息</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>幫我墊碼錢</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>給你還信用卡</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>你還完了還給我</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>給你姐夫跟譚義</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>你給我</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>老江朋友押金</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>老颜色</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>很多年前的信用卡</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>给YM姐夫</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>把子的码钱</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>从建行转走的打牌</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>从建行卡转走500给杨玉阳打牌</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>易明姐夫转10000过来，其中4800是YM信用卡内刷的，4254是2018054期赔的，退回946给易明姐夫</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>转到杨玉香微信上</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>杨玉乡微信转5000过来到主微信号</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>取16W现金 给我38500现金</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>给易明还信用卡</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>wx</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>手机话费</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>刷流水输了</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>下注金额</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>返水比例</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>赔率</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>最高可接金额</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>外抛金额</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>返水金额</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>中奖金额</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>盈亏</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>抛姐夫</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>接姐夫</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>姐夫家里槟榔+红牛+的费</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>贡菩萨老爷的水果加上次买抹布那次的水果</t>
+    <t>单平</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -830,7 +924,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="78">
+  <cellXfs count="88">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -951,6 +1045,37 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1005,16 +1130,15 @@
     <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1316,72 +1440,74 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z75"/>
+  <dimension ref="A1:AB75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J10" workbookViewId="0">
-      <selection activeCell="R19" sqref="R19"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="L41" sqref="L41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="2" width="10.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.875" customWidth="1"/>
-    <col min="10" max="10" width="14.875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.875" customWidth="1"/>
-    <col min="15" max="16" width="14.875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.875" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="9" style="29"/>
-    <col min="23" max="23" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="25.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.875" customWidth="1"/>
+    <col min="11" max="11" width="14.875" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.875" customWidth="1"/>
+    <col min="17" max="18" width="14.875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.875" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="9" style="29"/>
+    <col min="25" max="25" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="25.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="57" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="60" t="s">
+    <row r="1" spans="1:28" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A1" s="68" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="71" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="56" t="s">
+      <c r="C1" s="67" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="56"/>
-      <c r="E1" s="56"/>
-      <c r="F1" s="56"/>
-      <c r="G1" s="56"/>
-      <c r="H1" s="56" t="s">
+      <c r="D1" s="67"/>
+      <c r="E1" s="67"/>
+      <c r="F1" s="67"/>
+      <c r="G1" s="67"/>
+      <c r="H1" s="67"/>
+      <c r="I1" s="67" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="56"/>
-      <c r="J1" s="56"/>
-      <c r="K1" s="56"/>
-      <c r="L1" s="56"/>
-      <c r="M1" s="56" t="s">
+      <c r="J1" s="67"/>
+      <c r="K1" s="67"/>
+      <c r="L1" s="67"/>
+      <c r="M1" s="67"/>
+      <c r="N1" s="67"/>
+      <c r="O1" s="67" t="s">
         <v>4</v>
       </c>
-      <c r="N1" s="56"/>
-      <c r="O1" s="56" t="s">
+      <c r="P1" s="67"/>
+      <c r="Q1" s="67" t="s">
         <v>5</v>
       </c>
-      <c r="P1" s="56"/>
-      <c r="Q1" s="56" t="s">
+      <c r="R1" s="67"/>
+      <c r="S1" s="67" t="s">
         <v>6</v>
       </c>
-      <c r="R1" s="56"/>
-      <c r="S1" s="56"/>
-      <c r="T1" s="56"/>
-      <c r="U1" s="1"/>
-      <c r="W1" s="56" t="s">
+      <c r="T1" s="67"/>
+      <c r="U1" s="67"/>
+      <c r="V1" s="67"/>
+      <c r="W1" s="1"/>
+      <c r="Y1" s="67" t="s">
         <v>7</v>
       </c>
-      <c r="X1" s="56"/>
-      <c r="Y1" s="56"/>
-      <c r="Z1" s="56"/>
-    </row>
-    <row r="2" spans="1:26" s="3" customFormat="1" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="57"/>
-      <c r="B2" s="60"/>
+      <c r="Z1" s="67"/>
+      <c r="AA1" s="67"/>
+      <c r="AB1" s="67"/>
+    </row>
+    <row r="2" spans="1:28" s="3" customFormat="1" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="68"/>
+      <c r="B2" s="71"/>
       <c r="C2" s="2" t="s">
         <v>8</v>
       </c>
@@ -1392,65 +1518,67 @@
         <v>10</v>
       </c>
       <c r="F2" s="30" t="s">
-        <v>103</v>
-      </c>
-      <c r="G2" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="G2" s="57"/>
+      <c r="H2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="I2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="J2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="K2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="30" t="s">
-        <v>103</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="M2" s="2" t="s">
+      <c r="L2" s="30" t="s">
+        <v>100</v>
+      </c>
+      <c r="M2" s="57"/>
+      <c r="N2" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="O2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="N2" s="2" t="s">
+      <c r="P2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="O2" s="2" t="s">
+      <c r="Q2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="P2" s="2" t="s">
+      <c r="R2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="Q2" s="2" t="s">
+      <c r="S2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="R2" s="2" t="s">
+      <c r="T2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="S2" s="2" t="s">
+      <c r="U2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="T2" s="2" t="s">
+      <c r="V2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="U2" s="1"/>
-      <c r="W2" s="2" t="s">
+      <c r="W2" s="1"/>
+      <c r="Y2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="X2" s="2" t="s">
+      <c r="Z2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="Y2" s="2" t="s">
+      <c r="AA2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="Z2" s="2" t="s">
+      <c r="AB2" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:26" s="11" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:28" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="4">
         <v>2018035</v>
       </c>
@@ -1469,69 +1597,71 @@
       <c r="F3" s="6">
         <v>0</v>
       </c>
-      <c r="G3" s="6">
+      <c r="G3" s="6"/>
+      <c r="H3" s="6">
         <v>319</v>
       </c>
-      <c r="H3" s="7">
+      <c r="I3" s="7">
         <v>-1700</v>
       </c>
-      <c r="I3" s="7">
+      <c r="J3" s="7">
         <v>3235</v>
       </c>
-      <c r="J3" s="7">
-        <v>0</v>
-      </c>
       <c r="K3" s="7">
         <v>0</v>
       </c>
       <c r="L3" s="7">
+        <v>0</v>
+      </c>
+      <c r="M3" s="7"/>
+      <c r="N3" s="7">
         <v>319</v>
       </c>
-      <c r="M3" s="8">
+      <c r="O3" s="8">
         <v>-1060</v>
       </c>
-      <c r="N3" s="8">
-        <v>0</v>
-      </c>
-      <c r="O3" s="9">
-        <f>SUM(C3+D3+E3+G3+M3+N3)</f>
+      <c r="P3" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="9">
+        <f>SUM(C3+D3+E3+H3+O3+P3)</f>
         <v>794</v>
       </c>
-      <c r="P3" s="9">
-        <f>SUM(H3+I3+J3+L3+M3+N3)</f>
+      <c r="R3" s="9">
+        <f>SUM(I3+J3+K3+N3+O3+P3)</f>
         <v>794</v>
       </c>
-      <c r="Q3" s="4">
-        <f t="shared" ref="Q3:Q13" si="0">SUM(H3-C3)</f>
-        <v>0</v>
-      </c>
-      <c r="R3" s="4">
-        <f t="shared" ref="R3:R13" si="1">SUM(I3-D3)</f>
-        <v>0</v>
-      </c>
       <c r="S3" s="4">
-        <f t="shared" ref="S3:S13" si="2">SUM(J3-E3)</f>
+        <f t="shared" ref="S3:S13" si="0">SUM(I3-C3)</f>
         <v>0</v>
       </c>
       <c r="T3" s="4">
-        <f>SUM(L3-G3)</f>
-        <v>0</v>
-      </c>
-      <c r="U3" s="10"/>
-      <c r="W3" s="5">
+        <f t="shared" ref="T3:T13" si="1">SUM(J3-D3)</f>
+        <v>0</v>
+      </c>
+      <c r="U3" s="4">
+        <f t="shared" ref="U3:U13" si="2">SUM(K3-E3)</f>
+        <v>0</v>
+      </c>
+      <c r="V3" s="4">
+        <f>SUM(N3-H3)</f>
+        <v>0</v>
+      </c>
+      <c r="W3" s="10"/>
+      <c r="Y3" s="5">
         <v>43195</v>
       </c>
-      <c r="X3" s="4">
+      <c r="Z3" s="4">
         <v>899</v>
       </c>
-      <c r="Y3" s="4" t="s">
+      <c r="AA3" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="Z3" s="4" t="s">
+      <c r="AB3" s="4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:26" s="11" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:28" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A4" s="4">
         <v>2018036</v>
       </c>
@@ -1550,69 +1680,71 @@
       <c r="F4" s="6">
         <v>0</v>
       </c>
-      <c r="G4" s="6">
+      <c r="G4" s="6"/>
+      <c r="H4" s="6">
         <v>-1614</v>
       </c>
-      <c r="H4" s="12">
+      <c r="I4" s="12">
         <v>50</v>
       </c>
-      <c r="I4" s="7">
+      <c r="J4" s="7">
         <v>1927</v>
       </c>
-      <c r="J4" s="7">
-        <v>0</v>
-      </c>
       <c r="K4" s="7">
         <v>0</v>
       </c>
       <c r="L4" s="7">
+        <v>0</v>
+      </c>
+      <c r="M4" s="7"/>
+      <c r="N4" s="7">
         <v>-1614</v>
       </c>
-      <c r="M4" s="8">
+      <c r="O4" s="8">
         <v>-930</v>
       </c>
-      <c r="N4" s="8">
-        <v>0</v>
-      </c>
-      <c r="O4" s="9">
-        <f t="shared" ref="O4:O13" si="3">SUM(C4+D4+E4+G4+M4+N4)</f>
+      <c r="P4" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="9">
+        <f t="shared" ref="Q4:Q13" si="3">SUM(C4+D4+E4+H4+O4+P4)</f>
         <v>433</v>
       </c>
-      <c r="P4" s="9">
-        <f t="shared" ref="P4:P13" si="4">SUM(H4+I4+J4+L4+M4+N4)</f>
+      <c r="R4" s="9">
+        <f t="shared" ref="R4:R13" si="4">SUM(I4+J4+K4+N4+O4+P4)</f>
         <v>-567</v>
       </c>
-      <c r="Q4" s="4">
+      <c r="S4" s="4">
         <f t="shared" si="0"/>
         <v>-1000</v>
       </c>
-      <c r="R4" s="4">
+      <c r="T4" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="S4" s="4">
+      <c r="U4" s="4">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="T4" s="4">
-        <f t="shared" ref="T4:T13" si="5">SUM(L4-G4)</f>
-        <v>0</v>
-      </c>
-      <c r="U4" s="10"/>
-      <c r="W4" s="5">
+      <c r="V4" s="4">
+        <f t="shared" ref="V4:V13" si="5">SUM(N4-H4)</f>
+        <v>0</v>
+      </c>
+      <c r="W4" s="10"/>
+      <c r="Y4" s="5">
         <v>43204</v>
       </c>
-      <c r="X4" s="4">
+      <c r="Z4" s="4">
         <v>40</v>
       </c>
-      <c r="Y4" s="4" t="s">
+      <c r="AA4" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="Z4" s="4" t="s">
+      <c r="AB4" s="4" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:26" s="11" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:28" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A5" s="4">
         <v>2018037</v>
       </c>
@@ -1631,69 +1763,71 @@
       <c r="F5" s="6">
         <v>0</v>
       </c>
-      <c r="G5" s="6">
+      <c r="G5" s="6"/>
+      <c r="H5" s="6">
         <v>228</v>
       </c>
-      <c r="H5" s="12">
+      <c r="I5" s="12">
         <v>960</v>
       </c>
-      <c r="I5" s="7">
+      <c r="J5" s="7">
         <v>-5238</v>
       </c>
-      <c r="J5" s="7">
-        <v>0</v>
-      </c>
       <c r="K5" s="7">
         <v>0</v>
       </c>
       <c r="L5" s="7">
+        <v>0</v>
+      </c>
+      <c r="M5" s="7"/>
+      <c r="N5" s="7">
         <v>228</v>
       </c>
-      <c r="M5" s="8">
+      <c r="O5" s="8">
         <v>-1242.9000000000001</v>
       </c>
-      <c r="N5" s="8">
-        <v>0</v>
-      </c>
-      <c r="O5" s="9">
+      <c r="P5" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="9">
         <f t="shared" si="3"/>
         <v>-4791.8999999999996</v>
       </c>
-      <c r="P5" s="9">
+      <c r="R5" s="9">
         <f t="shared" si="4"/>
         <v>-5292.9</v>
       </c>
-      <c r="Q5" s="4">
+      <c r="S5" s="4">
         <f t="shared" si="0"/>
         <v>-501</v>
       </c>
-      <c r="R5" s="4">
+      <c r="T5" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="S5" s="4">
+      <c r="U5" s="4">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="T5" s="4">
+      <c r="V5" s="4">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="U5" s="10"/>
-      <c r="W5" s="5">
+      <c r="W5" s="10"/>
+      <c r="Y5" s="5">
         <v>43207</v>
       </c>
-      <c r="X5" s="4">
+      <c r="Z5" s="4">
         <v>20</v>
       </c>
-      <c r="Y5" s="4" t="s">
+      <c r="AA5" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="Z5" s="4" t="s">
+      <c r="AB5" s="4" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:26" s="11" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:28" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A6" s="4">
         <v>2018038</v>
       </c>
@@ -1712,69 +1846,71 @@
       <c r="F6" s="6">
         <v>0</v>
       </c>
-      <c r="G6" s="6">
+      <c r="G6" s="6"/>
+      <c r="H6" s="6">
         <v>-771</v>
       </c>
-      <c r="H6" s="12">
-        <v>0</v>
-      </c>
       <c r="I6" s="12">
         <v>0</v>
       </c>
-      <c r="J6" s="7">
+      <c r="J6" s="12">
         <v>0</v>
       </c>
       <c r="K6" s="7">
         <v>0</v>
       </c>
       <c r="L6" s="7">
+        <v>0</v>
+      </c>
+      <c r="M6" s="7"/>
+      <c r="N6" s="7">
         <v>-771.5</v>
       </c>
-      <c r="M6" s="8">
+      <c r="O6" s="8">
         <v>-1085</v>
       </c>
-      <c r="N6" s="8">
+      <c r="P6" s="8">
         <v>-774</v>
       </c>
-      <c r="O6" s="9">
+      <c r="Q6" s="9">
         <f t="shared" si="3"/>
         <v>2580</v>
       </c>
-      <c r="P6" s="9">
+      <c r="R6" s="9">
         <f t="shared" si="4"/>
         <v>-2630.5</v>
       </c>
-      <c r="Q6" s="4">
+      <c r="S6" s="4">
         <f t="shared" si="0"/>
         <v>-1505</v>
       </c>
-      <c r="R6" s="4">
+      <c r="T6" s="4">
         <f t="shared" si="1"/>
         <v>-3705</v>
       </c>
-      <c r="S6" s="4">
+      <c r="U6" s="4">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="T6" s="4">
+      <c r="V6" s="4">
         <f t="shared" si="5"/>
         <v>-0.5</v>
       </c>
-      <c r="U6" s="10"/>
-      <c r="W6" s="5">
+      <c r="W6" s="10"/>
+      <c r="Y6" s="5">
         <v>43210</v>
       </c>
-      <c r="X6" s="4">
+      <c r="Z6" s="4">
         <v>200</v>
       </c>
-      <c r="Y6" s="4" t="s">
+      <c r="AA6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="Z6" s="4" t="s">
+      <c r="AB6" s="4" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A7" s="4">
         <v>2018039</v>
       </c>
@@ -1793,69 +1929,71 @@
       <c r="F7" s="6">
         <v>0</v>
       </c>
-      <c r="G7" s="13">
+      <c r="G7" s="6"/>
+      <c r="H7" s="13">
         <v>1930</v>
       </c>
-      <c r="H7" s="14">
+      <c r="I7" s="14">
         <v>-624</v>
       </c>
-      <c r="I7" s="14">
+      <c r="J7" s="14">
         <v>2087</v>
       </c>
-      <c r="J7" s="7">
-        <v>0</v>
-      </c>
       <c r="K7" s="7">
         <v>0</v>
       </c>
-      <c r="L7" s="15">
+      <c r="L7" s="7">
+        <v>0</v>
+      </c>
+      <c r="M7" s="7"/>
+      <c r="N7" s="15">
         <v>1930</v>
       </c>
-      <c r="M7" s="16">
-        <v>0</v>
-      </c>
-      <c r="N7" s="16">
+      <c r="O7" s="16">
+        <v>0</v>
+      </c>
+      <c r="P7" s="16">
         <v>-535</v>
       </c>
-      <c r="O7" s="9">
+      <c r="Q7" s="9">
         <f t="shared" si="3"/>
         <v>2856.54</v>
       </c>
-      <c r="P7" s="9">
+      <c r="R7" s="9">
         <f t="shared" si="4"/>
         <v>2858</v>
       </c>
-      <c r="Q7" s="4">
+      <c r="S7" s="4">
         <f t="shared" si="0"/>
         <v>1.7999999999999545</v>
       </c>
-      <c r="R7" s="4">
+      <c r="T7" s="4">
         <f t="shared" si="1"/>
         <v>-0.34000000000014552</v>
       </c>
-      <c r="S7" s="4">
+      <c r="U7" s="4">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="T7" s="4">
+      <c r="V7" s="4">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="U7" s="10"/>
-      <c r="W7" s="5">
+      <c r="W7" s="10"/>
+      <c r="Y7" s="5">
         <v>43216</v>
       </c>
-      <c r="X7" s="4">
+      <c r="Z7" s="4">
         <v>58</v>
       </c>
-      <c r="Y7" s="4" t="s">
+      <c r="AA7" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="Z7" s="4" t="s">
+      <c r="AB7" s="4" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A8" s="4">
         <v>2018040</v>
       </c>
@@ -1874,69 +2012,71 @@
       <c r="F8" s="6">
         <v>0</v>
       </c>
-      <c r="G8" s="13">
+      <c r="G8" s="6"/>
+      <c r="H8" s="13">
         <v>-4007.5</v>
       </c>
-      <c r="H8" s="15">
+      <c r="I8" s="15">
         <v>-1600</v>
       </c>
-      <c r="I8" s="18">
+      <c r="J8" s="18">
         <v>331</v>
       </c>
-      <c r="J8" s="7">
-        <v>0</v>
-      </c>
       <c r="K8" s="7">
         <v>0</v>
       </c>
-      <c r="L8" s="15">
+      <c r="L8" s="7">
+        <v>0</v>
+      </c>
+      <c r="M8" s="7"/>
+      <c r="N8" s="15">
         <v>-4007.5</v>
       </c>
-      <c r="M8" s="16">
+      <c r="O8" s="16">
         <v>-40</v>
       </c>
-      <c r="N8" s="16">
+      <c r="P8" s="16">
         <v>-453</v>
       </c>
-      <c r="O8" s="9">
+      <c r="Q8" s="9">
         <f t="shared" si="3"/>
         <v>532.13999999999942</v>
       </c>
-      <c r="P8" s="9">
+      <c r="R8" s="9">
         <f t="shared" si="4"/>
         <v>-5769.5</v>
       </c>
-      <c r="Q8" s="4">
+      <c r="S8" s="4">
         <f t="shared" si="0"/>
         <v>-0.70000000000004547</v>
       </c>
-      <c r="R8" s="4">
+      <c r="T8" s="4">
         <f t="shared" si="1"/>
         <v>-6300.94</v>
       </c>
-      <c r="S8" s="4">
+      <c r="U8" s="4">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="T8" s="4">
+      <c r="V8" s="4">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="U8" s="10"/>
-      <c r="W8" s="5">
+      <c r="W8" s="10"/>
+      <c r="Y8" s="5">
         <v>43216</v>
       </c>
-      <c r="X8" s="4">
+      <c r="Z8" s="4">
         <v>500</v>
       </c>
-      <c r="Y8" s="4" t="s">
+      <c r="AA8" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="Z8" s="4" t="s">
+      <c r="AB8" s="4" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A9" s="4">
         <v>2018041</v>
       </c>
@@ -1955,69 +2095,71 @@
       <c r="F9" s="6">
         <v>0</v>
       </c>
-      <c r="G9" s="13">
+      <c r="G9" s="6"/>
+      <c r="H9" s="13">
         <v>-605.79999999999995</v>
       </c>
-      <c r="H9" s="19">
+      <c r="I9" s="19">
         <v>214</v>
       </c>
-      <c r="I9" s="19">
+      <c r="J9" s="19">
         <v>1069</v>
       </c>
-      <c r="J9" s="19">
+      <c r="K9" s="19">
         <v>2733</v>
       </c>
-      <c r="K9" s="7">
-        <v>0</v>
-      </c>
-      <c r="L9" s="15">
+      <c r="L9" s="7">
+        <v>0</v>
+      </c>
+      <c r="M9" s="7"/>
+      <c r="N9" s="15">
         <v>-606</v>
       </c>
-      <c r="M9" s="16">
-        <v>0</v>
-      </c>
-      <c r="N9" s="16">
+      <c r="O9" s="16">
+        <v>0</v>
+      </c>
+      <c r="P9" s="16">
         <v>847</v>
       </c>
-      <c r="O9" s="9">
+      <c r="Q9" s="9">
         <f t="shared" si="3"/>
         <v>4269.71</v>
       </c>
-      <c r="P9" s="9">
+      <c r="R9" s="9">
         <f t="shared" si="4"/>
         <v>4257</v>
       </c>
-      <c r="Q9" s="4">
+      <c r="S9" s="4">
         <f t="shared" si="0"/>
         <v>-2.6899999999999977</v>
       </c>
-      <c r="R9" s="4">
+      <c r="T9" s="4">
         <f t="shared" si="1"/>
         <v>-9.3599999999999</v>
       </c>
-      <c r="S9" s="4">
+      <c r="U9" s="4">
         <f t="shared" si="2"/>
         <v>-0.46000000000003638</v>
       </c>
-      <c r="T9" s="4">
+      <c r="V9" s="4">
         <f t="shared" si="5"/>
         <v>-0.20000000000004547</v>
       </c>
-      <c r="U9" s="10"/>
-      <c r="W9" s="5">
+      <c r="W9" s="10"/>
+      <c r="Y9" s="5">
         <v>43216</v>
       </c>
-      <c r="X9" s="4">
+      <c r="Z9" s="4">
         <v>30</v>
       </c>
-      <c r="Y9" s="4" t="s">
+      <c r="AA9" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="Z9" s="4" t="s">
+      <c r="AB9" s="4" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A10" s="4">
         <v>2018042</v>
       </c>
@@ -2036,69 +2178,71 @@
       <c r="F10" s="6">
         <v>0</v>
       </c>
-      <c r="G10" s="13">
+      <c r="G10" s="6"/>
+      <c r="H10" s="13">
         <v>938</v>
       </c>
-      <c r="H10" s="15">
+      <c r="I10" s="15">
         <v>25</v>
       </c>
-      <c r="I10" s="15">
+      <c r="J10" s="15">
         <v>1756</v>
       </c>
-      <c r="J10" s="15">
+      <c r="K10" s="15">
         <v>-120</v>
       </c>
-      <c r="K10" s="7">
-        <v>0</v>
-      </c>
-      <c r="L10" s="15">
+      <c r="L10" s="7">
+        <v>0</v>
+      </c>
+      <c r="M10" s="7"/>
+      <c r="N10" s="15">
         <v>938</v>
       </c>
-      <c r="M10" s="16">
+      <c r="O10" s="16">
         <v>-320</v>
       </c>
-      <c r="N10" s="16">
+      <c r="P10" s="16">
         <v>-3050</v>
       </c>
-      <c r="O10" s="9">
+      <c r="Q10" s="9">
         <f t="shared" si="3"/>
         <v>-771.36999999999989</v>
       </c>
-      <c r="P10" s="9">
+      <c r="R10" s="9">
         <f t="shared" si="4"/>
         <v>-771</v>
       </c>
-      <c r="Q10" s="4">
+      <c r="S10" s="4">
         <f t="shared" si="0"/>
         <v>-0.87000000000000099</v>
       </c>
-      <c r="R10" s="4">
+      <c r="T10" s="4">
         <f t="shared" si="1"/>
         <v>-0.75999999999999091</v>
       </c>
-      <c r="S10" s="4">
+      <c r="U10" s="4">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="T10" s="4">
+      <c r="V10" s="4">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="U10" s="10"/>
-      <c r="W10" s="5">
+      <c r="W10" s="10"/>
+      <c r="Y10" s="5">
         <v>43216</v>
       </c>
-      <c r="X10" s="4">
+      <c r="Z10" s="4">
         <v>30</v>
       </c>
-      <c r="Y10" s="4" t="s">
+      <c r="AA10" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="Z10" s="4" t="s">
+      <c r="AB10" s="4" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A11" s="4">
         <v>2018043</v>
       </c>
@@ -2117,69 +2261,71 @@
       <c r="F11" s="6">
         <v>0</v>
       </c>
-      <c r="G11" s="20">
+      <c r="G11" s="6"/>
+      <c r="H11" s="20">
         <v>1971.2</v>
       </c>
-      <c r="H11" s="15">
+      <c r="I11" s="15">
         <v>-1797</v>
       </c>
-      <c r="I11" s="15">
+      <c r="J11" s="15">
         <v>3490</v>
       </c>
-      <c r="J11" s="15">
+      <c r="K11" s="15">
         <v>3200</v>
       </c>
-      <c r="K11" s="7">
-        <v>0</v>
-      </c>
-      <c r="L11" s="19">
+      <c r="L11" s="7">
+        <v>0</v>
+      </c>
+      <c r="M11" s="7"/>
+      <c r="N11" s="19">
         <v>1971</v>
       </c>
-      <c r="M11" s="16">
-        <v>0</v>
-      </c>
-      <c r="N11" s="16">
-        <v>0</v>
-      </c>
-      <c r="O11" s="9">
+      <c r="O11" s="16">
+        <v>0</v>
+      </c>
+      <c r="P11" s="16">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="9">
         <f t="shared" si="3"/>
         <v>6865.5899999999992</v>
       </c>
-      <c r="P11" s="9">
+      <c r="R11" s="9">
         <f t="shared" si="4"/>
         <v>6864</v>
       </c>
-      <c r="Q11" s="4">
+      <c r="S11" s="4">
         <f t="shared" si="0"/>
         <v>0.92000000000007276</v>
       </c>
-      <c r="R11" s="4">
+      <c r="T11" s="4">
         <f t="shared" si="1"/>
         <v>-1.4000000000000909</v>
       </c>
-      <c r="S11" s="4">
+      <c r="U11" s="4">
         <f t="shared" si="2"/>
         <v>-0.90999999999985448</v>
       </c>
-      <c r="T11" s="4">
+      <c r="V11" s="4">
         <f t="shared" si="5"/>
         <v>-0.20000000000004547</v>
       </c>
-      <c r="U11" s="10"/>
-      <c r="W11" s="5">
+      <c r="W11" s="10"/>
+      <c r="Y11" s="5">
         <v>43217</v>
       </c>
-      <c r="X11" s="4">
+      <c r="Z11" s="4">
         <v>225</v>
       </c>
-      <c r="Y11" s="4" t="s">
+      <c r="AA11" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="Z11" s="4" t="s">
+      <c r="AB11" s="4" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A12" s="4">
         <v>2018044</v>
       </c>
@@ -2198,69 +2344,71 @@
       <c r="F12" s="6">
         <v>0</v>
       </c>
-      <c r="G12" s="20">
+      <c r="G12" s="6"/>
+      <c r="H12" s="20">
         <v>7297</v>
       </c>
-      <c r="H12" s="18">
+      <c r="I12" s="18">
         <v>1290</v>
       </c>
-      <c r="I12" s="15">
+      <c r="J12" s="15">
         <v>-6305</v>
       </c>
-      <c r="J12" s="15">
+      <c r="K12" s="15">
         <v>11249</v>
       </c>
-      <c r="K12" s="7">
-        <v>0</v>
-      </c>
-      <c r="L12" s="15">
+      <c r="L12" s="7">
+        <v>0</v>
+      </c>
+      <c r="M12" s="7"/>
+      <c r="N12" s="15">
         <v>7200</v>
       </c>
-      <c r="M12" s="16">
-        <v>0</v>
-      </c>
-      <c r="N12" s="16">
-        <v>0</v>
-      </c>
-      <c r="O12" s="9">
+      <c r="O12" s="16">
+        <v>0</v>
+      </c>
+      <c r="P12" s="16">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="9">
         <f t="shared" si="3"/>
         <v>14331.79</v>
       </c>
-      <c r="P12" s="9">
+      <c r="R12" s="9">
         <f t="shared" si="4"/>
         <v>13434</v>
       </c>
-      <c r="Q12" s="4">
+      <c r="S12" s="4">
         <f t="shared" si="0"/>
         <v>-800.13000000000011</v>
       </c>
-      <c r="R12" s="4">
+      <c r="T12" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="S12" s="4">
+      <c r="U12" s="4">
         <f t="shared" si="2"/>
         <v>-0.65999999999985448</v>
       </c>
-      <c r="T12" s="4">
+      <c r="V12" s="4">
         <f t="shared" si="5"/>
         <v>-97</v>
       </c>
-      <c r="U12" s="10"/>
-      <c r="W12" s="5">
+      <c r="W12" s="10"/>
+      <c r="Y12" s="5">
         <v>43218</v>
       </c>
-      <c r="X12" s="4">
+      <c r="Z12" s="4">
         <v>88</v>
       </c>
-      <c r="Y12" s="4" t="s">
+      <c r="AA12" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="Z12" s="4" t="s">
+      <c r="AB12" s="4" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A13" s="4">
         <v>2018045</v>
       </c>
@@ -2279,67 +2427,69 @@
       <c r="F13" s="6">
         <v>0</v>
       </c>
-      <c r="G13" s="20">
+      <c r="G13" s="6"/>
+      <c r="H13" s="20">
         <v>388.4</v>
       </c>
-      <c r="H13" s="15">
+      <c r="I13" s="15">
         <v>-238</v>
       </c>
-      <c r="I13" s="15">
+      <c r="J13" s="15">
         <v>-1207</v>
       </c>
-      <c r="J13" s="15">
+      <c r="K13" s="15">
         <v>-2290</v>
       </c>
-      <c r="K13" s="7">
-        <v>0</v>
-      </c>
-      <c r="L13" s="15">
+      <c r="L13" s="7">
+        <v>0</v>
+      </c>
+      <c r="M13" s="7"/>
+      <c r="N13" s="15">
         <v>385</v>
       </c>
-      <c r="M13" s="16">
-        <v>0</v>
-      </c>
-      <c r="N13" s="16">
+      <c r="O13" s="16">
+        <v>0</v>
+      </c>
+      <c r="P13" s="16">
         <v>-1584</v>
       </c>
-      <c r="O13" s="9">
+      <c r="Q13" s="9">
         <f t="shared" si="3"/>
         <v>-4901.3799999999992</v>
       </c>
-      <c r="P13" s="9">
+      <c r="R13" s="9">
         <f t="shared" si="4"/>
         <v>-4934</v>
       </c>
-      <c r="Q13" s="4">
+      <c r="S13" s="4">
         <f t="shared" si="0"/>
         <v>0.30000000000001137</v>
       </c>
-      <c r="R13" s="4">
+      <c r="T13" s="4">
         <f t="shared" si="1"/>
         <v>-0.68000000000006366</v>
       </c>
-      <c r="S13" s="4">
+      <c r="U13" s="4">
         <f t="shared" si="2"/>
         <v>-28.840000000000146</v>
       </c>
-      <c r="T13" s="4">
+      <c r="V13" s="4">
         <f t="shared" si="5"/>
         <v>-3.3999999999999773</v>
       </c>
-      <c r="U13" s="10"/>
-      <c r="W13" s="5"/>
-      <c r="X13" s="4"/>
-      <c r="Y13" s="4"/>
+      <c r="W13" s="10"/>
+      <c r="Y13" s="5"/>
       <c r="Z13" s="4"/>
-    </row>
-    <row r="14" spans="1:26" s="25" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="AA13" s="4"/>
+      <c r="AB13" s="4"/>
+    </row>
+    <row r="14" spans="1:28" s="25" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A14" s="21" t="s">
         <v>35</v>
       </c>
       <c r="B14" s="22"/>
       <c r="C14" s="22">
-        <f t="shared" ref="C14:T14" si="6">SUM(C3:C13)</f>
+        <f t="shared" ref="C14:V14" si="6">SUM(C3:C13)</f>
         <v>387.37000000000006</v>
       </c>
       <c r="D14" s="22">
@@ -2354,119 +2504,123 @@
         <f>SUM(F3:F13)</f>
         <v>0</v>
       </c>
-      <c r="G14" s="22">
+      <c r="G14" s="22"/>
+      <c r="H14" s="22">
         <f t="shared" si="6"/>
         <v>6073.2999999999993</v>
       </c>
-      <c r="H14" s="22">
+      <c r="I14" s="22">
         <f t="shared" si="6"/>
         <v>-3420</v>
       </c>
-      <c r="I14" s="22">
+      <c r="J14" s="22">
         <f t="shared" si="6"/>
         <v>1145</v>
       </c>
-      <c r="J14" s="22">
+      <c r="K14" s="22">
         <f t="shared" si="6"/>
         <v>14772</v>
       </c>
-      <c r="K14" s="22">
-        <f>SUM(K3:K13)</f>
-        <v>0</v>
-      </c>
       <c r="L14" s="22">
+        <f>SUM(L3:L13)</f>
+        <v>0</v>
+      </c>
+      <c r="M14" s="22"/>
+      <c r="N14" s="22">
         <f t="shared" si="6"/>
         <v>5972</v>
       </c>
-      <c r="M14" s="22">
+      <c r="O14" s="22">
         <f t="shared" si="6"/>
         <v>-4677.8999999999996</v>
       </c>
-      <c r="N14" s="22">
+      <c r="P14" s="22">
         <f t="shared" si="6"/>
         <v>-5549</v>
       </c>
-      <c r="O14" s="23">
+      <c r="Q14" s="23">
         <f t="shared" si="6"/>
         <v>22198.120000000003</v>
       </c>
-      <c r="P14" s="23">
+      <c r="R14" s="23">
         <f t="shared" si="6"/>
         <v>8242.1</v>
       </c>
-      <c r="Q14" s="21">
+      <c r="S14" s="21">
         <f t="shared" si="6"/>
         <v>-3807.3699999999994</v>
       </c>
-      <c r="R14" s="21">
+      <c r="T14" s="21">
         <f t="shared" si="6"/>
         <v>-10018.48</v>
       </c>
-      <c r="S14" s="21">
+      <c r="U14" s="21">
         <f t="shared" si="6"/>
         <v>-28.869999999999891</v>
       </c>
-      <c r="T14" s="21">
+      <c r="V14" s="21">
         <f t="shared" si="6"/>
         <v>-101.30000000000007</v>
       </c>
-      <c r="U14" s="24"/>
-      <c r="W14" s="26" t="s">
+      <c r="W14" s="24"/>
+      <c r="Y14" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="X14" s="21">
-        <f>SUM(X3:X13)</f>
+      <c r="Z14" s="21">
+        <f>SUM(Z3:Z13)</f>
         <v>2090</v>
       </c>
-      <c r="Y14" s="21"/>
-      <c r="Z14" s="21"/>
-    </row>
-    <row r="21" spans="1:26" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A21" s="57" t="s">
-        <v>0</v>
-      </c>
-      <c r="B21" s="58" t="s">
+      <c r="AA14" s="21"/>
+      <c r="AB14" s="21"/>
+    </row>
+    <row r="21" spans="1:28" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A21" s="68" t="s">
+        <v>0</v>
+      </c>
+      <c r="B21" s="69" t="s">
         <v>36</v>
       </c>
-      <c r="C21" s="56" t="s">
+      <c r="C21" s="67" t="s">
         <v>2</v>
       </c>
-      <c r="D21" s="56"/>
-      <c r="E21" s="56"/>
-      <c r="F21" s="56"/>
-      <c r="G21" s="56"/>
-      <c r="H21" s="56" t="s">
+      <c r="D21" s="67"/>
+      <c r="E21" s="67"/>
+      <c r="F21" s="67"/>
+      <c r="G21" s="67"/>
+      <c r="H21" s="67"/>
+      <c r="I21" s="67" t="s">
         <v>3</v>
       </c>
-      <c r="I21" s="56"/>
-      <c r="J21" s="56"/>
-      <c r="K21" s="56"/>
-      <c r="L21" s="56"/>
-      <c r="M21" s="56" t="s">
+      <c r="J21" s="67"/>
+      <c r="K21" s="67"/>
+      <c r="L21" s="67"/>
+      <c r="M21" s="67"/>
+      <c r="N21" s="67"/>
+      <c r="O21" s="67" t="s">
         <v>4</v>
       </c>
-      <c r="N21" s="56"/>
-      <c r="O21" s="56" t="s">
+      <c r="P21" s="67"/>
+      <c r="Q21" s="67" t="s">
         <v>5</v>
       </c>
-      <c r="P21" s="56"/>
-      <c r="Q21" s="56" t="s">
+      <c r="R21" s="67"/>
+      <c r="S21" s="67" t="s">
         <v>6</v>
       </c>
-      <c r="R21" s="56"/>
-      <c r="S21" s="56"/>
-      <c r="T21" s="56"/>
-      <c r="U21" s="1"/>
-      <c r="W21" s="56" t="s">
+      <c r="T21" s="67"/>
+      <c r="U21" s="67"/>
+      <c r="V21" s="67"/>
+      <c r="W21" s="1"/>
+      <c r="Y21" s="67" t="s">
         <v>7</v>
       </c>
-      <c r="X21" s="56"/>
-      <c r="Y21" s="56"/>
-      <c r="Z21" s="56"/>
-    </row>
-    <row r="22" spans="1:26" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A22" s="57"/>
-      <c r="B22" s="59"/>
+      <c r="Z21" s="67"/>
+      <c r="AA21" s="67"/>
+      <c r="AB21" s="67"/>
+    </row>
+    <row r="22" spans="1:28" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A22" s="68"/>
+      <c r="B22" s="70"/>
       <c r="C22" s="2" t="s">
         <v>8</v>
       </c>
@@ -2477,65 +2631,71 @@
         <v>10</v>
       </c>
       <c r="F22" s="30" t="s">
-        <v>103</v>
-      </c>
-      <c r="G22" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="G22" s="57" t="s">
+        <v>146</v>
+      </c>
+      <c r="H22" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H22" s="2" t="s">
+      <c r="I22" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="I22" s="2" t="s">
+      <c r="J22" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="J22" s="2" t="s">
+      <c r="K22" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="K22" s="30" t="s">
-        <v>103</v>
-      </c>
-      <c r="L22" s="2" t="s">
+      <c r="L22" s="30" t="s">
+        <v>100</v>
+      </c>
+      <c r="M22" s="57" t="s">
+        <v>146</v>
+      </c>
+      <c r="N22" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M22" s="2" t="s">
+      <c r="O22" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="N22" s="2" t="s">
+      <c r="P22" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="O22" s="2" t="s">
+      <c r="Q22" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="P22" s="2" t="s">
+      <c r="R22" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="Q22" s="2" t="s">
+      <c r="S22" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="R22" s="2" t="s">
+      <c r="T22" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="S22" s="2" t="s">
+      <c r="U22" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="T22" s="2" t="s">
+      <c r="V22" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="U22" s="1"/>
-      <c r="W22" s="55" t="s">
+      <c r="W22" s="1"/>
+      <c r="Y22" s="55" t="s">
         <v>16</v>
       </c>
-      <c r="X22" s="55" t="s">
+      <c r="Z22" s="55" t="s">
         <v>17</v>
       </c>
-      <c r="Y22" s="55" t="s">
+      <c r="AA22" s="55" t="s">
         <v>18</v>
       </c>
-      <c r="Z22" s="55" t="s">
+      <c r="AB22" s="55" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A23" s="4">
         <v>2018046</v>
       </c>
@@ -2555,68 +2715,74 @@
         <v>0</v>
       </c>
       <c r="G23" s="6">
+        <v>0</v>
+      </c>
+      <c r="H23" s="6">
         <v>3955</v>
       </c>
-      <c r="H23" s="7">
+      <c r="I23" s="7">
         <v>-565</v>
       </c>
-      <c r="I23" s="12">
-        <v>0</v>
-      </c>
       <c r="J23" s="12">
         <v>0</v>
       </c>
-      <c r="K23" s="27">
-        <v>0</v>
-      </c>
-      <c r="L23" s="7">
+      <c r="K23" s="12">
+        <v>0</v>
+      </c>
+      <c r="L23" s="27">
+        <v>0</v>
+      </c>
+      <c r="M23" s="27">
+        <v>0</v>
+      </c>
+      <c r="N23" s="7">
         <v>3955</v>
       </c>
-      <c r="M23" s="8">
-        <v>0</v>
-      </c>
-      <c r="N23" s="8">
+      <c r="O23" s="8">
+        <v>0</v>
+      </c>
+      <c r="P23" s="8">
         <v>-3145.6</v>
       </c>
-      <c r="O23" s="9">
-        <f t="shared" ref="O23:O33" si="7">SUM(C23+D23+E23+F23+G23+M23+N23)</f>
+      <c r="Q23" s="9">
+        <f t="shared" ref="Q23:Q35" si="7">SUM(C23+D23+E23+F23+H23+O23+P23)</f>
         <v>8260.4</v>
       </c>
-      <c r="P23" s="9">
-        <f>SUM(H23+I23+J23+K23+L23+M23+N23)</f>
+      <c r="R23" s="9">
+        <f>SUM(I23+J23+K23+L23+N23+O23+P23)</f>
         <v>244.40000000000009</v>
       </c>
-      <c r="Q23" s="4">
-        <f t="shared" ref="Q23:Q36" si="8">SUM(H23-C23)</f>
-        <v>0</v>
-      </c>
-      <c r="R23" s="4">
-        <f t="shared" ref="R23:R36" si="9">SUM(I23-D23)</f>
+      <c r="S23" s="4">
+        <f t="shared" ref="S23:S36" si="8">SUM(I23-C23)</f>
+        <v>0</v>
+      </c>
+      <c r="T23" s="4">
+        <f t="shared" ref="T23:T36" si="9">SUM(J23-D23)</f>
         <v>-6899.54</v>
       </c>
-      <c r="S23" s="4">
-        <f t="shared" ref="S23:S36" si="10">SUM(J23-E23)</f>
+      <c r="U23" s="4">
+        <f t="shared" ref="U23:U36" si="10">SUM(K23-E23)</f>
         <v>-1116.46</v>
       </c>
-      <c r="T23" s="4">
-        <f>SUM(L23-G23)</f>
-        <v>0</v>
-      </c>
-      <c r="U23" s="10"/>
-      <c r="W23" s="5">
+      <c r="V23" s="4">
+        <f>SUM(N23-H23)</f>
+        <v>0</v>
+      </c>
+      <c r="W23" s="10"/>
+      <c r="Y23" s="5">
         <v>43223</v>
       </c>
-      <c r="X23" s="4">
+      <c r="Z23" s="4">
         <v>100</v>
       </c>
-      <c r="Y23" s="4" t="s">
+      <c r="AA23" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="Z23" s="4" t="s">
+      <c r="AB23" s="4" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A24" s="4">
         <v>2018047</v>
       </c>
@@ -2636,68 +2802,74 @@
         <v>0</v>
       </c>
       <c r="G24" s="6">
+        <v>0</v>
+      </c>
+      <c r="H24" s="6">
         <v>1760</v>
       </c>
-      <c r="H24" s="7">
+      <c r="I24" s="7">
         <v>-5515</v>
       </c>
-      <c r="I24" s="12">
-        <v>0</v>
-      </c>
       <c r="J24" s="12">
         <v>0</v>
       </c>
-      <c r="K24" s="27">
-        <v>0</v>
-      </c>
-      <c r="L24" s="7">
+      <c r="K24" s="12">
+        <v>0</v>
+      </c>
+      <c r="L24" s="27">
+        <v>0</v>
+      </c>
+      <c r="M24" s="27">
+        <v>0</v>
+      </c>
+      <c r="N24" s="7">
         <v>1760</v>
       </c>
-      <c r="M24" s="8">
-        <v>0</v>
-      </c>
-      <c r="N24" s="8">
+      <c r="O24" s="8">
+        <v>0</v>
+      </c>
+      <c r="P24" s="8">
         <v>-1716</v>
       </c>
-      <c r="O24" s="9">
+      <c r="Q24" s="9">
         <f t="shared" si="7"/>
         <v>-1741.1599999999994</v>
       </c>
-      <c r="P24" s="9">
-        <f t="shared" ref="P24:P36" si="11">SUM(H24+I24+J24+K24+L24+M24+N24)</f>
+      <c r="R24" s="9">
+        <f t="shared" ref="R24:R36" si="11">SUM(I24+J24+K24+L24+N24+O24+P24)</f>
         <v>-5471</v>
       </c>
-      <c r="Q24" s="4">
+      <c r="S24" s="4">
         <f t="shared" si="8"/>
         <v>-0.1000000000003638</v>
       </c>
-      <c r="R24" s="4">
+      <c r="T24" s="4">
         <f t="shared" si="9"/>
         <v>-1278.5999999999999</v>
       </c>
-      <c r="S24" s="4">
+      <c r="U24" s="4">
         <f t="shared" si="10"/>
         <v>-2451.14</v>
       </c>
-      <c r="T24" s="4">
-        <f t="shared" ref="T24:T36" si="12">SUM(L24-G24)</f>
-        <v>0</v>
-      </c>
-      <c r="U24" s="10"/>
-      <c r="W24" s="5">
+      <c r="V24" s="4">
+        <f t="shared" ref="V24:V36" si="12">SUM(N24-H24)</f>
+        <v>0</v>
+      </c>
+      <c r="W24" s="10"/>
+      <c r="Y24" s="5">
         <v>43224</v>
       </c>
-      <c r="X24" s="4">
+      <c r="Z24" s="4">
         <v>200</v>
       </c>
-      <c r="Y24" s="4" t="s">
+      <c r="AA24" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="Z24" s="4" t="s">
+      <c r="AB24" s="4" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A25" s="4">
         <v>2018048</v>
       </c>
@@ -2717,68 +2889,74 @@
         <v>0</v>
       </c>
       <c r="G25" s="6">
+        <v>0</v>
+      </c>
+      <c r="H25" s="6">
+        <v>-1924</v>
+      </c>
+      <c r="I25" s="7">
+        <v>1638</v>
+      </c>
+      <c r="J25" s="7">
+        <v>-2927</v>
+      </c>
+      <c r="K25" s="7">
+        <v>0</v>
+      </c>
+      <c r="L25" s="27">
+        <v>0</v>
+      </c>
+      <c r="M25" s="27">
+        <v>0</v>
+      </c>
+      <c r="N25" s="7">
         <v>-1926</v>
       </c>
-      <c r="H25" s="7">
-        <v>1638</v>
-      </c>
-      <c r="I25" s="7">
-        <v>-2927</v>
-      </c>
-      <c r="J25" s="7">
-        <v>0</v>
-      </c>
-      <c r="K25" s="27">
-        <v>0</v>
-      </c>
-      <c r="L25" s="7">
-        <v>-1926</v>
-      </c>
-      <c r="M25" s="8">
-        <v>0</v>
-      </c>
-      <c r="N25" s="8">
+      <c r="O25" s="8">
+        <v>0</v>
+      </c>
+      <c r="P25" s="8">
         <v>57</v>
       </c>
-      <c r="O25" s="9">
+      <c r="Q25" s="9">
         <f t="shared" si="7"/>
-        <v>-3157.42</v>
-      </c>
-      <c r="P25" s="9">
+        <v>-3155.42</v>
+      </c>
+      <c r="R25" s="9">
         <f t="shared" si="11"/>
         <v>-3158</v>
       </c>
-      <c r="Q25" s="4">
+      <c r="S25" s="4">
         <f t="shared" si="8"/>
         <v>-0.14000000000010004</v>
       </c>
-      <c r="R25" s="4">
+      <c r="T25" s="4">
         <f t="shared" si="9"/>
         <v>-0.44000000000005457</v>
       </c>
-      <c r="S25" s="4">
+      <c r="U25" s="4">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="T25" s="4">
+      <c r="V25" s="4">
         <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="U25" s="10"/>
-      <c r="W25" s="5">
+        <v>-2</v>
+      </c>
+      <c r="W25" s="10"/>
+      <c r="Y25" s="5">
         <v>43224</v>
       </c>
-      <c r="X25" s="4">
+      <c r="Z25" s="4">
         <v>2500</v>
       </c>
-      <c r="Y25" s="4" t="s">
+      <c r="AA25" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="Z25" s="4" t="s">
+      <c r="AB25" s="4" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="26" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A26" s="4">
         <v>2018049</v>
       </c>
@@ -2798,68 +2976,74 @@
         <v>0</v>
       </c>
       <c r="G26" s="6">
+        <v>0</v>
+      </c>
+      <c r="H26" s="6">
         <v>2472.8000000000002</v>
       </c>
-      <c r="H26" s="27">
+      <c r="I26" s="27">
         <v>3973</v>
       </c>
-      <c r="I26" s="7">
+      <c r="J26" s="7">
         <v>-2464</v>
       </c>
-      <c r="J26" s="7">
-        <v>0</v>
-      </c>
-      <c r="K26" s="27">
+      <c r="K26" s="7">
         <v>0</v>
       </c>
       <c r="L26" s="27">
+        <v>0</v>
+      </c>
+      <c r="M26" s="27">
+        <v>0</v>
+      </c>
+      <c r="N26" s="27">
         <v>2472</v>
       </c>
-      <c r="M26" s="8">
-        <v>0</v>
-      </c>
-      <c r="N26" s="8">
+      <c r="O26" s="8">
+        <v>0</v>
+      </c>
+      <c r="P26" s="8">
         <v>-4642.6000000000004</v>
       </c>
-      <c r="O26" s="9">
+      <c r="Q26" s="9">
         <f t="shared" si="7"/>
         <v>-660.04</v>
       </c>
-      <c r="P26" s="9">
+      <c r="R26" s="9">
         <f t="shared" si="11"/>
         <v>-661.60000000000036</v>
       </c>
-      <c r="Q26" s="4">
+      <c r="S26" s="4">
         <f t="shared" si="8"/>
         <v>-0.92000000000007276</v>
       </c>
-      <c r="R26" s="4">
+      <c r="T26" s="4">
         <f t="shared" si="9"/>
         <v>0.15999999999985448</v>
       </c>
-      <c r="S26" s="4">
+      <c r="U26" s="4">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="T26" s="4">
+      <c r="V26" s="4">
         <f t="shared" si="12"/>
         <v>-0.8000000000001819</v>
       </c>
-      <c r="U26" s="10"/>
-      <c r="W26" s="5">
+      <c r="W26" s="10"/>
+      <c r="Y26" s="5">
         <v>43224</v>
       </c>
-      <c r="X26" s="4">
+      <c r="Z26" s="4">
         <v>20</v>
       </c>
-      <c r="Y26" s="4" t="s">
+      <c r="AA26" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="Z26" s="4" t="s">
+      <c r="AB26" s="4" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="27" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A27" s="4">
         <v>2018050</v>
       </c>
@@ -2879,70 +3063,76 @@
         <v>0</v>
       </c>
       <c r="G27" s="6">
+        <v>0</v>
+      </c>
+      <c r="H27" s="6">
         <v>765</v>
       </c>
-      <c r="H27" s="12">
+      <c r="I27" s="12">
         <v>1654</v>
       </c>
-      <c r="I27" s="7">
+      <c r="J27" s="7">
         <v>-2918</v>
       </c>
-      <c r="J27" s="7">
-        <v>0</v>
-      </c>
-      <c r="K27" s="27">
+      <c r="K27" s="7">
         <v>0</v>
       </c>
       <c r="L27" s="27">
+        <v>0</v>
+      </c>
+      <c r="M27" s="27">
+        <v>0</v>
+      </c>
+      <c r="N27" s="27">
         <v>765</v>
       </c>
-      <c r="M27" s="8">
-        <v>0</v>
-      </c>
-      <c r="N27" s="8">
-        <v>0</v>
-      </c>
-      <c r="O27" s="9">
+      <c r="O27" s="8">
+        <v>0</v>
+      </c>
+      <c r="P27" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q27" s="9">
         <f t="shared" si="7"/>
         <v>-2199.54</v>
       </c>
-      <c r="P27" s="9">
+      <c r="R27" s="9">
         <f t="shared" si="11"/>
         <v>-499</v>
       </c>
-      <c r="Q27" s="4">
+      <c r="S27" s="4">
         <f t="shared" si="8"/>
         <v>-0.18000000000006366</v>
       </c>
-      <c r="R27" s="4">
+      <c r="T27" s="4">
         <f t="shared" si="9"/>
         <v>1700.7200000000003</v>
       </c>
-      <c r="S27" s="4">
+      <c r="U27" s="4">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="T27" s="4">
+      <c r="V27" s="4">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="U27" s="10" t="s">
-        <v>107</v>
-      </c>
-      <c r="W27" s="5">
+      <c r="W27" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="Y27" s="5">
         <v>43231</v>
       </c>
-      <c r="X27" s="4">
+      <c r="Z27" s="4">
         <v>6</v>
       </c>
-      <c r="Y27" s="4" t="s">
+      <c r="AA27" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="Z27" s="4" t="s">
+      <c r="AB27" s="4" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="28" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A28" s="4">
         <v>2018051</v>
       </c>
@@ -2962,68 +3152,74 @@
         <v>0</v>
       </c>
       <c r="G28" s="6">
+        <v>0</v>
+      </c>
+      <c r="H28" s="6">
         <v>1225</v>
       </c>
-      <c r="H28" s="12">
+      <c r="I28" s="12">
         <v>-500</v>
       </c>
-      <c r="I28" s="7">
+      <c r="J28" s="7">
         <v>6014</v>
       </c>
-      <c r="J28" s="7">
-        <v>0</v>
-      </c>
-      <c r="K28" s="27">
-        <v>0</v>
-      </c>
-      <c r="L28" s="7">
+      <c r="K28" s="7">
+        <v>0</v>
+      </c>
+      <c r="L28" s="27">
+        <v>0</v>
+      </c>
+      <c r="M28" s="27">
+        <v>0</v>
+      </c>
+      <c r="N28" s="7">
         <v>1225</v>
       </c>
-      <c r="M28" s="8">
-        <v>0</v>
-      </c>
-      <c r="N28" s="8">
+      <c r="O28" s="8">
+        <v>0</v>
+      </c>
+      <c r="P28" s="8">
         <v>-623.4</v>
       </c>
-      <c r="O28" s="9">
+      <c r="Q28" s="9">
         <f t="shared" si="7"/>
         <v>7553.4000000000005</v>
       </c>
-      <c r="P28" s="9">
+      <c r="R28" s="9">
         <f t="shared" si="11"/>
         <v>6115.6</v>
       </c>
-      <c r="Q28" s="4">
+      <c r="S28" s="4">
         <f t="shared" si="8"/>
         <v>-1436.96</v>
       </c>
-      <c r="R28" s="4">
+      <c r="T28" s="4">
         <f t="shared" si="9"/>
         <v>-0.84000000000014552</v>
       </c>
-      <c r="S28" s="4">
+      <c r="U28" s="4">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="T28" s="4">
+      <c r="V28" s="4">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="U28" s="10"/>
-      <c r="W28" s="5">
+      <c r="W28" s="10"/>
+      <c r="Y28" s="5">
         <v>43232</v>
       </c>
-      <c r="X28" s="4">
+      <c r="Z28" s="4">
         <v>3</v>
       </c>
-      <c r="Y28" s="4" t="s">
+      <c r="AA28" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="Z28" s="4" t="s">
+      <c r="AB28" s="4" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="29" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A29" s="4">
         <v>2018052</v>
       </c>
@@ -3043,68 +3239,74 @@
         <v>1021.68</v>
       </c>
       <c r="G29" s="6">
+        <v>0</v>
+      </c>
+      <c r="H29" s="6">
         <v>-5796.4</v>
       </c>
-      <c r="H29" s="12">
+      <c r="I29" s="12">
         <v>2000</v>
       </c>
-      <c r="I29" s="7">
+      <c r="J29" s="7">
         <v>4500</v>
       </c>
-      <c r="J29" s="7">
-        <v>0</v>
-      </c>
-      <c r="K29" s="27">
+      <c r="K29" s="7">
+        <v>0</v>
+      </c>
+      <c r="L29" s="27">
         <v>1021</v>
       </c>
-      <c r="L29" s="7">
+      <c r="M29" s="27">
+        <v>0</v>
+      </c>
+      <c r="N29" s="7">
         <v>-5846</v>
       </c>
-      <c r="M29" s="8">
-        <v>0</v>
-      </c>
-      <c r="N29" s="8">
+      <c r="O29" s="8">
+        <v>0</v>
+      </c>
+      <c r="P29" s="8">
         <v>-672.2</v>
       </c>
-      <c r="O29" s="9">
+      <c r="Q29" s="9">
         <f t="shared" si="7"/>
         <v>1944.6199999999997</v>
       </c>
-      <c r="P29" s="9">
+      <c r="R29" s="9">
         <f t="shared" si="11"/>
         <v>1002.8</v>
       </c>
-      <c r="Q29" s="4">
+      <c r="S29" s="4">
         <f t="shared" si="8"/>
         <v>-885.5</v>
       </c>
-      <c r="R29" s="4">
+      <c r="T29" s="4">
         <f t="shared" si="9"/>
         <v>-6.0399999999999636</v>
       </c>
-      <c r="S29" s="4">
+      <c r="U29" s="4">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="T29" s="4">
+      <c r="V29" s="4">
         <f t="shared" si="12"/>
         <v>-49.600000000000364</v>
       </c>
-      <c r="U29" s="10"/>
-      <c r="W29" s="5">
+      <c r="W29" s="10"/>
+      <c r="Y29" s="5">
         <v>43235</v>
       </c>
-      <c r="X29" s="4">
+      <c r="Z29" s="4">
         <v>8</v>
       </c>
-      <c r="Y29" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="Z29" s="4" t="s">
+      <c r="AA29" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="AB29" s="4" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="30" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A30" s="4">
         <v>2018053</v>
       </c>
@@ -3124,70 +3326,76 @@
         <v>-271.27999999999997</v>
       </c>
       <c r="G30" s="6">
+        <v>0</v>
+      </c>
+      <c r="H30" s="6">
         <v>1733</v>
       </c>
-      <c r="H30" s="7">
+      <c r="I30" s="7">
         <v>-3300</v>
       </c>
-      <c r="I30" s="12">
+      <c r="J30" s="12">
         <v>-8648</v>
       </c>
-      <c r="J30" s="7">
-        <v>0</v>
-      </c>
-      <c r="K30" s="27">
+      <c r="K30" s="7">
+        <v>0</v>
+      </c>
+      <c r="L30" s="27">
         <v>-271</v>
       </c>
-      <c r="L30" s="7">
+      <c r="M30" s="27">
+        <v>0</v>
+      </c>
+      <c r="N30" s="7">
         <v>1733</v>
       </c>
-      <c r="M30" s="8">
+      <c r="O30" s="8">
         <v>-20</v>
       </c>
-      <c r="N30" s="8">
+      <c r="P30" s="8">
         <v>1159</v>
       </c>
-      <c r="O30" s="9">
+      <c r="Q30" s="9">
         <f t="shared" si="7"/>
         <v>-24348.839999999997</v>
       </c>
-      <c r="P30" s="9">
+      <c r="R30" s="9">
         <f t="shared" si="11"/>
         <v>-9347</v>
       </c>
-      <c r="Q30" s="4">
+      <c r="S30" s="4">
         <f t="shared" si="8"/>
         <v>1.6399999999998727</v>
       </c>
-      <c r="R30" s="4">
+      <c r="T30" s="4">
         <f t="shared" si="9"/>
         <v>14999.919999999998</v>
       </c>
-      <c r="S30" s="4">
+      <c r="U30" s="4">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="T30" s="4">
+      <c r="V30" s="4">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="U30" s="10" t="s">
-        <v>108</v>
-      </c>
-      <c r="W30" s="5">
+      <c r="W30" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="Y30" s="5">
         <v>43238</v>
       </c>
-      <c r="X30" s="4">
+      <c r="Z30" s="4">
         <v>10</v>
       </c>
-      <c r="Y30" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="Z30" s="4" t="s">
+      <c r="AA30" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="AB30" s="4" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="31" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A31" s="4">
         <v>2018054</v>
       </c>
@@ -3207,68 +3415,74 @@
         <v>-5069.2</v>
       </c>
       <c r="G31" s="6">
+        <v>0</v>
+      </c>
+      <c r="H31" s="6">
         <v>1044</v>
       </c>
-      <c r="H31" s="12">
+      <c r="I31" s="12">
         <v>1512</v>
       </c>
-      <c r="I31" s="7">
+      <c r="J31" s="7">
         <v>-4823</v>
       </c>
-      <c r="J31" s="7">
-        <v>0</v>
-      </c>
-      <c r="K31" s="27">
+      <c r="K31" s="7">
+        <v>0</v>
+      </c>
+      <c r="L31" s="27">
         <v>-5069</v>
       </c>
-      <c r="L31" s="27">
+      <c r="M31" s="27">
+        <v>0</v>
+      </c>
+      <c r="N31" s="27">
         <v>1044</v>
       </c>
-      <c r="M31" s="8">
-        <v>0</v>
-      </c>
-      <c r="N31" s="8">
+      <c r="O31" s="8">
+        <v>0</v>
+      </c>
+      <c r="P31" s="8">
         <v>4254</v>
       </c>
-      <c r="O31" s="9">
+      <c r="Q31" s="9">
         <f t="shared" si="7"/>
         <v>-3081.8799999999992</v>
       </c>
-      <c r="P31" s="9">
+      <c r="R31" s="9">
         <f t="shared" si="11"/>
         <v>-3082</v>
       </c>
-      <c r="Q31" s="4">
+      <c r="S31" s="4">
         <f t="shared" si="8"/>
         <v>-0.59999999999990905</v>
       </c>
-      <c r="R31" s="4">
+      <c r="T31" s="4">
         <f t="shared" si="9"/>
         <v>0.27999999999974534</v>
       </c>
-      <c r="S31" s="4">
+      <c r="U31" s="4">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="T31" s="4">
+      <c r="V31" s="4">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="U31" s="10"/>
-      <c r="W31" s="5">
+      <c r="W31" s="10"/>
+      <c r="Y31" s="5">
         <v>43237</v>
       </c>
-      <c r="X31" s="4">
+      <c r="Z31" s="4">
         <v>30</v>
       </c>
-      <c r="Y31" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="Z31" s="4" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="32" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="AA31" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="AB31" s="4" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="32" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A32" s="4">
         <v>2018055</v>
       </c>
@@ -3288,66 +3502,72 @@
         <v>308.92</v>
       </c>
       <c r="G32" s="6">
+        <v>0</v>
+      </c>
+      <c r="H32" s="6">
         <v>-815.75</v>
       </c>
-      <c r="H32" s="12">
+      <c r="I32" s="12">
         <v>2080</v>
       </c>
-      <c r="I32" s="7">
+      <c r="J32" s="7">
         <v>471</v>
       </c>
-      <c r="J32" s="7">
-        <v>0</v>
-      </c>
-      <c r="K32" s="27">
+      <c r="K32" s="7">
+        <v>0</v>
+      </c>
+      <c r="L32" s="27">
         <v>308</v>
       </c>
-      <c r="L32" s="27">
+      <c r="M32" s="27">
+        <v>0</v>
+      </c>
+      <c r="N32" s="27">
         <v>-815</v>
       </c>
-      <c r="M32" s="8">
+      <c r="O32" s="8">
         <v>-355</v>
       </c>
-      <c r="N32" s="8">
+      <c r="P32" s="8">
         <v>-975</v>
       </c>
-      <c r="O32" s="9">
+      <c r="Q32" s="9">
         <f t="shared" si="7"/>
         <v>3715.5699999999997</v>
       </c>
-      <c r="P32" s="9">
+      <c r="R32" s="9">
         <f t="shared" si="11"/>
         <v>714</v>
       </c>
-      <c r="Q32" s="4">
+      <c r="S32" s="4">
         <f t="shared" si="8"/>
         <v>-3000.5</v>
       </c>
-      <c r="R32" s="4">
+      <c r="T32" s="4">
         <f t="shared" si="9"/>
         <v>-0.89999999999997726</v>
       </c>
-      <c r="S32" s="4">
+      <c r="U32" s="4">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="T32" s="4">
+      <c r="V32" s="4">
         <f t="shared" si="12"/>
         <v>0.75</v>
       </c>
-      <c r="U32" s="10"/>
-      <c r="W32" s="5">
+      <c r="W32" s="10"/>
+      <c r="Y32" s="5">
         <v>43237</v>
       </c>
-      <c r="X32" s="4">
+      <c r="Z32" s="4">
         <v>864</v>
       </c>
-      <c r="Y32" s="4"/>
-      <c r="Z32" s="4" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="33" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="AA32" s="4"/>
+      <c r="AB32" s="4" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="33" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A33" s="4">
         <v>2018056</v>
       </c>
@@ -3367,66 +3587,72 @@
         <v>-377.08</v>
       </c>
       <c r="G33" s="6">
+        <v>0</v>
+      </c>
+      <c r="H33" s="6">
         <v>2640</v>
       </c>
-      <c r="H33" s="7">
+      <c r="I33" s="7">
         <v>1471</v>
       </c>
-      <c r="I33" s="12">
+      <c r="J33" s="12">
         <v>334</v>
       </c>
-      <c r="J33" s="7">
-        <v>0</v>
-      </c>
-      <c r="K33" s="27">
+      <c r="K33" s="7">
+        <v>0</v>
+      </c>
+      <c r="L33" s="27">
         <v>-377</v>
       </c>
-      <c r="L33" s="12">
+      <c r="M33" s="27">
+        <v>0</v>
+      </c>
+      <c r="N33" s="12">
         <v>38</v>
       </c>
-      <c r="M33" s="8">
+      <c r="O33" s="8">
         <v>-60</v>
       </c>
-      <c r="N33" s="8">
+      <c r="P33" s="8">
         <v>-3053</v>
       </c>
-      <c r="O33" s="9">
+      <c r="Q33" s="9">
         <f t="shared" si="7"/>
         <v>2955.54</v>
       </c>
-      <c r="P33" s="9">
+      <c r="R33" s="9">
         <f t="shared" si="11"/>
         <v>-1647</v>
       </c>
-      <c r="Q33" s="4">
+      <c r="S33" s="4">
         <f t="shared" si="8"/>
         <v>-0.40000000000009095</v>
       </c>
-      <c r="R33" s="4">
+      <c r="T33" s="4">
         <f t="shared" si="9"/>
         <v>-2000.2199999999998</v>
       </c>
-      <c r="S33" s="4">
+      <c r="U33" s="4">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="T33" s="4">
+      <c r="V33" s="4">
         <f t="shared" si="12"/>
         <v>-2602</v>
       </c>
-      <c r="U33" s="10"/>
-      <c r="W33" s="5">
+      <c r="W33" s="10"/>
+      <c r="Y33" s="5">
         <v>43240</v>
       </c>
-      <c r="X33" s="4">
+      <c r="Z33" s="4">
         <v>4</v>
       </c>
-      <c r="Y33" s="4"/>
-      <c r="Z33" s="4" t="s">
+      <c r="AA33" s="4"/>
+      <c r="AB33" s="4" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="34" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A34" s="4">
         <v>2018057</v>
       </c>
@@ -3446,66 +3672,72 @@
         <v>-200.52</v>
       </c>
       <c r="G34" s="6">
+        <v>0</v>
+      </c>
+      <c r="H34" s="6">
         <v>-1866</v>
       </c>
-      <c r="H34" s="7">
+      <c r="I34" s="7">
         <v>-754</v>
       </c>
-      <c r="I34" s="7">
+      <c r="J34" s="7">
         <v>1268</v>
       </c>
-      <c r="J34" s="7">
-        <v>0</v>
-      </c>
-      <c r="K34" s="27">
+      <c r="K34" s="7">
+        <v>0</v>
+      </c>
+      <c r="L34" s="27">
         <v>-200</v>
       </c>
-      <c r="L34" s="7">
-        <v>0</v>
-      </c>
-      <c r="M34" s="8">
-        <v>0</v>
-      </c>
-      <c r="N34" s="8">
-        <v>0</v>
-      </c>
-      <c r="O34" s="9">
-        <f t="shared" ref="O34:O36" si="13">SUM(C34+D34+E34+G34+M34+N34)</f>
-        <v>3648.5700000000006</v>
-      </c>
-      <c r="P34" s="9">
+      <c r="M34" s="27">
+        <v>0</v>
+      </c>
+      <c r="N34" s="7">
+        <v>0</v>
+      </c>
+      <c r="O34" s="8">
+        <v>0</v>
+      </c>
+      <c r="P34" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q34" s="9">
+        <f t="shared" si="7"/>
+        <v>3448.05</v>
+      </c>
+      <c r="R34" s="9">
         <f t="shared" si="11"/>
         <v>314</v>
       </c>
-      <c r="Q34" s="4">
+      <c r="S34" s="4">
         <f t="shared" si="8"/>
         <v>0.20000000000004547</v>
       </c>
-      <c r="R34" s="4">
+      <c r="T34" s="4">
         <f t="shared" si="9"/>
         <v>-5000.7700000000004</v>
       </c>
-      <c r="S34" s="4">
+      <c r="U34" s="4">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="T34" s="4">
+      <c r="V34" s="4">
         <f t="shared" si="12"/>
         <v>1866</v>
       </c>
-      <c r="U34" s="10"/>
-      <c r="W34" s="5">
+      <c r="W34" s="10"/>
+      <c r="Y34" s="5">
         <v>43243</v>
       </c>
-      <c r="X34" s="4">
+      <c r="Z34" s="4">
         <v>5</v>
       </c>
-      <c r="Y34" s="4"/>
-      <c r="Z34" s="4" t="s">
+      <c r="AA34" s="4"/>
+      <c r="AB34" s="4" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="35" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A35" s="4">
         <v>2018058</v>
       </c>
@@ -3513,78 +3745,84 @@
         <v>43249</v>
       </c>
       <c r="C35" s="6">
-        <v>0</v>
+        <v>2364.1</v>
       </c>
       <c r="D35" s="6">
-        <v>0</v>
+        <v>-2597.4299999999998</v>
       </c>
       <c r="E35" s="6">
         <v>0</v>
       </c>
       <c r="F35" s="6">
-        <v>0</v>
+        <v>856.24</v>
       </c>
       <c r="G35" s="6">
         <v>0</v>
       </c>
-      <c r="H35" s="7">
-        <v>0</v>
+      <c r="H35" s="6">
+        <v>2539</v>
       </c>
       <c r="I35" s="7">
-        <v>0</v>
+        <v>2364</v>
       </c>
       <c r="J35" s="7">
-        <v>0</v>
-      </c>
-      <c r="K35" s="27">
-        <v>0</v>
-      </c>
-      <c r="L35" s="7">
-        <v>0</v>
-      </c>
-      <c r="M35" s="8">
-        <v>0</v>
-      </c>
-      <c r="N35" s="8">
-        <v>0</v>
-      </c>
-      <c r="O35" s="9">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="P35" s="9">
+        <v>-2597</v>
+      </c>
+      <c r="K35" s="7">
+        <v>0</v>
+      </c>
+      <c r="L35" s="27">
+        <v>856</v>
+      </c>
+      <c r="M35" s="27">
+        <v>0</v>
+      </c>
+      <c r="N35" s="7">
+        <v>0</v>
+      </c>
+      <c r="O35" s="8">
+        <v>-25</v>
+      </c>
+      <c r="P35" s="8">
+        <v>-1394</v>
+      </c>
+      <c r="Q35" s="9">
+        <f t="shared" si="7"/>
+        <v>1742.9099999999999</v>
+      </c>
+      <c r="R35" s="9">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="Q35" s="4">
+        <v>-796</v>
+      </c>
+      <c r="S35" s="4">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="R35" s="4">
+        <v>-9.9999999999909051E-2</v>
+      </c>
+      <c r="T35" s="4">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="S35" s="4">
+        <v>0.42999999999983629</v>
+      </c>
+      <c r="U35" s="4">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="T35" s="4">
+      <c r="V35" s="4">
         <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="U35" s="10"/>
-      <c r="W35" s="5">
+        <v>-2539</v>
+      </c>
+      <c r="W35" s="10"/>
+      <c r="Y35" s="5">
         <v>43246</v>
       </c>
-      <c r="X35" s="4">
+      <c r="Z35" s="4">
         <v>5</v>
       </c>
-      <c r="Y35" s="4"/>
-      <c r="Z35" s="4" t="s">
+      <c r="AA35" s="4"/>
+      <c r="AB35" s="4" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="36" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A36" s="4">
         <v>2018059</v>
       </c>
@@ -3592,249 +3830,307 @@
         <v>43251</v>
       </c>
       <c r="C36" s="6">
-        <v>0</v>
+        <v>4553</v>
       </c>
       <c r="D36" s="6">
-        <v>0</v>
+        <v>1193</v>
       </c>
       <c r="E36" s="6">
         <v>0</v>
       </c>
       <c r="F36" s="6">
-        <v>0</v>
+        <v>-577.46</v>
       </c>
       <c r="G36" s="6">
-        <v>0</v>
-      </c>
-      <c r="H36" s="7">
-        <v>0</v>
-      </c>
-      <c r="I36" s="7">
-        <v>0</v>
+        <v>-3966</v>
+      </c>
+      <c r="H36" s="6">
+        <v>11225</v>
+      </c>
+      <c r="I36" s="12">
+        <v>2553</v>
       </c>
       <c r="J36" s="7">
-        <v>0</v>
-      </c>
-      <c r="K36" s="27">
-        <v>0</v>
-      </c>
-      <c r="L36" s="7">
-        <v>0</v>
-      </c>
-      <c r="M36" s="8">
-        <v>0</v>
-      </c>
-      <c r="N36" s="8">
-        <v>0</v>
-      </c>
-      <c r="O36" s="9">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="P36" s="9">
+        <v>1193</v>
+      </c>
+      <c r="K36" s="7">
+        <v>0</v>
+      </c>
+      <c r="L36" s="27">
+        <v>-557</v>
+      </c>
+      <c r="M36" s="27">
+        <v>-3966</v>
+      </c>
+      <c r="N36" s="7">
+        <v>0</v>
+      </c>
+      <c r="O36" s="8">
+        <v>0</v>
+      </c>
+      <c r="P36" s="8">
+        <v>-6451</v>
+      </c>
+      <c r="Q36" s="9">
+        <f>SUM(C36+D36+E36+F36+G36+H36+O36+P36)</f>
+        <v>5976.5400000000009</v>
+      </c>
+      <c r="R36" s="9">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="Q36" s="4">
+        <v>-3262</v>
+      </c>
+      <c r="S36" s="4">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="R36" s="4">
+        <v>-2000</v>
+      </c>
+      <c r="T36" s="4">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="S36" s="4">
+      <c r="U36" s="4">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="T36" s="4">
+      <c r="V36" s="4">
         <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="U36" s="10"/>
-      <c r="W36" s="5">
+        <v>-11225</v>
+      </c>
+      <c r="W36" s="10"/>
+      <c r="Y36" s="5">
         <v>43247</v>
       </c>
-      <c r="X36" s="4">
+      <c r="Z36" s="4">
         <v>100</v>
       </c>
-      <c r="Y36" s="4"/>
-      <c r="Z36" s="4" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="37" spans="1:26" s="25" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="AA36" s="4"/>
+      <c r="AB36" s="4" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="37" spans="1:28" s="25" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A37" s="21" t="s">
         <v>35</v>
       </c>
       <c r="B37" s="22"/>
       <c r="C37" s="22">
-        <f t="shared" ref="C37:T37" si="14">SUM(C23:C36)</f>
-        <v>9017.4600000000009</v>
+        <f t="shared" ref="C37:V37" si="13">SUM(C23:C36)</f>
+        <v>15934.560000000001</v>
       </c>
       <c r="D37" s="22">
-        <f t="shared" si="14"/>
-        <v>-10706.729999999996</v>
+        <f t="shared" si="13"/>
+        <v>-12111.159999999996</v>
       </c>
       <c r="E37" s="22">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>3567.6</v>
       </c>
       <c r="F37" s="22">
         <f>SUM(F23:F36)</f>
-        <v>-4587.4800000000005</v>
+        <v>-4308.7000000000007</v>
       </c>
       <c r="G37" s="22">
-        <f t="shared" si="14"/>
-        <v>5190.6499999999996</v>
+        <f>SUM(G23:G36)</f>
+        <v>-3966</v>
       </c>
       <c r="H37" s="22">
-        <f t="shared" si="14"/>
-        <v>3694</v>
+        <f t="shared" si="13"/>
+        <v>18956.650000000001</v>
       </c>
       <c r="I37" s="22">
-        <f t="shared" si="14"/>
-        <v>-9193</v>
+        <f t="shared" si="13"/>
+        <v>8611</v>
       </c>
       <c r="J37" s="22">
-        <f t="shared" si="14"/>
-        <v>0</v>
+        <f t="shared" si="13"/>
+        <v>-10597</v>
       </c>
       <c r="K37" s="22">
-        <f>SUM(K23:K36)</f>
-        <v>-4588</v>
+        <f t="shared" si="13"/>
+        <v>0</v>
       </c>
       <c r="L37" s="22">
-        <f t="shared" si="14"/>
+        <f>SUM(L23:L36)</f>
+        <v>-4289</v>
+      </c>
+      <c r="M37" s="22">
+        <f>SUM(M23:M36)</f>
+        <v>-3966</v>
+      </c>
+      <c r="N37" s="22">
+        <f t="shared" si="13"/>
         <v>4405</v>
       </c>
-      <c r="M37" s="22">
-        <f t="shared" si="14"/>
-        <v>-435</v>
-      </c>
-      <c r="N37" s="22">
-        <f t="shared" si="14"/>
-        <v>-9357.8000000000011</v>
-      </c>
-      <c r="O37" s="23">
-        <f t="shared" si="14"/>
-        <v>-7110.7799999999943</v>
-      </c>
-      <c r="P37" s="23">
-        <f t="shared" si="14"/>
-        <v>-15474.8</v>
-      </c>
-      <c r="Q37" s="21">
-        <f t="shared" si="14"/>
-        <v>-5323.46</v>
-      </c>
-      <c r="R37" s="21">
-        <f t="shared" si="14"/>
-        <v>1513.7299999999996</v>
+      <c r="O37" s="22">
+        <f t="shared" si="13"/>
+        <v>-460</v>
+      </c>
+      <c r="P37" s="22">
+        <f t="shared" si="13"/>
+        <v>-17202.800000000003</v>
+      </c>
+      <c r="Q37" s="23">
+        <f t="shared" si="13"/>
+        <v>410.150000000006</v>
+      </c>
+      <c r="R37" s="23">
+        <f t="shared" si="13"/>
+        <v>-19532.8</v>
       </c>
       <c r="S37" s="21">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
+        <v>-7323.5599999999995</v>
+      </c>
+      <c r="T37" s="21">
+        <f t="shared" si="13"/>
+        <v>1514.1599999999994</v>
+      </c>
+      <c r="U37" s="21">
+        <f t="shared" si="13"/>
         <v>-3567.6</v>
       </c>
-      <c r="T37" s="21">
-        <f t="shared" si="14"/>
-        <v>-785.65000000000055</v>
-      </c>
-      <c r="U37" s="24"/>
-      <c r="W37" s="5">
+      <c r="V37" s="21">
+        <f t="shared" si="13"/>
+        <v>-14551.650000000001</v>
+      </c>
+      <c r="W37" s="24"/>
+      <c r="Y37" s="5">
         <v>43247</v>
       </c>
-      <c r="X37" s="4">
+      <c r="Z37" s="4">
         <v>100</v>
       </c>
-      <c r="Y37" s="4"/>
-      <c r="Z37" s="4" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="38" spans="1:26" x14ac:dyDescent="0.15">
-      <c r="U38" s="10">
-        <v>-10370</v>
-      </c>
-      <c r="W38" s="77"/>
-      <c r="X38" s="77"/>
-      <c r="Y38" s="77"/>
-      <c r="Z38" s="77"/>
-    </row>
-    <row r="39" spans="1:26" x14ac:dyDescent="0.15">
-      <c r="U39" s="29">
-        <v>-3741</v>
-      </c>
-      <c r="W39" s="77"/>
-      <c r="X39" s="77"/>
-      <c r="Y39" s="77"/>
-      <c r="Z39" s="77"/>
-    </row>
-    <row r="40" spans="1:26" x14ac:dyDescent="0.15">
-      <c r="U40" s="29">
-        <v>-2090</v>
-      </c>
-      <c r="W40" s="26" t="s">
+      <c r="AA37" s="4"/>
+      <c r="AB37" s="4" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="38" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="H38" s="29"/>
+      <c r="I38" s="29"/>
+      <c r="J38" s="29"/>
+      <c r="K38" s="29"/>
+      <c r="L38" s="29"/>
+      <c r="M38" s="29"/>
+      <c r="N38" s="29"/>
+      <c r="W38" s="10"/>
+      <c r="Y38" s="17">
+        <v>43251</v>
+      </c>
+      <c r="Z38" s="56">
+        <v>30</v>
+      </c>
+      <c r="AA38" s="56" t="s">
+        <v>147</v>
+      </c>
+      <c r="AB38" s="56" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="39" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="H39" s="64"/>
+      <c r="I39" s="29"/>
+      <c r="J39" s="29"/>
+      <c r="K39" s="29"/>
+      <c r="L39" s="64"/>
+      <c r="M39" s="29"/>
+      <c r="N39" s="65"/>
+      <c r="Y39" s="17">
+        <v>43251</v>
+      </c>
+      <c r="Z39" s="56">
+        <v>80</v>
+      </c>
+      <c r="AA39" s="56" t="s">
+        <v>147</v>
+      </c>
+      <c r="AB39" s="4" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="40" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="H40" s="29"/>
+      <c r="I40" s="29"/>
+      <c r="J40" s="29"/>
+      <c r="K40" s="29"/>
+      <c r="L40" s="64"/>
+      <c r="M40" s="29"/>
+      <c r="N40" s="29"/>
+      <c r="Y40" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="X40" s="21">
-        <f>SUM(X23:X39)</f>
-        <v>3955</v>
-      </c>
-      <c r="Y40" s="21"/>
-      <c r="Z40" s="21"/>
-    </row>
-    <row r="41" spans="1:26" x14ac:dyDescent="0.15">
-      <c r="U41" s="29">
-        <v>-3500</v>
-      </c>
-    </row>
-    <row r="43" spans="1:26" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A43" s="57" t="s">
-        <v>0</v>
-      </c>
-      <c r="B43" s="58" t="s">
+      <c r="Z40" s="21">
+        <f>SUM(Z23:Z39)</f>
+        <v>4065</v>
+      </c>
+      <c r="AA40" s="21"/>
+      <c r="AB40" s="21"/>
+    </row>
+    <row r="41" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="H41" s="29"/>
+      <c r="I41" s="29"/>
+      <c r="J41" s="29"/>
+      <c r="K41" s="29"/>
+      <c r="L41" s="29"/>
+      <c r="M41" s="29"/>
+      <c r="N41" s="29"/>
+    </row>
+    <row r="42" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="H42" s="29"/>
+      <c r="I42" s="29"/>
+      <c r="J42" s="29"/>
+      <c r="K42" s="29"/>
+      <c r="L42" s="29"/>
+      <c r="M42" s="29"/>
+      <c r="N42" s="29"/>
+    </row>
+    <row r="43" spans="1:28" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A43" s="68" t="s">
+        <v>0</v>
+      </c>
+      <c r="B43" s="69" t="s">
         <v>42</v>
       </c>
-      <c r="C43" s="56" t="s">
+      <c r="C43" s="67" t="s">
         <v>2</v>
       </c>
-      <c r="D43" s="56"/>
-      <c r="E43" s="56"/>
-      <c r="F43" s="56"/>
-      <c r="G43" s="56"/>
-      <c r="H43" s="56" t="s">
+      <c r="D43" s="67"/>
+      <c r="E43" s="67"/>
+      <c r="F43" s="67"/>
+      <c r="G43" s="67"/>
+      <c r="H43" s="67"/>
+      <c r="I43" s="67" t="s">
         <v>3</v>
       </c>
-      <c r="I43" s="56"/>
-      <c r="J43" s="56"/>
-      <c r="K43" s="56"/>
-      <c r="L43" s="56"/>
-      <c r="M43" s="56" t="s">
+      <c r="J43" s="67"/>
+      <c r="K43" s="67"/>
+      <c r="L43" s="67"/>
+      <c r="M43" s="67"/>
+      <c r="N43" s="67"/>
+      <c r="O43" s="67" t="s">
         <v>4</v>
       </c>
-      <c r="N43" s="56"/>
-      <c r="O43" s="56" t="s">
+      <c r="P43" s="67"/>
+      <c r="Q43" s="67" t="s">
         <v>5</v>
       </c>
-      <c r="P43" s="56"/>
-      <c r="Q43" s="56" t="s">
+      <c r="R43" s="67"/>
+      <c r="S43" s="67" t="s">
         <v>6</v>
       </c>
-      <c r="R43" s="56"/>
-      <c r="S43" s="56"/>
-      <c r="T43" s="56"/>
-      <c r="U43" s="1"/>
-      <c r="W43" s="56" t="s">
+      <c r="T43" s="67"/>
+      <c r="U43" s="67"/>
+      <c r="V43" s="67"/>
+      <c r="W43" s="1"/>
+      <c r="Y43" s="67" t="s">
         <v>7</v>
       </c>
-      <c r="X43" s="56"/>
-      <c r="Y43" s="56"/>
-      <c r="Z43" s="56"/>
-    </row>
-    <row r="44" spans="1:26" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A44" s="57"/>
-      <c r="B44" s="59"/>
+      <c r="Z43" s="67"/>
+      <c r="AA43" s="67"/>
+      <c r="AB43" s="67"/>
+    </row>
+    <row r="44" spans="1:28" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A44" s="68"/>
+      <c r="B44" s="70"/>
       <c r="C44" s="2" t="s">
         <v>8</v>
       </c>
@@ -3845,61 +4141,63 @@
         <v>10</v>
       </c>
       <c r="F44" s="30"/>
-      <c r="G44" s="2" t="s">
+      <c r="G44" s="57"/>
+      <c r="H44" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H44" s="2" t="s">
+      <c r="I44" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="I44" s="2" t="s">
+      <c r="J44" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="J44" s="2" t="s">
+      <c r="K44" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="K44" s="30"/>
-      <c r="L44" s="2" t="s">
+      <c r="L44" s="30"/>
+      <c r="M44" s="57"/>
+      <c r="N44" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M44" s="2" t="s">
+      <c r="O44" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="N44" s="2" t="s">
+      <c r="P44" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="O44" s="2" t="s">
+      <c r="Q44" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="P44" s="2" t="s">
+      <c r="R44" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="Q44" s="2" t="s">
+      <c r="S44" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="R44" s="2" t="s">
+      <c r="T44" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="S44" s="2" t="s">
+      <c r="U44" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="T44" s="2" t="s">
+      <c r="V44" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="U44" s="1"/>
-      <c r="W44" s="2" t="s">
+      <c r="W44" s="1"/>
+      <c r="Y44" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="X44" s="2" t="s">
+      <c r="Z44" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="Y44" s="2" t="s">
+      <c r="AA44" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="Z44" s="2" t="s">
+      <c r="AB44" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="45" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A45" s="4">
         <v>2018060</v>
       </c>
@@ -3916,10 +4214,8 @@
         <v>0</v>
       </c>
       <c r="F45" s="6"/>
-      <c r="G45" s="6">
-        <v>0</v>
-      </c>
-      <c r="H45" s="7">
+      <c r="G45" s="6"/>
+      <c r="H45" s="6">
         <v>0</v>
       </c>
       <c r="I45" s="7">
@@ -3928,47 +4224,51 @@
       <c r="J45" s="7">
         <v>0</v>
       </c>
-      <c r="K45" s="7"/>
-      <c r="L45" s="7">
-        <v>0</v>
-      </c>
-      <c r="M45" s="8">
-        <v>0</v>
-      </c>
-      <c r="N45" s="8">
-        <v>0</v>
-      </c>
-      <c r="O45" s="9">
-        <f>SUM(C45+D45+E45+G45+M45+N45)</f>
-        <v>0</v>
-      </c>
-      <c r="P45" s="9">
-        <f>SUM(H45+I45+J45+L45+M45+N45)</f>
-        <v>0</v>
-      </c>
-      <c r="Q45" s="4">
-        <f t="shared" ref="Q45:Q57" si="15">SUM(H45-C45)</f>
-        <v>0</v>
-      </c>
-      <c r="R45" s="4">
-        <f t="shared" ref="R45:R57" si="16">SUM(I45-D45)</f>
+      <c r="K45" s="7">
+        <v>0</v>
+      </c>
+      <c r="L45" s="7"/>
+      <c r="M45" s="7"/>
+      <c r="N45" s="7">
+        <v>0</v>
+      </c>
+      <c r="O45" s="8">
+        <v>0</v>
+      </c>
+      <c r="P45" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q45" s="9">
+        <f>SUM(C45+D45+E45+H45+O45+P45)</f>
+        <v>0</v>
+      </c>
+      <c r="R45" s="9">
+        <f>SUM(I45+J45+K45+N45+O45+P45)</f>
         <v>0</v>
       </c>
       <c r="S45" s="4">
-        <f t="shared" ref="S45:S57" si="17">SUM(J45-E45)</f>
+        <f t="shared" ref="S45:S57" si="14">SUM(I45-C45)</f>
         <v>0</v>
       </c>
       <c r="T45" s="4">
-        <f>SUM(L45-G45)</f>
-        <v>0</v>
-      </c>
-      <c r="U45" s="10"/>
-      <c r="W45" s="5"/>
-      <c r="X45" s="4"/>
-      <c r="Y45" s="4"/>
+        <f t="shared" ref="T45:T57" si="15">SUM(J45-D45)</f>
+        <v>0</v>
+      </c>
+      <c r="U45" s="4">
+        <f t="shared" ref="U45:U57" si="16">SUM(K45-E45)</f>
+        <v>0</v>
+      </c>
+      <c r="V45" s="4">
+        <f>SUM(N45-H45)</f>
+        <v>0</v>
+      </c>
+      <c r="W45" s="10"/>
+      <c r="Y45" s="5"/>
       <c r="Z45" s="4"/>
-    </row>
-    <row r="46" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="AA45" s="4"/>
+      <c r="AB45" s="4"/>
+    </row>
+    <row r="46" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A46" s="4">
         <v>2018061</v>
       </c>
@@ -3985,10 +4285,8 @@
         <v>0</v>
       </c>
       <c r="F46" s="6"/>
-      <c r="G46" s="6">
-        <v>0</v>
-      </c>
-      <c r="H46" s="7">
+      <c r="G46" s="6"/>
+      <c r="H46" s="6">
         <v>0</v>
       </c>
       <c r="I46" s="7">
@@ -3997,46 +4295,50 @@
       <c r="J46" s="7">
         <v>0</v>
       </c>
-      <c r="K46" s="7"/>
-      <c r="L46" s="7">
-        <v>0</v>
-      </c>
-      <c r="M46" s="8">
-        <v>0</v>
-      </c>
-      <c r="N46" s="8">
-        <v>0</v>
-      </c>
-      <c r="O46" s="9">
-        <v>0</v>
-      </c>
-      <c r="P46" s="9">
-        <f t="shared" ref="P46:P57" si="18">SUM(H46+I46+J46+L46+M46+N46)</f>
-        <v>0</v>
-      </c>
-      <c r="Q46" s="4">
+      <c r="K46" s="7">
+        <v>0</v>
+      </c>
+      <c r="L46" s="7"/>
+      <c r="M46" s="7"/>
+      <c r="N46" s="7">
+        <v>0</v>
+      </c>
+      <c r="O46" s="8">
+        <v>0</v>
+      </c>
+      <c r="P46" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q46" s="9">
+        <v>0</v>
+      </c>
+      <c r="R46" s="9">
+        <f t="shared" ref="R46:R57" si="17">SUM(I46+J46+K46+N46+O46+P46)</f>
+        <v>0</v>
+      </c>
+      <c r="S46" s="4">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="T46" s="4">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="R46" s="4">
+      <c r="U46" s="4">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="S46" s="4">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="T46" s="4">
-        <f t="shared" ref="T46:T57" si="19">SUM(L46-G46)</f>
-        <v>0</v>
-      </c>
-      <c r="U46" s="10"/>
-      <c r="W46" s="5"/>
-      <c r="X46" s="4"/>
-      <c r="Y46" s="4"/>
+      <c r="V46" s="4">
+        <f t="shared" ref="V46:V57" si="18">SUM(N46-H46)</f>
+        <v>0</v>
+      </c>
+      <c r="W46" s="10"/>
+      <c r="Y46" s="5"/>
       <c r="Z46" s="4"/>
-    </row>
-    <row r="47" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="AA46" s="4"/>
+      <c r="AB46" s="4"/>
+    </row>
+    <row r="47" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A47" s="4">
         <v>2018062</v>
       </c>
@@ -4053,10 +4355,8 @@
         <v>0</v>
       </c>
       <c r="F47" s="6"/>
-      <c r="G47" s="6">
-        <v>0</v>
-      </c>
-      <c r="H47" s="7">
+      <c r="G47" s="6"/>
+      <c r="H47" s="6">
         <v>0</v>
       </c>
       <c r="I47" s="7">
@@ -4065,47 +4365,51 @@
       <c r="J47" s="7">
         <v>0</v>
       </c>
-      <c r="K47" s="7"/>
-      <c r="L47" s="7">
-        <v>0</v>
-      </c>
-      <c r="M47" s="8">
-        <v>0</v>
-      </c>
-      <c r="N47" s="8">
-        <v>0</v>
-      </c>
-      <c r="O47" s="9">
-        <f t="shared" ref="O47:O57" si="20">SUM(C47+D47+E47+G47+M47+N47)</f>
-        <v>0</v>
-      </c>
-      <c r="P47" s="9">
+      <c r="K47" s="7">
+        <v>0</v>
+      </c>
+      <c r="L47" s="7"/>
+      <c r="M47" s="7"/>
+      <c r="N47" s="7">
+        <v>0</v>
+      </c>
+      <c r="O47" s="8">
+        <v>0</v>
+      </c>
+      <c r="P47" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q47" s="9">
+        <f t="shared" ref="Q47:Q57" si="19">SUM(C47+D47+E47+H47+O47+P47)</f>
+        <v>0</v>
+      </c>
+      <c r="R47" s="9">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="S47" s="4">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="T47" s="4">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="U47" s="4">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="V47" s="4">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="Q47" s="4">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="R47" s="4">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="S47" s="4">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="T47" s="4">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="U47" s="10"/>
-      <c r="W47" s="5"/>
-      <c r="X47" s="4"/>
-      <c r="Y47" s="4"/>
+      <c r="W47" s="10"/>
+      <c r="Y47" s="5"/>
       <c r="Z47" s="4"/>
-    </row>
-    <row r="48" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="AA47" s="4"/>
+      <c r="AB47" s="4"/>
+    </row>
+    <row r="48" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A48" s="4">
         <v>2018063</v>
       </c>
@@ -4122,10 +4426,8 @@
         <v>0</v>
       </c>
       <c r="F48" s="6"/>
-      <c r="G48" s="6">
-        <v>0</v>
-      </c>
-      <c r="H48" s="7">
+      <c r="G48" s="6"/>
+      <c r="H48" s="6">
         <v>0</v>
       </c>
       <c r="I48" s="7">
@@ -4134,47 +4436,51 @@
       <c r="J48" s="7">
         <v>0</v>
       </c>
-      <c r="K48" s="7"/>
-      <c r="L48" s="7">
-        <v>0</v>
-      </c>
-      <c r="M48" s="8">
-        <v>0</v>
-      </c>
-      <c r="N48" s="8">
-        <v>0</v>
-      </c>
-      <c r="O48" s="9">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="P48" s="9">
+      <c r="K48" s="7">
+        <v>0</v>
+      </c>
+      <c r="L48" s="7"/>
+      <c r="M48" s="7"/>
+      <c r="N48" s="7">
+        <v>0</v>
+      </c>
+      <c r="O48" s="8">
+        <v>0</v>
+      </c>
+      <c r="P48" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q48" s="9">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="R48" s="9">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="S48" s="4">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="T48" s="4">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="U48" s="4">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="V48" s="4">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="Q48" s="4">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="R48" s="4">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="S48" s="4">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="T48" s="4">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="U48" s="10"/>
-      <c r="W48" s="5"/>
-      <c r="X48" s="4"/>
-      <c r="Y48" s="4"/>
+      <c r="W48" s="10"/>
+      <c r="Y48" s="5"/>
       <c r="Z48" s="4"/>
-    </row>
-    <row r="49" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="AA48" s="4"/>
+      <c r="AB48" s="4"/>
+    </row>
+    <row r="49" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A49" s="4">
         <v>2018064</v>
       </c>
@@ -4191,10 +4497,8 @@
         <v>0</v>
       </c>
       <c r="F49" s="6"/>
-      <c r="G49" s="6">
-        <v>0</v>
-      </c>
-      <c r="H49" s="7">
+      <c r="G49" s="6"/>
+      <c r="H49" s="6">
         <v>0</v>
       </c>
       <c r="I49" s="7">
@@ -4203,47 +4507,51 @@
       <c r="J49" s="7">
         <v>0</v>
       </c>
-      <c r="K49" s="7"/>
-      <c r="L49" s="7">
-        <v>0</v>
-      </c>
-      <c r="M49" s="8">
-        <v>0</v>
-      </c>
-      <c r="N49" s="8">
-        <v>0</v>
-      </c>
-      <c r="O49" s="9">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="P49" s="9">
+      <c r="K49" s="7">
+        <v>0</v>
+      </c>
+      <c r="L49" s="7"/>
+      <c r="M49" s="7"/>
+      <c r="N49" s="7">
+        <v>0</v>
+      </c>
+      <c r="O49" s="8">
+        <v>0</v>
+      </c>
+      <c r="P49" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q49" s="9">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="R49" s="9">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="S49" s="4">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="T49" s="4">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="U49" s="4">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="V49" s="4">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="Q49" s="4">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="R49" s="4">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="S49" s="4">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="T49" s="4">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="U49" s="10"/>
-      <c r="W49" s="5"/>
-      <c r="X49" s="4"/>
-      <c r="Y49" s="4"/>
+      <c r="W49" s="10"/>
+      <c r="Y49" s="5"/>
       <c r="Z49" s="4"/>
-    </row>
-    <row r="50" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="AA49" s="4"/>
+      <c r="AB49" s="4"/>
+    </row>
+    <row r="50" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A50" s="4">
         <v>2018065</v>
       </c>
@@ -4260,10 +4568,8 @@
         <v>0</v>
       </c>
       <c r="F50" s="6"/>
-      <c r="G50" s="6">
-        <v>0</v>
-      </c>
-      <c r="H50" s="7">
+      <c r="G50" s="6"/>
+      <c r="H50" s="6">
         <v>0</v>
       </c>
       <c r="I50" s="7">
@@ -4272,47 +4578,51 @@
       <c r="J50" s="7">
         <v>0</v>
       </c>
-      <c r="K50" s="7"/>
-      <c r="L50" s="7">
-        <v>0</v>
-      </c>
-      <c r="M50" s="8">
-        <v>0</v>
-      </c>
-      <c r="N50" s="8">
-        <v>0</v>
-      </c>
-      <c r="O50" s="9">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="P50" s="9">
+      <c r="K50" s="7">
+        <v>0</v>
+      </c>
+      <c r="L50" s="7"/>
+      <c r="M50" s="7"/>
+      <c r="N50" s="7">
+        <v>0</v>
+      </c>
+      <c r="O50" s="8">
+        <v>0</v>
+      </c>
+      <c r="P50" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q50" s="9">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="R50" s="9">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="S50" s="4">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="T50" s="4">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="U50" s="4">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="V50" s="4">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="Q50" s="4">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="R50" s="4">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="S50" s="4">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="T50" s="4">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="U50" s="10"/>
-      <c r="W50" s="5"/>
-      <c r="X50" s="4"/>
-      <c r="Y50" s="4"/>
+      <c r="W50" s="10"/>
+      <c r="Y50" s="5"/>
       <c r="Z50" s="4"/>
-    </row>
-    <row r="51" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="AA50" s="4"/>
+      <c r="AB50" s="4"/>
+    </row>
+    <row r="51" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A51" s="4">
         <v>2018066</v>
       </c>
@@ -4329,10 +4639,8 @@
         <v>0</v>
       </c>
       <c r="F51" s="6"/>
-      <c r="G51" s="6">
-        <v>0</v>
-      </c>
-      <c r="H51" s="7">
+      <c r="G51" s="6"/>
+      <c r="H51" s="6">
         <v>0</v>
       </c>
       <c r="I51" s="7">
@@ -4341,47 +4649,51 @@
       <c r="J51" s="7">
         <v>0</v>
       </c>
-      <c r="K51" s="7"/>
-      <c r="L51" s="7">
-        <v>0</v>
-      </c>
-      <c r="M51" s="8">
-        <v>0</v>
-      </c>
-      <c r="N51" s="8">
-        <v>0</v>
-      </c>
-      <c r="O51" s="9">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="P51" s="9">
+      <c r="K51" s="7">
+        <v>0</v>
+      </c>
+      <c r="L51" s="7"/>
+      <c r="M51" s="7"/>
+      <c r="N51" s="7">
+        <v>0</v>
+      </c>
+      <c r="O51" s="8">
+        <v>0</v>
+      </c>
+      <c r="P51" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q51" s="9">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="R51" s="9">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="S51" s="4">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="T51" s="4">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="U51" s="4">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="V51" s="4">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="Q51" s="4">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="R51" s="4">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="S51" s="4">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="T51" s="4">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="U51" s="10"/>
-      <c r="W51" s="5"/>
-      <c r="X51" s="4"/>
-      <c r="Y51" s="4"/>
+      <c r="W51" s="10"/>
+      <c r="Y51" s="5"/>
       <c r="Z51" s="4"/>
-    </row>
-    <row r="52" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="AA51" s="4"/>
+      <c r="AB51" s="4"/>
+    </row>
+    <row r="52" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A52" s="4">
         <v>2018067</v>
       </c>
@@ -4398,10 +4710,8 @@
         <v>0</v>
       </c>
       <c r="F52" s="6"/>
-      <c r="G52" s="6">
-        <v>0</v>
-      </c>
-      <c r="H52" s="7">
+      <c r="G52" s="6"/>
+      <c r="H52" s="6">
         <v>0</v>
       </c>
       <c r="I52" s="7">
@@ -4410,47 +4720,51 @@
       <c r="J52" s="7">
         <v>0</v>
       </c>
-      <c r="K52" s="7"/>
-      <c r="L52" s="7">
-        <v>0</v>
-      </c>
-      <c r="M52" s="8">
-        <v>0</v>
-      </c>
-      <c r="N52" s="8">
-        <v>0</v>
-      </c>
-      <c r="O52" s="9">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="P52" s="9">
+      <c r="K52" s="7">
+        <v>0</v>
+      </c>
+      <c r="L52" s="7"/>
+      <c r="M52" s="7"/>
+      <c r="N52" s="7">
+        <v>0</v>
+      </c>
+      <c r="O52" s="8">
+        <v>0</v>
+      </c>
+      <c r="P52" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q52" s="9">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="R52" s="9">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="S52" s="4">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="T52" s="4">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="U52" s="4">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="V52" s="4">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="Q52" s="4">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="R52" s="4">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="S52" s="4">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="T52" s="4">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="U52" s="10"/>
-      <c r="W52" s="5"/>
-      <c r="X52" s="4"/>
-      <c r="Y52" s="4"/>
+      <c r="W52" s="10"/>
+      <c r="Y52" s="5"/>
       <c r="Z52" s="4"/>
-    </row>
-    <row r="53" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="AA52" s="4"/>
+      <c r="AB52" s="4"/>
+    </row>
+    <row r="53" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A53" s="4">
         <v>2018068</v>
       </c>
@@ -4467,10 +4781,8 @@
         <v>0</v>
       </c>
       <c r="F53" s="6"/>
-      <c r="G53" s="6">
-        <v>0</v>
-      </c>
-      <c r="H53" s="7">
+      <c r="G53" s="6"/>
+      <c r="H53" s="6">
         <v>0</v>
       </c>
       <c r="I53" s="7">
@@ -4479,47 +4791,51 @@
       <c r="J53" s="7">
         <v>0</v>
       </c>
-      <c r="K53" s="7"/>
-      <c r="L53" s="7">
-        <v>0</v>
-      </c>
-      <c r="M53" s="8">
-        <v>0</v>
-      </c>
-      <c r="N53" s="8">
-        <v>0</v>
-      </c>
-      <c r="O53" s="9">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="P53" s="9">
+      <c r="K53" s="7">
+        <v>0</v>
+      </c>
+      <c r="L53" s="7"/>
+      <c r="M53" s="7"/>
+      <c r="N53" s="7">
+        <v>0</v>
+      </c>
+      <c r="O53" s="8">
+        <v>0</v>
+      </c>
+      <c r="P53" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q53" s="9">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="R53" s="9">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="S53" s="4">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="T53" s="4">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="U53" s="4">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="V53" s="4">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="Q53" s="4">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="R53" s="4">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="S53" s="4">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="T53" s="4">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="U53" s="10"/>
-      <c r="W53" s="5"/>
-      <c r="X53" s="4"/>
-      <c r="Y53" s="4"/>
+      <c r="W53" s="10"/>
+      <c r="Y53" s="5"/>
       <c r="Z53" s="4"/>
-    </row>
-    <row r="54" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="AA53" s="4"/>
+      <c r="AB53" s="4"/>
+    </row>
+    <row r="54" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A54" s="4">
         <v>2018069</v>
       </c>
@@ -4536,10 +4852,8 @@
         <v>0</v>
       </c>
       <c r="F54" s="6"/>
-      <c r="G54" s="6">
-        <v>0</v>
-      </c>
-      <c r="H54" s="7">
+      <c r="G54" s="6"/>
+      <c r="H54" s="6">
         <v>0</v>
       </c>
       <c r="I54" s="7">
@@ -4548,47 +4862,51 @@
       <c r="J54" s="7">
         <v>0</v>
       </c>
-      <c r="K54" s="7"/>
-      <c r="L54" s="7">
-        <v>0</v>
-      </c>
-      <c r="M54" s="8">
-        <v>0</v>
-      </c>
-      <c r="N54" s="8">
-        <v>0</v>
-      </c>
-      <c r="O54" s="9">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="P54" s="9">
+      <c r="K54" s="7">
+        <v>0</v>
+      </c>
+      <c r="L54" s="7"/>
+      <c r="M54" s="7"/>
+      <c r="N54" s="7">
+        <v>0</v>
+      </c>
+      <c r="O54" s="8">
+        <v>0</v>
+      </c>
+      <c r="P54" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q54" s="9">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="R54" s="9">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="S54" s="4">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="T54" s="4">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="U54" s="4">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="V54" s="4">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="Q54" s="4">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="R54" s="4">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="S54" s="4">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="T54" s="4">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="U54" s="10"/>
-      <c r="W54" s="5"/>
-      <c r="X54" s="4"/>
-      <c r="Y54" s="4"/>
+      <c r="W54" s="10"/>
+      <c r="Y54" s="5"/>
       <c r="Z54" s="4"/>
-    </row>
-    <row r="55" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="AA54" s="4"/>
+      <c r="AB54" s="4"/>
+    </row>
+    <row r="55" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A55" s="4">
         <v>2018070</v>
       </c>
@@ -4605,10 +4923,8 @@
         <v>0</v>
       </c>
       <c r="F55" s="6"/>
-      <c r="G55" s="6">
-        <v>0</v>
-      </c>
-      <c r="H55" s="7">
+      <c r="G55" s="6"/>
+      <c r="H55" s="6">
         <v>0</v>
       </c>
       <c r="I55" s="7">
@@ -4617,47 +4933,51 @@
       <c r="J55" s="7">
         <v>0</v>
       </c>
-      <c r="K55" s="7"/>
-      <c r="L55" s="7">
-        <v>0</v>
-      </c>
-      <c r="M55" s="8">
-        <v>0</v>
-      </c>
-      <c r="N55" s="8">
-        <v>0</v>
-      </c>
-      <c r="O55" s="9">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="P55" s="9">
+      <c r="K55" s="7">
+        <v>0</v>
+      </c>
+      <c r="L55" s="7"/>
+      <c r="M55" s="7"/>
+      <c r="N55" s="7">
+        <v>0</v>
+      </c>
+      <c r="O55" s="8">
+        <v>0</v>
+      </c>
+      <c r="P55" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q55" s="9">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="R55" s="9">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="S55" s="4">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="T55" s="4">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="U55" s="4">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="V55" s="4">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="Q55" s="4">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="R55" s="4">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="S55" s="4">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="T55" s="4">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="U55" s="10"/>
-      <c r="W55" s="5"/>
-      <c r="X55" s="4"/>
-      <c r="Y55" s="4"/>
+      <c r="W55" s="10"/>
+      <c r="Y55" s="5"/>
       <c r="Z55" s="4"/>
-    </row>
-    <row r="56" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="AA55" s="4"/>
+      <c r="AB55" s="4"/>
+    </row>
+    <row r="56" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A56" s="4">
         <v>2018071</v>
       </c>
@@ -4674,10 +4994,8 @@
         <v>0</v>
       </c>
       <c r="F56" s="6"/>
-      <c r="G56" s="6">
-        <v>0</v>
-      </c>
-      <c r="H56" s="7">
+      <c r="G56" s="6"/>
+      <c r="H56" s="6">
         <v>0</v>
       </c>
       <c r="I56" s="7">
@@ -4686,47 +5004,51 @@
       <c r="J56" s="7">
         <v>0</v>
       </c>
-      <c r="K56" s="7"/>
-      <c r="L56" s="7">
-        <v>0</v>
-      </c>
-      <c r="M56" s="8">
-        <v>0</v>
-      </c>
-      <c r="N56" s="8">
-        <v>0</v>
-      </c>
-      <c r="O56" s="9">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="P56" s="9">
+      <c r="K56" s="7">
+        <v>0</v>
+      </c>
+      <c r="L56" s="7"/>
+      <c r="M56" s="7"/>
+      <c r="N56" s="7">
+        <v>0</v>
+      </c>
+      <c r="O56" s="8">
+        <v>0</v>
+      </c>
+      <c r="P56" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q56" s="9">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="R56" s="9">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="S56" s="4">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="T56" s="4">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="U56" s="4">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="V56" s="4">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="Q56" s="4">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="R56" s="4">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="S56" s="4">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="T56" s="4">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="U56" s="10"/>
-      <c r="W56" s="5"/>
-      <c r="X56" s="4"/>
-      <c r="Y56" s="4"/>
+      <c r="W56" s="10"/>
+      <c r="Y56" s="5"/>
       <c r="Z56" s="4"/>
-    </row>
-    <row r="57" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="AA56" s="4"/>
+      <c r="AB56" s="4"/>
+    </row>
+    <row r="57" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A57" s="4">
         <v>2018072</v>
       </c>
@@ -4743,10 +5065,8 @@
         <v>0</v>
       </c>
       <c r="F57" s="6"/>
-      <c r="G57" s="6">
-        <v>0</v>
-      </c>
-      <c r="H57" s="7">
+      <c r="G57" s="6"/>
+      <c r="H57" s="6">
         <v>0</v>
       </c>
       <c r="I57" s="7">
@@ -4755,181 +5075,167 @@
       <c r="J57" s="7">
         <v>0</v>
       </c>
-      <c r="K57" s="7"/>
-      <c r="L57" s="7">
-        <v>0</v>
-      </c>
-      <c r="M57" s="8">
-        <v>0</v>
-      </c>
-      <c r="N57" s="8">
-        <v>0</v>
-      </c>
-      <c r="O57" s="9">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="P57" s="9">
+      <c r="K57" s="7">
+        <v>0</v>
+      </c>
+      <c r="L57" s="7"/>
+      <c r="M57" s="7"/>
+      <c r="N57" s="7">
+        <v>0</v>
+      </c>
+      <c r="O57" s="8">
+        <v>0</v>
+      </c>
+      <c r="P57" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q57" s="9">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="R57" s="9">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="S57" s="4">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="T57" s="4">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="U57" s="4">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="V57" s="4">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="Q57" s="4">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="R57" s="4">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="S57" s="4">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="T57" s="4">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="U57" s="10"/>
-      <c r="W57" s="5"/>
-      <c r="X57" s="4"/>
-      <c r="Y57" s="4"/>
+      <c r="W57" s="10"/>
+      <c r="Y57" s="5"/>
       <c r="Z57" s="4"/>
-    </row>
-    <row r="58" spans="1:26" s="28" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="AA57" s="4"/>
+      <c r="AB57" s="4"/>
+    </row>
+    <row r="58" spans="1:28" s="28" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A58" s="21" t="s">
         <v>35</v>
       </c>
       <c r="B58" s="22"/>
       <c r="C58" s="22">
-        <f t="shared" ref="C58:T58" si="21">SUM(C45:C57)</f>
+        <f t="shared" ref="C58:V58" si="20">SUM(C45:C57)</f>
         <v>0</v>
       </c>
       <c r="D58" s="22">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="E58" s="22">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="F58" s="22"/>
-      <c r="G58" s="22">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
+      <c r="G58" s="22"/>
       <c r="H58" s="22">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="I58" s="22">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="J58" s="22">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="K58" s="22"/>
-      <c r="L58" s="22">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="M58" s="22">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="K58" s="22">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="L58" s="22"/>
+      <c r="M58" s="22"/>
       <c r="N58" s="22">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="O58" s="23">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="P58" s="23">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="Q58" s="21">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="R58" s="21">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="O58" s="22">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="P58" s="22">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="Q58" s="23">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="R58" s="23">
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="S58" s="21">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="T58" s="21">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="U58" s="24"/>
-      <c r="V58" s="25"/>
-      <c r="W58" s="26" t="s">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="U58" s="21">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="V58" s="21">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="W58" s="24"/>
+      <c r="X58" s="25"/>
+      <c r="Y58" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="X58" s="21">
-        <f>SUM(X45:X57)</f>
-        <v>0</v>
-      </c>
-      <c r="Y58" s="21"/>
-      <c r="Z58" s="21"/>
-    </row>
-    <row r="61" spans="1:26" x14ac:dyDescent="0.15">
-      <c r="J61">
-        <v>1733</v>
-      </c>
-    </row>
-    <row r="62" spans="1:26" x14ac:dyDescent="0.15">
-      <c r="J62">
-        <v>1044</v>
-      </c>
-    </row>
-    <row r="63" spans="1:26" x14ac:dyDescent="0.15">
-      <c r="J63">
-        <v>-815</v>
-      </c>
-    </row>
-    <row r="64" spans="1:26" x14ac:dyDescent="0.15">
-      <c r="J64">
-        <v>2640</v>
-      </c>
-    </row>
-    <row r="74" spans="21:21" x14ac:dyDescent="0.15">
-      <c r="U74"/>
-    </row>
-    <row r="75" spans="21:21" x14ac:dyDescent="0.15">
-      <c r="U75"/>
+      <c r="Z58" s="21">
+        <f>SUM(Z45:Z57)</f>
+        <v>0</v>
+      </c>
+      <c r="AA58" s="21"/>
+      <c r="AB58" s="21"/>
+    </row>
+    <row r="74" spans="23:23" x14ac:dyDescent="0.15">
+      <c r="W74"/>
+    </row>
+    <row r="75" spans="23:23" x14ac:dyDescent="0.15">
+      <c r="W75"/>
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="Q1:T1"/>
-    <mergeCell ref="W1:Z1"/>
+    <mergeCell ref="S1:V1"/>
+    <mergeCell ref="Y1:AB1"/>
     <mergeCell ref="A21:A22"/>
     <mergeCell ref="B21:B22"/>
-    <mergeCell ref="C21:G21"/>
-    <mergeCell ref="H21:L21"/>
-    <mergeCell ref="M21:N21"/>
+    <mergeCell ref="C21:H21"/>
+    <mergeCell ref="I21:N21"/>
     <mergeCell ref="O21:P21"/>
-    <mergeCell ref="Q21:T21"/>
-    <mergeCell ref="W21:Z21"/>
+    <mergeCell ref="Q21:R21"/>
+    <mergeCell ref="S21:V21"/>
+    <mergeCell ref="Y21:AB21"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:G1"/>
-    <mergeCell ref="H1:L1"/>
-    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="C1:H1"/>
+    <mergeCell ref="I1:N1"/>
     <mergeCell ref="O1:P1"/>
-    <mergeCell ref="Q43:T43"/>
-    <mergeCell ref="W43:Z43"/>
+    <mergeCell ref="Q1:R1"/>
+    <mergeCell ref="S43:V43"/>
+    <mergeCell ref="Y43:AB43"/>
     <mergeCell ref="A43:A44"/>
     <mergeCell ref="B43:B44"/>
-    <mergeCell ref="C43:G43"/>
-    <mergeCell ref="H43:L43"/>
-    <mergeCell ref="M43:N43"/>
+    <mergeCell ref="C43:H43"/>
+    <mergeCell ref="I43:N43"/>
     <mergeCell ref="O43:P43"/>
+    <mergeCell ref="Q43:R43"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4939,10 +5245,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z43"/>
+  <dimension ref="A1:AC43"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="Z18" sqref="Z18"/>
+    <sheetView topLeftCell="O16" workbookViewId="0">
+      <selection activeCell="Q60" sqref="Q60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4954,13 +5260,15 @@
     <col min="19" max="19" width="12.5" customWidth="1"/>
     <col min="23" max="23" width="13" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="14.25" customWidth="1"/>
+    <col min="28" max="28" width="13" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="21.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="20.25" x14ac:dyDescent="0.15">
-      <c r="A1" s="66" t="s">
+    <row r="1" spans="1:29" ht="20.25" x14ac:dyDescent="0.15">
+      <c r="A1" s="77" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="66"/>
+      <c r="B1" s="77"/>
       <c r="C1" s="31" t="s">
         <v>44</v>
       </c>
@@ -4968,48 +5276,58 @@
         <v>45</v>
       </c>
       <c r="E1" s="31"/>
-      <c r="F1" s="66" t="s">
+      <c r="F1" s="77" t="s">
         <v>43</v>
       </c>
-      <c r="G1" s="66"/>
+      <c r="G1" s="77"/>
       <c r="H1" s="31" t="s">
         <v>44</v>
       </c>
       <c r="I1" s="31" t="s">
         <v>45</v>
       </c>
-      <c r="K1" s="66" t="s">
+      <c r="K1" s="77" t="s">
         <v>43</v>
       </c>
-      <c r="L1" s="66"/>
+      <c r="L1" s="77"/>
       <c r="M1" s="31" t="s">
         <v>44</v>
       </c>
       <c r="N1" s="31" t="s">
         <v>46</v>
       </c>
-      <c r="P1" s="66" t="s">
+      <c r="P1" s="77" t="s">
         <v>43</v>
       </c>
-      <c r="Q1" s="66"/>
+      <c r="Q1" s="77"/>
       <c r="R1" s="31" t="s">
         <v>44</v>
       </c>
       <c r="S1" s="31" t="s">
         <v>47</v>
       </c>
-      <c r="U1" s="66" t="s">
+      <c r="U1" s="77" t="s">
         <v>43</v>
       </c>
-      <c r="V1" s="66"/>
+      <c r="V1" s="77"/>
       <c r="W1" s="31" t="s">
         <v>44</v>
       </c>
       <c r="X1" s="31" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="Z1" s="77" t="s">
+        <v>43</v>
+      </c>
+      <c r="AA1" s="77"/>
+      <c r="AB1" s="61" t="s">
+        <v>44</v>
+      </c>
+      <c r="AC1" s="61" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="2" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
         <v>48</v>
       </c>
@@ -5056,8 +5374,17 @@
       <c r="X2" s="11">
         <v>0.12</v>
       </c>
-    </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="Z2" s="62" t="s">
+        <v>48</v>
+      </c>
+      <c r="AB2">
+        <v>43</v>
+      </c>
+      <c r="AC2" s="11">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
         <v>49</v>
       </c>
@@ -5104,12 +5431,21 @@
       <c r="X3" s="33">
         <v>0.12</v>
       </c>
-    </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="Z3" s="62" t="s">
+        <v>49</v>
+      </c>
+      <c r="AB3">
+        <v>7</v>
+      </c>
+      <c r="AC3" s="59">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29" x14ac:dyDescent="0.15">
       <c r="E4" s="11"/>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="A5" s="62" t="s">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.15">
+      <c r="A5" s="73" t="s">
         <v>50</v>
       </c>
       <c r="B5" t="s">
@@ -5118,11 +5454,11 @@
       <c r="C5">
         <v>1.8</v>
       </c>
-      <c r="D5" s="61">
+      <c r="D5" s="72">
         <v>0.35</v>
       </c>
       <c r="E5" s="32"/>
-      <c r="F5" s="62" t="s">
+      <c r="F5" s="73" t="s">
         <v>50</v>
       </c>
       <c r="G5" t="s">
@@ -5131,10 +5467,10 @@
       <c r="H5">
         <v>1.8</v>
       </c>
-      <c r="I5" s="61">
+      <c r="I5" s="72">
         <v>0.3</v>
       </c>
-      <c r="K5" s="62" t="s">
+      <c r="K5" s="73" t="s">
         <v>50</v>
       </c>
       <c r="L5" t="s">
@@ -5143,10 +5479,10 @@
       <c r="M5">
         <v>1.8</v>
       </c>
-      <c r="N5" s="61">
+      <c r="N5" s="72">
         <v>0.3</v>
       </c>
-      <c r="P5" s="62" t="s">
+      <c r="P5" s="73" t="s">
         <v>50</v>
       </c>
       <c r="Q5" t="s">
@@ -5155,10 +5491,10 @@
       <c r="R5">
         <v>1.8</v>
       </c>
-      <c r="S5" s="61">
+      <c r="S5" s="72">
         <v>0.35</v>
       </c>
-      <c r="U5" s="62" t="s">
+      <c r="U5" s="73" t="s">
         <v>50</v>
       </c>
       <c r="V5" t="s">
@@ -5167,55 +5503,75 @@
       <c r="W5">
         <v>1.8</v>
       </c>
-      <c r="X5" s="61">
+      <c r="X5" s="72">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="A6" s="62"/>
+      <c r="Z5" s="73" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA5" t="s">
+        <v>51</v>
+      </c>
+      <c r="AB5">
+        <v>1.8</v>
+      </c>
+      <c r="AC5" s="72">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:29" x14ac:dyDescent="0.15">
+      <c r="A6" s="73"/>
       <c r="B6" t="s">
         <v>52</v>
       </c>
       <c r="C6">
         <v>2</v>
       </c>
-      <c r="D6" s="61"/>
+      <c r="D6" s="72"/>
       <c r="E6" s="32"/>
-      <c r="F6" s="62"/>
+      <c r="F6" s="73"/>
       <c r="G6" t="s">
         <v>52</v>
       </c>
       <c r="H6">
         <v>2</v>
       </c>
-      <c r="I6" s="61"/>
-      <c r="K6" s="62"/>
+      <c r="I6" s="72"/>
+      <c r="K6" s="73"/>
       <c r="L6" t="s">
         <v>52</v>
       </c>
       <c r="M6">
         <v>2</v>
       </c>
-      <c r="N6" s="61"/>
-      <c r="P6" s="62"/>
+      <c r="N6" s="72"/>
+      <c r="P6" s="73"/>
       <c r="Q6" t="s">
         <v>52</v>
       </c>
       <c r="R6">
         <v>2</v>
       </c>
-      <c r="S6" s="61"/>
-      <c r="U6" s="62"/>
+      <c r="S6" s="72"/>
+      <c r="U6" s="73"/>
       <c r="V6" t="s">
         <v>52</v>
       </c>
       <c r="W6">
         <v>2</v>
       </c>
-      <c r="X6" s="61"/>
-    </row>
-    <row r="7" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="62" t="s">
+      <c r="X6" s="72"/>
+      <c r="Z6" s="73"/>
+      <c r="AA6" t="s">
+        <v>52</v>
+      </c>
+      <c r="AB6">
+        <v>2</v>
+      </c>
+      <c r="AC6" s="72"/>
+    </row>
+    <row r="7" spans="1:29" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="73" t="s">
         <v>53</v>
       </c>
       <c r="B7" t="s">
@@ -5224,11 +5580,11 @@
       <c r="C7">
         <v>2</v>
       </c>
-      <c r="D7" s="61">
+      <c r="D7" s="72">
         <v>0.35</v>
       </c>
       <c r="E7" s="32"/>
-      <c r="F7" s="62" t="s">
+      <c r="F7" s="73" t="s">
         <v>53</v>
       </c>
       <c r="G7" t="s">
@@ -5237,10 +5593,10 @@
       <c r="H7">
         <v>2</v>
       </c>
-      <c r="I7" s="61">
+      <c r="I7" s="72">
         <v>0.3</v>
       </c>
-      <c r="K7" s="62" t="s">
+      <c r="K7" s="73" t="s">
         <v>53</v>
       </c>
       <c r="L7" t="s">
@@ -5249,10 +5605,10 @@
       <c r="M7">
         <v>2</v>
       </c>
-      <c r="N7" s="61">
+      <c r="N7" s="72">
         <v>0.3</v>
       </c>
-      <c r="P7" s="62" t="s">
+      <c r="P7" s="73" t="s">
         <v>53</v>
       </c>
       <c r="Q7" t="s">
@@ -5261,10 +5617,10 @@
       <c r="R7">
         <v>2</v>
       </c>
-      <c r="S7" s="61">
+      <c r="S7" s="72">
         <v>0.35</v>
       </c>
-      <c r="U7" s="62" t="s">
+      <c r="U7" s="73" t="s">
         <v>53</v>
       </c>
       <c r="V7" t="s">
@@ -5273,55 +5629,75 @@
       <c r="W7">
         <v>2</v>
       </c>
-      <c r="X7" s="61">
+      <c r="X7" s="72">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="A8" s="62"/>
+      <c r="Z7" s="73" t="s">
+        <v>144</v>
+      </c>
+      <c r="AA7" t="s">
+        <v>54</v>
+      </c>
+      <c r="AB7">
+        <v>2</v>
+      </c>
+      <c r="AC7" s="72">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:29" x14ac:dyDescent="0.15">
+      <c r="A8" s="73"/>
       <c r="B8" t="s">
         <v>52</v>
       </c>
       <c r="C8">
         <v>1.8</v>
       </c>
-      <c r="D8" s="61"/>
+      <c r="D8" s="72"/>
       <c r="E8" s="32"/>
-      <c r="F8" s="62"/>
+      <c r="F8" s="73"/>
       <c r="G8" t="s">
         <v>52</v>
       </c>
       <c r="H8">
         <v>1.8</v>
       </c>
-      <c r="I8" s="61"/>
-      <c r="K8" s="62"/>
+      <c r="I8" s="72"/>
+      <c r="K8" s="73"/>
       <c r="L8" t="s">
         <v>52</v>
       </c>
       <c r="M8">
         <v>1.8</v>
       </c>
-      <c r="N8" s="61"/>
-      <c r="P8" s="62"/>
+      <c r="N8" s="72"/>
+      <c r="P8" s="73"/>
       <c r="Q8" t="s">
         <v>52</v>
       </c>
       <c r="R8">
         <v>1.8</v>
       </c>
-      <c r="S8" s="61"/>
-      <c r="U8" s="62"/>
+      <c r="S8" s="72"/>
+      <c r="U8" s="73"/>
       <c r="V8" t="s">
         <v>52</v>
       </c>
       <c r="W8">
         <v>1.8</v>
       </c>
-      <c r="X8" s="61"/>
-    </row>
-    <row r="9" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="62" t="s">
+      <c r="X8" s="72"/>
+      <c r="Z8" s="73"/>
+      <c r="AA8" t="s">
+        <v>52</v>
+      </c>
+      <c r="AB8">
+        <v>1.8</v>
+      </c>
+      <c r="AC8" s="72"/>
+    </row>
+    <row r="9" spans="1:29" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="73" t="s">
         <v>55</v>
       </c>
       <c r="B9" t="s">
@@ -5330,11 +5706,11 @@
       <c r="C9">
         <v>1.8</v>
       </c>
-      <c r="D9" s="63" t="s">
+      <c r="D9" s="74" t="s">
         <v>56</v>
       </c>
       <c r="E9" s="34"/>
-      <c r="F9" s="62" t="s">
+      <c r="F9" s="73" t="s">
         <v>55</v>
       </c>
       <c r="G9" t="s">
@@ -5343,10 +5719,10 @@
       <c r="H9">
         <v>1.8</v>
       </c>
-      <c r="I9" s="63" t="s">
+      <c r="I9" s="74" t="s">
         <v>57</v>
       </c>
-      <c r="K9" s="62" t="s">
+      <c r="K9" s="73" t="s">
         <v>55</v>
       </c>
       <c r="L9" t="s">
@@ -5355,10 +5731,10 @@
       <c r="M9">
         <v>1.8</v>
       </c>
-      <c r="N9" s="63" t="s">
+      <c r="N9" s="74" t="s">
         <v>57</v>
       </c>
-      <c r="P9" s="62" t="s">
+      <c r="P9" s="73" t="s">
         <v>55</v>
       </c>
       <c r="Q9" t="s">
@@ -5367,10 +5743,10 @@
       <c r="R9">
         <v>1.8</v>
       </c>
-      <c r="S9" s="63" t="s">
+      <c r="S9" s="74" t="s">
         <v>56</v>
       </c>
-      <c r="U9" s="62" t="s">
+      <c r="U9" s="73" t="s">
         <v>55</v>
       </c>
       <c r="V9" t="s">
@@ -5379,98 +5755,126 @@
       <c r="W9">
         <v>1.8</v>
       </c>
-      <c r="X9" s="63" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="A10" s="62"/>
+      <c r="X9" s="74" t="s">
+        <v>99</v>
+      </c>
+      <c r="Z9" s="73" t="s">
+        <v>55</v>
+      </c>
+      <c r="AA9" t="s">
+        <v>48</v>
+      </c>
+      <c r="AB9">
+        <v>1.8</v>
+      </c>
+      <c r="AC9" s="74" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="10" spans="1:29" x14ac:dyDescent="0.15">
+      <c r="A10" s="73"/>
       <c r="B10" t="s">
         <v>58</v>
       </c>
       <c r="C10">
         <v>1.8</v>
       </c>
-      <c r="D10" s="64"/>
+      <c r="D10" s="75"/>
       <c r="E10" s="35"/>
-      <c r="F10" s="62"/>
+      <c r="F10" s="73"/>
       <c r="G10" t="s">
         <v>58</v>
       </c>
       <c r="H10">
         <v>1.8</v>
       </c>
-      <c r="I10" s="64"/>
-      <c r="K10" s="62"/>
+      <c r="I10" s="75"/>
+      <c r="K10" s="73"/>
       <c r="L10" t="s">
         <v>58</v>
       </c>
       <c r="M10">
         <v>1.8</v>
       </c>
-      <c r="N10" s="64"/>
-      <c r="P10" s="62"/>
+      <c r="N10" s="75"/>
+      <c r="P10" s="73"/>
       <c r="Q10" t="s">
         <v>58</v>
       </c>
       <c r="R10">
         <v>1.8</v>
       </c>
-      <c r="S10" s="64"/>
-      <c r="U10" s="62"/>
+      <c r="S10" s="75"/>
+      <c r="U10" s="73"/>
       <c r="V10" t="s">
         <v>58</v>
       </c>
       <c r="W10">
         <v>1.8</v>
       </c>
-      <c r="X10" s="64"/>
-    </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="A11" s="62"/>
+      <c r="X10" s="75"/>
+      <c r="Z10" s="73"/>
+      <c r="AA10" t="s">
+        <v>58</v>
+      </c>
+      <c r="AB10">
+        <v>1.8</v>
+      </c>
+      <c r="AC10" s="75"/>
+    </row>
+    <row r="11" spans="1:29" x14ac:dyDescent="0.15">
+      <c r="A11" s="73"/>
       <c r="B11" t="s">
         <v>53</v>
       </c>
       <c r="C11">
         <v>1.8</v>
       </c>
-      <c r="D11" s="64"/>
+      <c r="D11" s="75"/>
       <c r="E11" s="35"/>
-      <c r="F11" s="62"/>
+      <c r="F11" s="73"/>
       <c r="G11" t="s">
         <v>53</v>
       </c>
       <c r="H11">
         <v>1.8</v>
       </c>
-      <c r="I11" s="64"/>
-      <c r="K11" s="62"/>
+      <c r="I11" s="75"/>
+      <c r="K11" s="73"/>
       <c r="L11" t="s">
         <v>53</v>
       </c>
       <c r="M11">
         <v>1.8</v>
       </c>
-      <c r="N11" s="64"/>
-      <c r="P11" s="62"/>
+      <c r="N11" s="75"/>
+      <c r="P11" s="73"/>
       <c r="Q11" t="s">
         <v>53</v>
       </c>
       <c r="R11">
         <v>1.8</v>
       </c>
-      <c r="S11" s="64"/>
-      <c r="U11" s="62"/>
+      <c r="S11" s="75"/>
+      <c r="U11" s="73"/>
       <c r="V11" t="s">
         <v>53</v>
       </c>
       <c r="W11">
         <v>1.8</v>
       </c>
-      <c r="X11" s="64"/>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="A12" s="62" t="s">
+      <c r="X11" s="75"/>
+      <c r="Z11" s="73"/>
+      <c r="AA11" t="s">
+        <v>144</v>
+      </c>
+      <c r="AB11">
+        <v>1.8</v>
+      </c>
+      <c r="AC11" s="75"/>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.15">
+      <c r="A12" s="73" t="s">
         <v>59</v>
       </c>
       <c r="B12" t="s">
@@ -5479,11 +5883,11 @@
       <c r="C12">
         <v>2.5</v>
       </c>
-      <c r="D12" s="61">
+      <c r="D12" s="72">
         <v>0.05</v>
       </c>
       <c r="E12" s="32"/>
-      <c r="F12" s="62" t="s">
+      <c r="F12" s="73" t="s">
         <v>59</v>
       </c>
       <c r="G12" t="s">
@@ -5492,10 +5896,10 @@
       <c r="H12">
         <v>2.5</v>
       </c>
-      <c r="I12" s="61">
+      <c r="I12" s="72">
         <v>0.03</v>
       </c>
-      <c r="K12" s="62" t="s">
+      <c r="K12" s="73" t="s">
         <v>59</v>
       </c>
       <c r="L12" t="s">
@@ -5504,10 +5908,10 @@
       <c r="M12">
         <v>2.5</v>
       </c>
-      <c r="N12" s="61">
+      <c r="N12" s="72">
         <v>0.03</v>
       </c>
-      <c r="P12" s="62" t="s">
+      <c r="P12" s="73" t="s">
         <v>59</v>
       </c>
       <c r="Q12" t="s">
@@ -5516,10 +5920,10 @@
       <c r="R12">
         <v>2.5</v>
       </c>
-      <c r="S12" s="61">
+      <c r="S12" s="72">
         <v>0.05</v>
       </c>
-      <c r="U12" s="62" t="s">
+      <c r="U12" s="73" t="s">
         <v>59</v>
       </c>
       <c r="V12" t="s">
@@ -5528,55 +5932,75 @@
       <c r="W12">
         <v>2.5</v>
       </c>
-      <c r="X12" s="61">
+      <c r="X12" s="72">
         <v>0.03</v>
       </c>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="A13" s="62"/>
+      <c r="Z12" s="73" t="s">
+        <v>59</v>
+      </c>
+      <c r="AA12" t="s">
+        <v>60</v>
+      </c>
+      <c r="AB12">
+        <v>2.5</v>
+      </c>
+      <c r="AC12" s="72">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.15">
+      <c r="A13" s="73"/>
       <c r="B13" t="s">
         <v>61</v>
       </c>
       <c r="C13">
         <v>5</v>
       </c>
-      <c r="D13" s="61"/>
+      <c r="D13" s="72"/>
       <c r="E13" s="32"/>
-      <c r="F13" s="62"/>
+      <c r="F13" s="73"/>
       <c r="G13" t="s">
         <v>61</v>
       </c>
       <c r="H13">
         <v>5</v>
       </c>
-      <c r="I13" s="61"/>
-      <c r="K13" s="62"/>
+      <c r="I13" s="72"/>
+      <c r="K13" s="73"/>
       <c r="L13" t="s">
         <v>61</v>
       </c>
       <c r="M13">
         <v>5</v>
       </c>
-      <c r="N13" s="61"/>
-      <c r="P13" s="62"/>
+      <c r="N13" s="72"/>
+      <c r="P13" s="73"/>
       <c r="Q13" t="s">
         <v>61</v>
       </c>
       <c r="R13">
         <v>5</v>
       </c>
-      <c r="S13" s="61"/>
-      <c r="U13" s="62"/>
+      <c r="S13" s="72"/>
+      <c r="U13" s="73"/>
       <c r="V13" t="s">
         <v>61</v>
       </c>
       <c r="W13">
         <v>5</v>
       </c>
-      <c r="X13" s="61"/>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="A14" s="62" t="s">
+      <c r="X13" s="72"/>
+      <c r="Z13" s="73"/>
+      <c r="AA13" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB13">
+        <v>5</v>
+      </c>
+      <c r="AC13" s="72"/>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.15">
+      <c r="A14" s="73" t="s">
         <v>62</v>
       </c>
       <c r="B14" t="s">
@@ -5585,11 +6009,11 @@
       <c r="C14">
         <v>3.5</v>
       </c>
-      <c r="D14" s="65">
+      <c r="D14" s="76">
         <v>0.05</v>
       </c>
       <c r="E14" s="36"/>
-      <c r="F14" s="62" t="s">
+      <c r="F14" s="73" t="s">
         <v>62</v>
       </c>
       <c r="G14" t="s">
@@ -5598,10 +6022,10 @@
       <c r="H14">
         <v>3.5</v>
       </c>
-      <c r="I14" s="65">
+      <c r="I14" s="76">
         <v>0.03</v>
       </c>
-      <c r="K14" s="62" t="s">
+      <c r="K14" s="73" t="s">
         <v>62</v>
       </c>
       <c r="L14" t="s">
@@ -5610,10 +6034,10 @@
       <c r="M14">
         <v>3.5</v>
       </c>
-      <c r="N14" s="65">
+      <c r="N14" s="76">
         <v>0.03</v>
       </c>
-      <c r="P14" s="62" t="s">
+      <c r="P14" s="73" t="s">
         <v>62</v>
       </c>
       <c r="Q14" t="s">
@@ -5622,10 +6046,10 @@
       <c r="R14">
         <v>3.5</v>
       </c>
-      <c r="S14" s="65">
+      <c r="S14" s="76">
         <v>0.05</v>
       </c>
-      <c r="U14" s="62" t="s">
+      <c r="U14" s="73" t="s">
         <v>62</v>
       </c>
       <c r="V14" t="s">
@@ -5634,144 +6058,180 @@
       <c r="W14">
         <v>3.5</v>
       </c>
-      <c r="X14" s="65">
+      <c r="X14" s="76">
         <v>0.03</v>
       </c>
       <c r="Y14" s="11"/>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="A15" s="62"/>
+      <c r="Z14" s="73" t="s">
+        <v>62</v>
+      </c>
+      <c r="AA14" t="s">
+        <v>63</v>
+      </c>
+      <c r="AB14">
+        <v>3.5</v>
+      </c>
+      <c r="AC14" s="76">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29" x14ac:dyDescent="0.15">
+      <c r="A15" s="73"/>
       <c r="B15" t="s">
         <v>64</v>
       </c>
       <c r="C15">
         <v>2.5</v>
       </c>
-      <c r="D15" s="65"/>
+      <c r="D15" s="76"/>
       <c r="E15" s="36"/>
-      <c r="F15" s="62"/>
+      <c r="F15" s="73"/>
       <c r="G15" t="s">
         <v>64</v>
       </c>
       <c r="H15">
         <v>2.5</v>
       </c>
-      <c r="I15" s="65"/>
-      <c r="K15" s="62"/>
+      <c r="I15" s="76"/>
+      <c r="K15" s="73"/>
       <c r="L15" t="s">
         <v>64</v>
       </c>
       <c r="M15">
         <v>2.5</v>
       </c>
-      <c r="N15" s="65"/>
-      <c r="P15" s="62"/>
+      <c r="N15" s="76"/>
+      <c r="P15" s="73"/>
       <c r="Q15" t="s">
         <v>64</v>
       </c>
       <c r="R15">
         <v>2.5</v>
       </c>
-      <c r="S15" s="65"/>
-      <c r="U15" s="62"/>
+      <c r="S15" s="76"/>
+      <c r="U15" s="73"/>
       <c r="V15" t="s">
         <v>64</v>
       </c>
       <c r="W15">
         <v>2.5</v>
       </c>
-      <c r="X15" s="65"/>
-      <c r="Y15" s="65"/>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="A16" s="62"/>
+      <c r="X15" s="76"/>
+      <c r="Y15" s="76"/>
+      <c r="Z15" s="73"/>
+      <c r="AA15" t="s">
+        <v>64</v>
+      </c>
+      <c r="AB15">
+        <v>2.5</v>
+      </c>
+      <c r="AC15" s="76"/>
+    </row>
+    <row r="16" spans="1:29" x14ac:dyDescent="0.15">
+      <c r="A16" s="73"/>
       <c r="B16" t="s">
         <v>65</v>
       </c>
       <c r="C16">
         <v>2</v>
       </c>
-      <c r="D16" s="65"/>
+      <c r="D16" s="76"/>
       <c r="E16" s="36"/>
-      <c r="F16" s="62"/>
+      <c r="F16" s="73"/>
       <c r="G16" t="s">
         <v>65</v>
       </c>
       <c r="H16">
         <v>2</v>
       </c>
-      <c r="I16" s="65"/>
-      <c r="K16" s="62"/>
+      <c r="I16" s="76"/>
+      <c r="K16" s="73"/>
       <c r="L16" t="s">
         <v>65</v>
       </c>
       <c r="M16">
         <v>2</v>
       </c>
-      <c r="N16" s="65"/>
-      <c r="P16" s="62"/>
+      <c r="N16" s="76"/>
+      <c r="P16" s="73"/>
       <c r="Q16" t="s">
         <v>65</v>
       </c>
       <c r="R16">
         <v>2</v>
       </c>
-      <c r="S16" s="65"/>
-      <c r="U16" s="62"/>
+      <c r="S16" s="76"/>
+      <c r="U16" s="73"/>
       <c r="V16" t="s">
         <v>65</v>
       </c>
       <c r="W16">
         <v>2</v>
       </c>
-      <c r="X16" s="65"/>
-      <c r="Y16" s="65"/>
-    </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.15">
-      <c r="A17" s="62"/>
+      <c r="X16" s="76"/>
+      <c r="Y16" s="76"/>
+      <c r="Z16" s="73"/>
+      <c r="AA16" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB16">
+        <v>2</v>
+      </c>
+      <c r="AC16" s="76"/>
+    </row>
+    <row r="17" spans="1:29" x14ac:dyDescent="0.15">
+      <c r="A17" s="73"/>
       <c r="B17" t="s">
         <v>66</v>
       </c>
       <c r="C17">
         <v>1.9</v>
       </c>
-      <c r="D17" s="65"/>
+      <c r="D17" s="76"/>
       <c r="E17" s="36"/>
-      <c r="F17" s="62"/>
+      <c r="F17" s="73"/>
       <c r="G17" t="s">
         <v>66</v>
       </c>
       <c r="H17">
         <v>1.9</v>
       </c>
-      <c r="I17" s="65"/>
-      <c r="K17" s="62"/>
+      <c r="I17" s="76"/>
+      <c r="K17" s="73"/>
       <c r="L17" t="s">
         <v>66</v>
       </c>
       <c r="M17">
         <v>1.8</v>
       </c>
-      <c r="N17" s="65"/>
-      <c r="P17" s="62"/>
+      <c r="N17" s="76"/>
+      <c r="P17" s="73"/>
       <c r="Q17" t="s">
         <v>66</v>
       </c>
       <c r="R17">
         <v>1.8</v>
       </c>
-      <c r="S17" s="65"/>
-      <c r="U17" s="62"/>
+      <c r="S17" s="76"/>
+      <c r="U17" s="73"/>
       <c r="V17" t="s">
         <v>66</v>
       </c>
       <c r="W17">
         <v>1.8</v>
       </c>
-      <c r="X17" s="65"/>
-      <c r="Y17" s="65"/>
-    </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="X17" s="76"/>
+      <c r="Y17" s="76"/>
+      <c r="Z17" s="73"/>
+      <c r="AA17" t="s">
+        <v>66</v>
+      </c>
+      <c r="AB17">
+        <v>1.8</v>
+      </c>
+      <c r="AC17" s="76"/>
+    </row>
+    <row r="18" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A18" s="37" t="s">
         <v>67</v>
       </c>
@@ -5818,9 +6278,18 @@
       <c r="X18" s="11">
         <v>0.03</v>
       </c>
-      <c r="Y18" s="65"/>
-    </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="Y18" s="76"/>
+      <c r="Z18" s="37" t="s">
+        <v>67</v>
+      </c>
+      <c r="AB18">
+        <v>1.8</v>
+      </c>
+      <c r="AC18" s="11">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="19" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A19" s="38"/>
       <c r="D19" s="36"/>
       <c r="E19" s="36"/>
@@ -5832,10 +6301,12 @@
       <c r="S19" s="11"/>
       <c r="U19" s="37"/>
       <c r="X19" s="11"/>
-      <c r="Y19" s="65"/>
-    </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.15">
-      <c r="A20" s="62" t="s">
+      <c r="Y19" s="76"/>
+      <c r="Z19" s="58"/>
+      <c r="AC19" s="60"/>
+    </row>
+    <row r="20" spans="1:29" x14ac:dyDescent="0.15">
+      <c r="A20" s="73" t="s">
         <v>68</v>
       </c>
       <c r="B20" t="s">
@@ -5844,11 +6315,11 @@
       <c r="C20">
         <v>4</v>
       </c>
-      <c r="D20" s="61">
+      <c r="D20" s="72">
         <v>0.05</v>
       </c>
       <c r="E20" s="32"/>
-      <c r="F20" s="62" t="s">
+      <c r="F20" s="73" t="s">
         <v>68</v>
       </c>
       <c r="G20" t="s">
@@ -5857,10 +6328,10 @@
       <c r="H20">
         <v>4</v>
       </c>
-      <c r="I20" s="61">
+      <c r="I20" s="72">
         <v>0.03</v>
       </c>
-      <c r="K20" s="62" t="s">
+      <c r="K20" s="73" t="s">
         <v>68</v>
       </c>
       <c r="L20" t="s">
@@ -5869,10 +6340,10 @@
       <c r="M20">
         <v>4</v>
       </c>
-      <c r="N20" s="61">
+      <c r="N20" s="72">
         <v>0.03</v>
       </c>
-      <c r="P20" s="62" t="s">
+      <c r="P20" s="73" t="s">
         <v>68</v>
       </c>
       <c r="Q20" t="s">
@@ -5881,10 +6352,10 @@
       <c r="R20">
         <v>4</v>
       </c>
-      <c r="S20" s="61">
+      <c r="S20" s="72">
         <v>0.05</v>
       </c>
-      <c r="U20" s="62" t="s">
+      <c r="U20" s="73" t="s">
         <v>68</v>
       </c>
       <c r="V20" t="s">
@@ -5893,58 +6364,77 @@
       <c r="W20">
         <v>4</v>
       </c>
-      <c r="X20" s="61">
+      <c r="X20" s="72">
         <v>0.03</v>
       </c>
-      <c r="Y20" s="65"/>
-    </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.15">
-      <c r="A21" s="62"/>
+      <c r="Y20" s="76"/>
+      <c r="Z20" s="73" t="s">
+        <v>68</v>
+      </c>
+      <c r="AA20" t="s">
+        <v>51</v>
+      </c>
+      <c r="AB20">
+        <v>4</v>
+      </c>
+      <c r="AC20" s="72">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="21" spans="1:29" x14ac:dyDescent="0.15">
+      <c r="A21" s="73"/>
       <c r="B21" t="s">
         <v>52</v>
       </c>
       <c r="C21">
         <v>3.8</v>
       </c>
-      <c r="D21" s="61"/>
+      <c r="D21" s="72"/>
       <c r="E21" s="32"/>
-      <c r="F21" s="62"/>
+      <c r="F21" s="73"/>
       <c r="G21" t="s">
         <v>52</v>
       </c>
       <c r="H21">
         <v>3.8</v>
       </c>
-      <c r="I21" s="61"/>
-      <c r="K21" s="62"/>
+      <c r="I21" s="72"/>
+      <c r="K21" s="73"/>
       <c r="L21" t="s">
         <v>52</v>
       </c>
       <c r="M21">
         <v>3.8</v>
       </c>
-      <c r="N21" s="61"/>
-      <c r="P21" s="62"/>
+      <c r="N21" s="72"/>
+      <c r="P21" s="73"/>
       <c r="Q21" t="s">
         <v>52</v>
       </c>
       <c r="R21">
         <v>3.8</v>
       </c>
-      <c r="S21" s="61"/>
-      <c r="U21" s="62"/>
+      <c r="S21" s="72"/>
+      <c r="U21" s="73"/>
       <c r="V21" t="s">
         <v>52</v>
       </c>
       <c r="W21">
         <v>3.8</v>
       </c>
-      <c r="X21" s="61"/>
+      <c r="X21" s="72"/>
       <c r="Y21" s="11"/>
-      <c r="Z21" s="11"/>
-    </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.15">
-      <c r="A22" s="62" t="s">
+      <c r="Z21" s="73"/>
+      <c r="AA21" t="s">
+        <v>52</v>
+      </c>
+      <c r="AB21">
+        <v>3.8</v>
+      </c>
+      <c r="AC21" s="72"/>
+    </row>
+    <row r="22" spans="1:29" x14ac:dyDescent="0.15">
+      <c r="A22" s="73" t="s">
         <v>69</v>
       </c>
       <c r="B22" t="s">
@@ -5953,9 +6443,9 @@
       <c r="C22">
         <v>8</v>
       </c>
-      <c r="D22" s="61"/>
+      <c r="D22" s="72"/>
       <c r="E22" s="32"/>
-      <c r="F22" s="62" t="s">
+      <c r="F22" s="73" t="s">
         <v>69</v>
       </c>
       <c r="G22" t="s">
@@ -5964,8 +6454,8 @@
       <c r="H22">
         <v>8</v>
       </c>
-      <c r="I22" s="61"/>
-      <c r="K22" s="62" t="s">
+      <c r="I22" s="72"/>
+      <c r="K22" s="73" t="s">
         <v>69</v>
       </c>
       <c r="L22" t="s">
@@ -5974,8 +6464,8 @@
       <c r="M22">
         <v>8</v>
       </c>
-      <c r="N22" s="61"/>
-      <c r="P22" s="62" t="s">
+      <c r="N22" s="72"/>
+      <c r="P22" s="73" t="s">
         <v>69</v>
       </c>
       <c r="Q22" t="s">
@@ -5984,8 +6474,8 @@
       <c r="R22">
         <v>8</v>
       </c>
-      <c r="S22" s="61"/>
-      <c r="U22" s="62" t="s">
+      <c r="S22" s="72"/>
+      <c r="U22" s="73" t="s">
         <v>69</v>
       </c>
       <c r="V22" t="s">
@@ -5994,53 +6484,71 @@
       <c r="W22">
         <v>8</v>
       </c>
-      <c r="X22" s="61"/>
-    </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.15">
-      <c r="A23" s="62"/>
+      <c r="X22" s="72"/>
+      <c r="Z22" s="73" t="s">
+        <v>69</v>
+      </c>
+      <c r="AA22" t="s">
+        <v>51</v>
+      </c>
+      <c r="AB22">
+        <v>8</v>
+      </c>
+      <c r="AC22" s="72"/>
+    </row>
+    <row r="23" spans="1:29" x14ac:dyDescent="0.15">
+      <c r="A23" s="73"/>
       <c r="B23" t="s">
         <v>52</v>
       </c>
       <c r="C23">
         <v>10</v>
       </c>
-      <c r="D23" s="61"/>
+      <c r="D23" s="72"/>
       <c r="E23" s="32"/>
-      <c r="F23" s="62"/>
+      <c r="F23" s="73"/>
       <c r="G23" t="s">
         <v>52</v>
       </c>
       <c r="H23">
         <v>10</v>
       </c>
-      <c r="I23" s="61"/>
-      <c r="K23" s="62"/>
+      <c r="I23" s="72"/>
+      <c r="K23" s="73"/>
       <c r="L23" t="s">
         <v>52</v>
       </c>
       <c r="M23">
         <v>10</v>
       </c>
-      <c r="N23" s="61"/>
-      <c r="P23" s="62"/>
+      <c r="N23" s="72"/>
+      <c r="P23" s="73"/>
       <c r="Q23" t="s">
         <v>52</v>
       </c>
       <c r="R23">
         <v>10</v>
       </c>
-      <c r="S23" s="61"/>
-      <c r="U23" s="62"/>
+      <c r="S23" s="72"/>
+      <c r="U23" s="73"/>
       <c r="V23" t="s">
         <v>52</v>
       </c>
       <c r="W23">
         <v>10</v>
       </c>
-      <c r="X23" s="61"/>
-    </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.15">
-      <c r="A24" s="62" t="s">
+      <c r="X23" s="72"/>
+      <c r="Z23" s="73"/>
+      <c r="AA23" t="s">
+        <v>52</v>
+      </c>
+      <c r="AB23">
+        <v>10</v>
+      </c>
+      <c r="AC23" s="72"/>
+    </row>
+    <row r="24" spans="1:29" x14ac:dyDescent="0.15">
+      <c r="A24" s="73" t="s">
         <v>70</v>
       </c>
       <c r="B24" t="s">
@@ -6049,9 +6557,9 @@
       <c r="C24">
         <v>26</v>
       </c>
-      <c r="D24" s="61"/>
+      <c r="D24" s="72"/>
       <c r="E24" s="32"/>
-      <c r="F24" s="62" t="s">
+      <c r="F24" s="73" t="s">
         <v>70</v>
       </c>
       <c r="G24" t="s">
@@ -6060,8 +6568,8 @@
       <c r="H24">
         <v>26</v>
       </c>
-      <c r="I24" s="61"/>
-      <c r="K24" s="62" t="s">
+      <c r="I24" s="72"/>
+      <c r="K24" s="73" t="s">
         <v>70</v>
       </c>
       <c r="L24" t="s">
@@ -6070,8 +6578,8 @@
       <c r="M24">
         <v>26</v>
       </c>
-      <c r="N24" s="61"/>
-      <c r="P24" s="62" t="s">
+      <c r="N24" s="72"/>
+      <c r="P24" s="73" t="s">
         <v>70</v>
       </c>
       <c r="Q24" t="s">
@@ -6080,8 +6588,8 @@
       <c r="R24">
         <v>26</v>
       </c>
-      <c r="S24" s="61"/>
-      <c r="U24" s="62" t="s">
+      <c r="S24" s="72"/>
+      <c r="U24" s="73" t="s">
         <v>70</v>
       </c>
       <c r="V24" t="s">
@@ -6090,54 +6598,72 @@
       <c r="W24">
         <v>26</v>
       </c>
-      <c r="X24" s="61"/>
-    </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.15">
-      <c r="A25" s="62"/>
+      <c r="X24" s="72"/>
+      <c r="Z24" s="73" t="s">
+        <v>70</v>
+      </c>
+      <c r="AA24" t="s">
+        <v>51</v>
+      </c>
+      <c r="AB24">
+        <v>26</v>
+      </c>
+      <c r="AC24" s="72"/>
+    </row>
+    <row r="25" spans="1:29" x14ac:dyDescent="0.15">
+      <c r="A25" s="73"/>
       <c r="B25" t="s">
         <v>52</v>
       </c>
       <c r="C25">
         <v>30</v>
       </c>
-      <c r="D25" s="61"/>
+      <c r="D25" s="72"/>
       <c r="E25" s="32"/>
-      <c r="F25" s="62"/>
+      <c r="F25" s="73"/>
       <c r="G25" t="s">
         <v>52</v>
       </c>
       <c r="H25">
         <v>30</v>
       </c>
-      <c r="I25" s="61"/>
-      <c r="K25" s="62"/>
+      <c r="I25" s="72"/>
+      <c r="K25" s="73"/>
       <c r="L25" t="s">
         <v>52</v>
       </c>
       <c r="M25">
         <v>30</v>
       </c>
-      <c r="N25" s="61"/>
-      <c r="P25" s="62"/>
+      <c r="N25" s="72"/>
+      <c r="P25" s="73"/>
       <c r="Q25" t="s">
         <v>52</v>
       </c>
       <c r="R25">
         <v>30</v>
       </c>
-      <c r="S25" s="61"/>
-      <c r="U25" s="62"/>
+      <c r="S25" s="72"/>
+      <c r="U25" s="73"/>
       <c r="V25" t="s">
         <v>52</v>
       </c>
       <c r="W25">
         <v>30</v>
       </c>
-      <c r="X25" s="61"/>
+      <c r="X25" s="72"/>
       <c r="Y25" s="11"/>
-    </row>
-    <row r="26" spans="1:26" x14ac:dyDescent="0.15">
-      <c r="A26" s="62" t="s">
+      <c r="Z25" s="73"/>
+      <c r="AA25" t="s">
+        <v>52</v>
+      </c>
+      <c r="AB25">
+        <v>30</v>
+      </c>
+      <c r="AC25" s="72"/>
+    </row>
+    <row r="26" spans="1:29" x14ac:dyDescent="0.15">
+      <c r="A26" s="73" t="s">
         <v>71</v>
       </c>
       <c r="B26" t="s">
@@ -6146,9 +6672,9 @@
       <c r="C26">
         <v>80</v>
       </c>
-      <c r="D26" s="61"/>
+      <c r="D26" s="72"/>
       <c r="E26" s="32"/>
-      <c r="F26" s="62" t="s">
+      <c r="F26" s="73" t="s">
         <v>71</v>
       </c>
       <c r="G26" t="s">
@@ -6157,8 +6683,8 @@
       <c r="H26">
         <v>80</v>
       </c>
-      <c r="I26" s="61"/>
-      <c r="K26" s="62" t="s">
+      <c r="I26" s="72"/>
+      <c r="K26" s="73" t="s">
         <v>71</v>
       </c>
       <c r="L26" t="s">
@@ -6167,8 +6693,8 @@
       <c r="M26">
         <v>80</v>
       </c>
-      <c r="N26" s="61"/>
-      <c r="P26" s="62" t="s">
+      <c r="N26" s="72"/>
+      <c r="P26" s="73" t="s">
         <v>71</v>
       </c>
       <c r="Q26" t="s">
@@ -6177,8 +6703,8 @@
       <c r="R26">
         <v>80</v>
       </c>
-      <c r="S26" s="61"/>
-      <c r="U26" s="62" t="s">
+      <c r="S26" s="72"/>
+      <c r="U26" s="73" t="s">
         <v>71</v>
       </c>
       <c r="V26" t="s">
@@ -6187,72 +6713,91 @@
       <c r="W26">
         <v>80</v>
       </c>
-      <c r="X26" s="61"/>
-      <c r="Y26" s="65"/>
-    </row>
-    <row r="27" spans="1:26" x14ac:dyDescent="0.15">
-      <c r="A27" s="62"/>
+      <c r="X26" s="72"/>
+      <c r="Y26" s="76"/>
+      <c r="Z26" s="73" t="s">
+        <v>71</v>
+      </c>
+      <c r="AA26" t="s">
+        <v>51</v>
+      </c>
+      <c r="AB26">
+        <v>80</v>
+      </c>
+      <c r="AC26" s="72"/>
+    </row>
+    <row r="27" spans="1:29" x14ac:dyDescent="0.15">
+      <c r="A27" s="73"/>
       <c r="B27" t="s">
         <v>52</v>
       </c>
       <c r="C27">
         <v>100</v>
       </c>
-      <c r="D27" s="61"/>
+      <c r="D27" s="72"/>
       <c r="E27" s="32"/>
-      <c r="F27" s="62"/>
+      <c r="F27" s="73"/>
       <c r="G27" t="s">
         <v>52</v>
       </c>
       <c r="H27">
         <v>100</v>
       </c>
-      <c r="I27" s="61"/>
-      <c r="K27" s="62"/>
+      <c r="I27" s="72"/>
+      <c r="K27" s="73"/>
       <c r="L27" t="s">
         <v>52</v>
       </c>
       <c r="M27">
         <v>100</v>
       </c>
-      <c r="N27" s="61"/>
-      <c r="P27" s="62"/>
+      <c r="N27" s="72"/>
+      <c r="P27" s="73"/>
       <c r="Q27" t="s">
         <v>52</v>
       </c>
       <c r="R27">
         <v>100</v>
       </c>
-      <c r="S27" s="61"/>
-      <c r="U27" s="62"/>
+      <c r="S27" s="72"/>
+      <c r="U27" s="73"/>
       <c r="V27" t="s">
         <v>52</v>
       </c>
       <c r="W27">
         <v>100</v>
       </c>
-      <c r="X27" s="61"/>
-      <c r="Y27" s="65"/>
-    </row>
-    <row r="28" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="X27" s="72"/>
+      <c r="Y27" s="76"/>
+      <c r="Z27" s="73"/>
+      <c r="AA27" t="s">
+        <v>52</v>
+      </c>
+      <c r="AB27">
+        <v>100</v>
+      </c>
+      <c r="AC27" s="72"/>
+    </row>
+    <row r="28" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A28" s="37"/>
       <c r="F28" s="37"/>
       <c r="K28" s="37"/>
       <c r="P28" s="37"/>
       <c r="U28" s="37"/>
-      <c r="Y28" s="65"/>
-    </row>
-    <row r="29" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="Y29" s="65"/>
-    </row>
-    <row r="30" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="Y28" s="76"/>
+      <c r="Z28" s="37"/>
+    </row>
+    <row r="29" spans="1:29" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Y29" s="76"/>
+    </row>
+    <row r="30" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A30" s="3" t="s">
         <v>72</v>
       </c>
       <c r="C30">
         <v>60</v>
       </c>
-      <c r="D30" s="61">
+      <c r="D30" s="72">
         <v>0.05</v>
       </c>
       <c r="E30" s="32"/>
@@ -6262,7 +6807,7 @@
       <c r="H30">
         <v>60</v>
       </c>
-      <c r="I30" s="61">
+      <c r="I30" s="72">
         <v>0.12</v>
       </c>
       <c r="K30" s="3" t="s">
@@ -6271,8 +6816,8 @@
       <c r="M30">
         <v>60</v>
       </c>
-      <c r="N30" s="61">
-        <v>0.05</v>
+      <c r="N30" s="72">
+        <v>0.1</v>
       </c>
       <c r="P30" s="3" t="s">
         <v>72</v>
@@ -6280,7 +6825,7 @@
       <c r="R30">
         <v>60</v>
       </c>
-      <c r="S30" s="61">
+      <c r="S30" s="72">
         <v>0.12</v>
       </c>
       <c r="U30" s="3" t="s">
@@ -6289,19 +6834,28 @@
       <c r="W30">
         <v>60</v>
       </c>
-      <c r="X30" s="61">
+      <c r="X30" s="72">
         <v>0.12</v>
       </c>
       <c r="Y30" s="11"/>
-    </row>
-    <row r="31" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="Z30" s="62" t="s">
+        <v>72</v>
+      </c>
+      <c r="AB30">
+        <v>60</v>
+      </c>
+      <c r="AC30" s="72">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A31" s="3" t="s">
         <v>73</v>
       </c>
       <c r="C31">
         <v>600</v>
       </c>
-      <c r="D31" s="61"/>
+      <c r="D31" s="72"/>
       <c r="E31" s="32"/>
       <c r="F31" s="3" t="s">
         <v>73</v>
@@ -6309,31 +6863,38 @@
       <c r="H31">
         <v>600</v>
       </c>
-      <c r="I31" s="61"/>
+      <c r="I31" s="72"/>
       <c r="K31" s="3" t="s">
         <v>73</v>
       </c>
       <c r="M31">
         <v>600</v>
       </c>
-      <c r="N31" s="61"/>
+      <c r="N31" s="72"/>
       <c r="P31" s="3" t="s">
         <v>73</v>
       </c>
       <c r="R31">
         <v>600</v>
       </c>
-      <c r="S31" s="61"/>
+      <c r="S31" s="72"/>
       <c r="U31" s="3" t="s">
         <v>73</v>
       </c>
       <c r="W31">
         <v>600</v>
       </c>
-      <c r="X31" s="61"/>
-    </row>
-    <row r="32" spans="1:26" x14ac:dyDescent="0.15">
-      <c r="A32" s="62" t="s">
+      <c r="X31" s="72"/>
+      <c r="Z31" s="62" t="s">
+        <v>73</v>
+      </c>
+      <c r="AB31">
+        <v>600</v>
+      </c>
+      <c r="AC31" s="72"/>
+    </row>
+    <row r="32" spans="1:29" x14ac:dyDescent="0.15">
+      <c r="A32" s="73" t="s">
         <v>74</v>
       </c>
       <c r="B32" t="s">
@@ -6342,9 +6903,9 @@
       <c r="C32">
         <v>100</v>
       </c>
-      <c r="D32" s="61"/>
+      <c r="D32" s="72"/>
       <c r="E32" s="32"/>
-      <c r="F32" s="62" t="s">
+      <c r="F32" s="73" t="s">
         <v>74</v>
       </c>
       <c r="G32" t="s">
@@ -6353,8 +6914,8 @@
       <c r="H32">
         <v>100</v>
       </c>
-      <c r="I32" s="61"/>
-      <c r="K32" s="62" t="s">
+      <c r="I32" s="72"/>
+      <c r="K32" s="73" t="s">
         <v>74</v>
       </c>
       <c r="L32" t="s">
@@ -6363,8 +6924,8 @@
       <c r="M32">
         <v>100</v>
       </c>
-      <c r="N32" s="61"/>
-      <c r="P32" s="62" t="s">
+      <c r="N32" s="72"/>
+      <c r="P32" s="73" t="s">
         <v>74</v>
       </c>
       <c r="Q32" t="s">
@@ -6373,8 +6934,8 @@
       <c r="R32">
         <v>100</v>
       </c>
-      <c r="S32" s="61"/>
-      <c r="U32" s="62" t="s">
+      <c r="S32" s="72"/>
+      <c r="U32" s="73" t="s">
         <v>74</v>
       </c>
       <c r="V32" t="s">
@@ -6383,53 +6944,71 @@
       <c r="W32">
         <v>100</v>
       </c>
-      <c r="X32" s="61"/>
-    </row>
-    <row r="33" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A33" s="62"/>
+      <c r="X32" s="72"/>
+      <c r="Z32" s="73" t="s">
+        <v>74</v>
+      </c>
+      <c r="AA32" t="s">
+        <v>74</v>
+      </c>
+      <c r="AB32">
+        <v>100</v>
+      </c>
+      <c r="AC32" s="72"/>
+    </row>
+    <row r="33" spans="1:29" x14ac:dyDescent="0.15">
+      <c r="A33" s="73"/>
       <c r="B33" t="s">
         <v>75</v>
       </c>
       <c r="C33">
         <v>20</v>
       </c>
-      <c r="D33" s="61"/>
+      <c r="D33" s="72"/>
       <c r="E33" s="32"/>
-      <c r="F33" s="62"/>
+      <c r="F33" s="73"/>
       <c r="G33" t="s">
         <v>75</v>
       </c>
       <c r="H33">
         <v>20</v>
       </c>
-      <c r="I33" s="61"/>
-      <c r="K33" s="62"/>
+      <c r="I33" s="72"/>
+      <c r="K33" s="73"/>
       <c r="L33" t="s">
         <v>75</v>
       </c>
       <c r="M33">
         <v>20</v>
       </c>
-      <c r="N33" s="61"/>
-      <c r="P33" s="62"/>
+      <c r="N33" s="72"/>
+      <c r="P33" s="73"/>
       <c r="Q33" t="s">
         <v>75</v>
       </c>
       <c r="R33">
         <v>20</v>
       </c>
-      <c r="S33" s="61"/>
-      <c r="U33" s="62"/>
+      <c r="S33" s="72"/>
+      <c r="U33" s="73"/>
       <c r="V33" t="s">
         <v>75</v>
       </c>
       <c r="W33">
         <v>20</v>
       </c>
-      <c r="X33" s="61"/>
-    </row>
-    <row r="34" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A34" s="62" t="s">
+      <c r="X33" s="72"/>
+      <c r="Z33" s="73"/>
+      <c r="AA33" t="s">
+        <v>75</v>
+      </c>
+      <c r="AB33">
+        <v>20</v>
+      </c>
+      <c r="AC33" s="72"/>
+    </row>
+    <row r="34" spans="1:29" x14ac:dyDescent="0.15">
+      <c r="A34" s="73" t="s">
         <v>76</v>
       </c>
       <c r="B34" s="39" t="s">
@@ -6438,9 +7017,9 @@
       <c r="C34">
         <v>50</v>
       </c>
-      <c r="D34" s="61"/>
+      <c r="D34" s="72"/>
       <c r="E34" s="32"/>
-      <c r="F34" s="62" t="s">
+      <c r="F34" s="73" t="s">
         <v>76</v>
       </c>
       <c r="G34" s="39" t="s">
@@ -6449,8 +7028,8 @@
       <c r="H34">
         <v>50</v>
       </c>
-      <c r="I34" s="61"/>
-      <c r="K34" s="62" t="s">
+      <c r="I34" s="72"/>
+      <c r="K34" s="73" t="s">
         <v>76</v>
       </c>
       <c r="L34" s="39" t="s">
@@ -6459,8 +7038,8 @@
       <c r="M34">
         <v>50</v>
       </c>
-      <c r="N34" s="61"/>
-      <c r="P34" s="62" t="s">
+      <c r="N34" s="72"/>
+      <c r="P34" s="73" t="s">
         <v>76</v>
       </c>
       <c r="Q34" s="39" t="s">
@@ -6469,8 +7048,8 @@
       <c r="R34">
         <v>50</v>
       </c>
-      <c r="S34" s="61"/>
-      <c r="U34" s="62" t="s">
+      <c r="S34" s="72"/>
+      <c r="U34" s="73" t="s">
         <v>76</v>
       </c>
       <c r="V34" s="39" t="s">
@@ -6479,59 +7058,77 @@
       <c r="W34">
         <v>50</v>
       </c>
-      <c r="X34" s="61"/>
-    </row>
-    <row r="35" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A35" s="62"/>
+      <c r="X34" s="72"/>
+      <c r="Z34" s="73" t="s">
+        <v>76</v>
+      </c>
+      <c r="AA34" s="39" t="s">
+        <v>77</v>
+      </c>
+      <c r="AB34">
+        <v>50</v>
+      </c>
+      <c r="AC34" s="72"/>
+    </row>
+    <row r="35" spans="1:29" x14ac:dyDescent="0.15">
+      <c r="A35" s="73"/>
       <c r="B35" s="39" t="s">
         <v>78</v>
       </c>
       <c r="C35">
         <v>30</v>
       </c>
-      <c r="D35" s="61"/>
+      <c r="D35" s="72"/>
       <c r="E35" s="32"/>
-      <c r="F35" s="62"/>
+      <c r="F35" s="73"/>
       <c r="G35" s="39" t="s">
         <v>78</v>
       </c>
       <c r="H35">
         <v>30</v>
       </c>
-      <c r="I35" s="61"/>
-      <c r="K35" s="62"/>
+      <c r="I35" s="72"/>
+      <c r="K35" s="73"/>
       <c r="L35" s="39" t="s">
         <v>78</v>
       </c>
       <c r="M35">
         <v>30</v>
       </c>
-      <c r="N35" s="61"/>
-      <c r="P35" s="62"/>
+      <c r="N35" s="72"/>
+      <c r="P35" s="73"/>
       <c r="Q35" s="39" t="s">
         <v>78</v>
       </c>
       <c r="R35">
         <v>30</v>
       </c>
-      <c r="S35" s="61"/>
-      <c r="U35" s="62"/>
+      <c r="S35" s="72"/>
+      <c r="U35" s="73"/>
       <c r="V35" s="39" t="s">
         <v>78</v>
       </c>
       <c r="W35">
         <v>30</v>
       </c>
-      <c r="X35" s="61"/>
-    </row>
-    <row r="36" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="X35" s="72"/>
+      <c r="Z35" s="73"/>
+      <c r="AA35" s="39" t="s">
+        <v>78</v>
+      </c>
+      <c r="AB35">
+        <v>30</v>
+      </c>
+      <c r="AC35" s="72"/>
+    </row>
+    <row r="36" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A36" s="3" t="s">
         <v>79</v>
       </c>
       <c r="C36">
         <v>100</v>
       </c>
-      <c r="D36" s="61"/>
+      <c r="D36" s="72"/>
       <c r="E36" s="32"/>
       <c r="F36" s="3" t="s">
         <v>79</v>
@@ -6539,44 +7136,52 @@
       <c r="H36">
         <v>100</v>
       </c>
-      <c r="I36" s="61"/>
+      <c r="I36" s="72"/>
       <c r="K36" s="3" t="s">
         <v>79</v>
       </c>
       <c r="M36">
         <v>100</v>
       </c>
-      <c r="N36" s="61"/>
+      <c r="N36" s="72"/>
       <c r="P36" s="3" t="s">
         <v>79</v>
       </c>
       <c r="R36">
         <v>100</v>
       </c>
-      <c r="S36" s="61"/>
+      <c r="S36" s="72"/>
       <c r="U36" s="3" t="s">
         <v>79</v>
       </c>
       <c r="W36">
         <v>100</v>
       </c>
-      <c r="X36" s="61"/>
-    </row>
-    <row r="37" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="X36" s="72"/>
+      <c r="Z36" s="62" t="s">
+        <v>79</v>
+      </c>
+      <c r="AB36">
+        <v>100</v>
+      </c>
+      <c r="AC36" s="72"/>
+    </row>
+    <row r="37" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A37" s="37"/>
       <c r="F37" s="37"/>
       <c r="K37" s="37"/>
       <c r="P37" s="37"/>
       <c r="U37" s="37"/>
-    </row>
-    <row r="38" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="Z37" s="37"/>
+    </row>
+    <row r="38" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A38" s="3" t="s">
         <v>80</v>
       </c>
       <c r="C38">
         <v>2</v>
       </c>
-      <c r="D38" s="61">
+      <c r="D38" s="72">
         <v>0.05</v>
       </c>
       <c r="E38" s="32"/>
@@ -6586,7 +7191,7 @@
       <c r="H38">
         <v>2</v>
       </c>
-      <c r="I38" s="61">
+      <c r="I38" s="72">
         <v>0.05</v>
       </c>
       <c r="K38" s="3" t="s">
@@ -6595,7 +7200,7 @@
       <c r="M38">
         <v>2</v>
       </c>
-      <c r="N38" s="61">
+      <c r="N38" s="72">
         <v>0.05</v>
       </c>
       <c r="P38" s="3" t="s">
@@ -6604,7 +7209,7 @@
       <c r="R38">
         <v>2</v>
       </c>
-      <c r="S38" s="61">
+      <c r="S38" s="72">
         <v>0.05</v>
       </c>
       <c r="U38" s="3" t="s">
@@ -6613,18 +7218,27 @@
       <c r="W38">
         <v>2</v>
       </c>
-      <c r="X38" s="61">
+      <c r="X38" s="72">
         <v>0.05</v>
       </c>
-    </row>
-    <row r="39" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="Z38" s="62" t="s">
+        <v>80</v>
+      </c>
+      <c r="AB38">
+        <v>2</v>
+      </c>
+      <c r="AC38" s="72">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="39" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A39" s="3" t="s">
         <v>81</v>
       </c>
       <c r="C39">
         <v>2.5</v>
       </c>
-      <c r="D39" s="61"/>
+      <c r="D39" s="72"/>
       <c r="E39" s="32"/>
       <c r="F39" s="3" t="s">
         <v>81</v>
@@ -6632,37 +7246,44 @@
       <c r="H39">
         <v>2.5</v>
       </c>
-      <c r="I39" s="61"/>
+      <c r="I39" s="72"/>
       <c r="K39" s="3" t="s">
         <v>81</v>
       </c>
       <c r="M39">
         <v>2.5</v>
       </c>
-      <c r="N39" s="61"/>
+      <c r="N39" s="72"/>
       <c r="P39" s="3" t="s">
         <v>81</v>
       </c>
       <c r="R39">
         <v>2.5</v>
       </c>
-      <c r="S39" s="61"/>
+      <c r="S39" s="72"/>
       <c r="U39" s="3" t="s">
         <v>81</v>
       </c>
       <c r="W39">
         <v>2.5</v>
       </c>
-      <c r="X39" s="61"/>
-    </row>
-    <row r="40" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="X39" s="72"/>
+      <c r="Z39" s="62" t="s">
+        <v>81</v>
+      </c>
+      <c r="AB39">
+        <v>2.5</v>
+      </c>
+      <c r="AC39" s="72"/>
+    </row>
+    <row r="40" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A40" s="3" t="s">
         <v>82</v>
       </c>
       <c r="C40">
         <v>3</v>
       </c>
-      <c r="D40" s="61"/>
+      <c r="D40" s="72"/>
       <c r="E40" s="32"/>
       <c r="F40" s="3" t="s">
         <v>82</v>
@@ -6670,37 +7291,44 @@
       <c r="H40">
         <v>3</v>
       </c>
-      <c r="I40" s="61"/>
+      <c r="I40" s="72"/>
       <c r="K40" s="3" t="s">
         <v>82</v>
       </c>
       <c r="M40">
         <v>3</v>
       </c>
-      <c r="N40" s="61"/>
+      <c r="N40" s="72"/>
       <c r="P40" s="3" t="s">
         <v>82</v>
       </c>
       <c r="R40">
         <v>3</v>
       </c>
-      <c r="S40" s="61"/>
+      <c r="S40" s="72"/>
       <c r="U40" s="3" t="s">
         <v>82</v>
       </c>
       <c r="W40">
         <v>3</v>
       </c>
-      <c r="X40" s="61"/>
-    </row>
-    <row r="41" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="X40" s="72"/>
+      <c r="Z40" s="62" t="s">
+        <v>82</v>
+      </c>
+      <c r="AB40">
+        <v>3</v>
+      </c>
+      <c r="AC40" s="72"/>
+    </row>
+    <row r="41" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A41" s="3" t="s">
         <v>83</v>
       </c>
       <c r="C41">
         <v>3.5</v>
       </c>
-      <c r="D41" s="61"/>
+      <c r="D41" s="72"/>
       <c r="E41" s="32"/>
       <c r="F41" s="3" t="s">
         <v>83</v>
@@ -6708,37 +7336,44 @@
       <c r="H41">
         <v>3.5</v>
       </c>
-      <c r="I41" s="61"/>
+      <c r="I41" s="72"/>
       <c r="K41" s="3" t="s">
         <v>83</v>
       </c>
       <c r="M41">
         <v>3.5</v>
       </c>
-      <c r="N41" s="61"/>
+      <c r="N41" s="72"/>
       <c r="P41" s="3" t="s">
         <v>83</v>
       </c>
       <c r="R41">
         <v>3.5</v>
       </c>
-      <c r="S41" s="61"/>
+      <c r="S41" s="72"/>
       <c r="U41" s="3" t="s">
         <v>83</v>
       </c>
       <c r="W41">
         <v>3.5</v>
       </c>
-      <c r="X41" s="61"/>
-    </row>
-    <row r="42" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="X41" s="72"/>
+      <c r="Z41" s="62" t="s">
+        <v>83</v>
+      </c>
+      <c r="AB41">
+        <v>3.5</v>
+      </c>
+      <c r="AC41" s="72"/>
+    </row>
+    <row r="42" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A42" s="3" t="s">
         <v>84</v>
       </c>
       <c r="C42">
         <v>4</v>
       </c>
-      <c r="D42" s="61"/>
+      <c r="D42" s="72"/>
       <c r="E42" s="32"/>
       <c r="F42" s="3" t="s">
         <v>84</v>
@@ -6746,37 +7381,44 @@
       <c r="H42">
         <v>4</v>
       </c>
-      <c r="I42" s="61"/>
+      <c r="I42" s="72"/>
       <c r="K42" s="3" t="s">
         <v>84</v>
       </c>
       <c r="M42">
         <v>4</v>
       </c>
-      <c r="N42" s="61"/>
+      <c r="N42" s="72"/>
       <c r="P42" s="3" t="s">
         <v>84</v>
       </c>
       <c r="R42">
         <v>4</v>
       </c>
-      <c r="S42" s="61"/>
+      <c r="S42" s="72"/>
       <c r="U42" s="3" t="s">
         <v>84</v>
       </c>
       <c r="W42">
         <v>4</v>
       </c>
-      <c r="X42" s="61"/>
-    </row>
-    <row r="43" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="X42" s="72"/>
+      <c r="Z42" s="62" t="s">
+        <v>84</v>
+      </c>
+      <c r="AB42">
+        <v>4</v>
+      </c>
+      <c r="AC42" s="72"/>
+    </row>
+    <row r="43" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A43" s="3" t="s">
         <v>85</v>
       </c>
       <c r="C43">
         <v>5</v>
       </c>
-      <c r="D43" s="61"/>
+      <c r="D43" s="72"/>
       <c r="E43" s="32"/>
       <c r="F43" s="3" t="s">
         <v>85</v>
@@ -6784,31 +7426,58 @@
       <c r="H43">
         <v>5</v>
       </c>
-      <c r="I43" s="61"/>
+      <c r="I43" s="72"/>
       <c r="K43" s="3" t="s">
         <v>85</v>
       </c>
       <c r="M43">
         <v>5</v>
       </c>
-      <c r="N43" s="61"/>
+      <c r="N43" s="72"/>
       <c r="P43" s="3" t="s">
         <v>85</v>
       </c>
       <c r="R43">
         <v>5</v>
       </c>
-      <c r="S43" s="61"/>
+      <c r="S43" s="72"/>
       <c r="U43" s="3" t="s">
         <v>85</v>
       </c>
       <c r="W43">
         <v>5</v>
       </c>
-      <c r="X43" s="61"/>
+      <c r="X43" s="72"/>
+      <c r="Z43" s="62" t="s">
+        <v>85</v>
+      </c>
+      <c r="AB43">
+        <v>5</v>
+      </c>
+      <c r="AC43" s="72"/>
     </row>
   </sheetData>
-  <mergeCells count="102">
+  <mergeCells count="122">
+    <mergeCell ref="AC38:AC43"/>
+    <mergeCell ref="Z14:Z17"/>
+    <mergeCell ref="AC14:AC17"/>
+    <mergeCell ref="Z20:Z21"/>
+    <mergeCell ref="AC20:AC27"/>
+    <mergeCell ref="Z22:Z23"/>
+    <mergeCell ref="Z24:Z25"/>
+    <mergeCell ref="Z26:Z27"/>
+    <mergeCell ref="AC30:AC36"/>
+    <mergeCell ref="Z32:Z33"/>
+    <mergeCell ref="Z34:Z35"/>
+    <mergeCell ref="Z1:AA1"/>
+    <mergeCell ref="Z5:Z6"/>
+    <mergeCell ref="AC5:AC6"/>
+    <mergeCell ref="Z7:Z8"/>
+    <mergeCell ref="AC7:AC8"/>
+    <mergeCell ref="Z9:Z11"/>
+    <mergeCell ref="AC9:AC11"/>
+    <mergeCell ref="Z12:Z13"/>
+    <mergeCell ref="AC12:AC13"/>
     <mergeCell ref="A32:A33"/>
     <mergeCell ref="F32:F33"/>
     <mergeCell ref="K32:K33"/>
@@ -6919,10 +7588,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AD34"/>
+  <dimension ref="A1:AD49"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F31" sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="F40" sqref="F40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" outlineLevelCol="1" x14ac:dyDescent="0.15"/>
@@ -6933,42 +7602,45 @@
   <sheetData>
     <row r="1" spans="1:15" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1" s="40"/>
-      <c r="B1" s="75" t="s">
-        <v>86</v>
-      </c>
-      <c r="C1" s="75"/>
-      <c r="D1" s="75"/>
-      <c r="E1" s="75"/>
-      <c r="F1" s="75"/>
-      <c r="G1" s="75"/>
-      <c r="H1" s="11"/>
+      <c r="B1" s="85" t="s">
+        <v>151</v>
+      </c>
+      <c r="C1" s="85"/>
+      <c r="D1" s="85"/>
+      <c r="E1" s="85"/>
+      <c r="F1" s="85"/>
+      <c r="G1" s="85"/>
+      <c r="H1" s="85"/>
     </row>
     <row r="2" spans="1:15" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A2" s="41" t="s">
-        <v>43</v>
+        <v>152</v>
       </c>
       <c r="B2" s="42" t="s">
-        <v>87</v>
+        <v>153</v>
       </c>
       <c r="C2" s="42" t="s">
-        <v>88</v>
+        <v>154</v>
       </c>
       <c r="D2" s="42" t="s">
-        <v>103</v>
+        <v>155</v>
       </c>
       <c r="E2" s="42" t="s">
-        <v>89</v>
+        <v>156</v>
       </c>
       <c r="F2" s="42" t="s">
-        <v>90</v>
+        <v>157</v>
       </c>
       <c r="G2" s="42" t="s">
-        <v>91</v>
+        <v>158</v>
+      </c>
+      <c r="H2" s="42" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A3" s="40" t="s">
-        <v>48</v>
+        <v>160</v>
       </c>
       <c r="B3" s="40">
         <v>0.12</v>
@@ -6986,6 +7658,9 @@
         <v>0.12</v>
       </c>
       <c r="G3" s="40">
+        <v>0.12</v>
+      </c>
+      <c r="H3" s="40">
         <v>0.12</v>
       </c>
       <c r="M3" s="43"/>
@@ -6994,7 +7669,7 @@
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A4" s="40" t="s">
-        <v>92</v>
+        <v>161</v>
       </c>
       <c r="B4" s="40">
         <v>0.05</v>
@@ -7013,6 +7688,9 @@
       </c>
       <c r="G4" s="40">
         <v>0.03</v>
+      </c>
+      <c r="H4" s="40">
+        <v>0.05</v>
       </c>
       <c r="M4" s="43"/>
       <c r="N4" s="43"/>
@@ -7020,7 +7698,7 @@
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A5" s="40" t="s">
-        <v>93</v>
+        <v>162</v>
       </c>
       <c r="B5" s="40">
         <v>0.12</v>
@@ -7038,6 +7716,9 @@
         <v>0.12</v>
       </c>
       <c r="G5" s="40">
+        <v>0.12</v>
+      </c>
+      <c r="H5" s="40">
         <v>0.12</v>
       </c>
       <c r="M5" s="43"/>
@@ -7046,7 +7727,7 @@
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A6" s="40" t="s">
-        <v>94</v>
+        <v>163</v>
       </c>
       <c r="B6" s="40">
         <v>3.5000000000000003E-2</v>
@@ -7064,6 +7745,9 @@
         <v>3.5000000000000003E-2</v>
       </c>
       <c r="G6" s="40">
+        <v>0.03</v>
+      </c>
+      <c r="H6" s="40">
         <v>0.03</v>
       </c>
       <c r="M6" s="43"/>
@@ -7072,7 +7756,7 @@
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A7" s="40" t="s">
-        <v>53</v>
+        <v>164</v>
       </c>
       <c r="B7" s="40">
         <v>3.5000000000000003E-2</v>
@@ -7090,6 +7774,9 @@
         <v>3.5000000000000003E-2</v>
       </c>
       <c r="G7" s="40">
+        <v>0.03</v>
+      </c>
+      <c r="H7" s="40">
         <v>0.03</v>
       </c>
       <c r="M7" s="43"/>
@@ -7098,7 +7785,7 @@
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A8" s="40" t="s">
-        <v>59</v>
+        <v>165</v>
       </c>
       <c r="B8" s="40">
         <v>0.05</v>
@@ -7117,6 +7804,9 @@
       </c>
       <c r="G8" s="40">
         <v>0.03</v>
+      </c>
+      <c r="H8" s="40">
+        <v>0.05</v>
       </c>
       <c r="M8" s="43"/>
       <c r="N8" s="43"/>
@@ -7124,7 +7814,7 @@
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A9" s="40" t="s">
-        <v>95</v>
+        <v>166</v>
       </c>
       <c r="B9" s="40">
         <v>0.05</v>
@@ -7136,13 +7826,16 @@
         <v>0.03</v>
       </c>
       <c r="E9" s="40">
-        <v>0.03</v>
+        <v>0.05</v>
       </c>
       <c r="F9" s="40">
         <v>0.05</v>
       </c>
       <c r="G9" s="40">
         <v>0.03</v>
+      </c>
+      <c r="H9" s="40">
+        <v>0.05</v>
       </c>
       <c r="M9" s="43"/>
       <c r="N9" s="43"/>
@@ -7150,7 +7843,7 @@
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A10" s="40" t="s">
-        <v>62</v>
+        <v>167</v>
       </c>
       <c r="B10" s="40">
         <v>0.05</v>
@@ -7169,6 +7862,9 @@
       </c>
       <c r="G10" s="40">
         <v>0.03</v>
+      </c>
+      <c r="H10" s="40">
+        <v>0.05</v>
       </c>
       <c r="M10" s="43"/>
       <c r="N10" s="43"/>
@@ -7176,7 +7872,7 @@
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A11" s="40" t="s">
-        <v>96</v>
+        <v>168</v>
       </c>
       <c r="B11" s="40">
         <v>0.05</v>
@@ -7194,6 +7890,9 @@
         <v>0.05</v>
       </c>
       <c r="G11" s="40">
+        <v>0.05</v>
+      </c>
+      <c r="H11" s="40">
         <v>0.05</v>
       </c>
       <c r="M11" s="43"/>
@@ -7202,7 +7901,7 @@
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A12" s="40" t="s">
-        <v>49</v>
+        <v>169</v>
       </c>
       <c r="B12" s="40">
         <v>0.12</v>
@@ -7220,6 +7919,9 @@
         <v>0.12</v>
       </c>
       <c r="G12" s="40">
+        <v>0.12</v>
+      </c>
+      <c r="H12" s="40">
         <v>0.12</v>
       </c>
       <c r="M12" s="43"/>
@@ -7227,124 +7929,124 @@
       <c r="O12" s="29"/>
     </row>
     <row r="17" spans="1:30" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A17" s="73" t="s">
-        <v>87</v>
-      </c>
-      <c r="B17" s="73"/>
-      <c r="C17" s="73"/>
-      <c r="D17" s="73"/>
+      <c r="A17" s="84" t="s">
+        <v>86</v>
+      </c>
+      <c r="B17" s="84"/>
+      <c r="C17" s="84"/>
+      <c r="D17" s="84"/>
       <c r="E17" s="44"/>
       <c r="F17" s="44"/>
-      <c r="G17" s="73" t="s">
+      <c r="G17" s="84" t="s">
+        <v>87</v>
+      </c>
+      <c r="H17" s="84"/>
+      <c r="I17" s="84"/>
+      <c r="J17" s="84"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="84" t="s">
+        <v>101</v>
+      </c>
+      <c r="M17" s="84"/>
+      <c r="N17" s="84"/>
+      <c r="O17" s="84"/>
+      <c r="P17" s="1"/>
+      <c r="Q17" s="78" t="s">
         <v>88</v>
       </c>
-      <c r="H17" s="73"/>
-      <c r="I17" s="73"/>
-      <c r="J17" s="73"/>
-      <c r="K17" s="1"/>
-      <c r="L17" s="73" t="s">
-        <v>104</v>
-      </c>
-      <c r="M17" s="73"/>
-      <c r="N17" s="73"/>
-      <c r="O17" s="73"/>
-      <c r="P17" s="1"/>
-      <c r="Q17" s="67" t="s">
-        <v>89</v>
-      </c>
-      <c r="R17" s="68"/>
-      <c r="S17" s="68"/>
-      <c r="T17" s="69"/>
+      <c r="R17" s="79"/>
+      <c r="S17" s="79"/>
+      <c r="T17" s="80"/>
       <c r="U17" s="45"/>
-      <c r="V17" s="67" t="s">
-        <v>143</v>
-      </c>
-      <c r="W17" s="68"/>
-      <c r="X17" s="68"/>
-      <c r="Y17" s="69"/>
-      <c r="AA17" s="67" t="s">
-        <v>144</v>
-      </c>
-      <c r="AB17" s="68"/>
-      <c r="AC17" s="68"/>
-      <c r="AD17" s="69"/>
+      <c r="V17" s="78" t="s">
+        <v>139</v>
+      </c>
+      <c r="W17" s="79"/>
+      <c r="X17" s="79"/>
+      <c r="Y17" s="80"/>
+      <c r="AA17" s="78" t="s">
+        <v>140</v>
+      </c>
+      <c r="AB17" s="79"/>
+      <c r="AC17" s="79"/>
+      <c r="AD17" s="80"/>
     </row>
     <row r="18" spans="1:30" ht="20.25" x14ac:dyDescent="0.15">
       <c r="A18" s="46" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B18" s="47" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C18" s="47" t="s">
         <v>45</v>
       </c>
       <c r="D18" s="47" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="F18" s="48"/>
       <c r="G18" s="46" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="H18" s="47" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="I18" s="47" t="s">
         <v>45</v>
       </c>
       <c r="J18" s="47" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="K18" s="48"/>
       <c r="L18" s="46" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="M18" s="47" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="N18" s="47" t="s">
         <v>45</v>
       </c>
       <c r="O18" s="47" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="P18" s="48"/>
       <c r="Q18" s="46" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="R18" s="47" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="S18" s="47" t="s">
         <v>45</v>
       </c>
       <c r="T18" s="47" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="U18" s="31"/>
       <c r="V18" s="46" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="W18" s="47" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="X18" s="47" t="s">
         <v>45</v>
       </c>
       <c r="Y18" s="47" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="AA18" s="46" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="AB18" s="47" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="AC18" s="47" t="s">
         <v>45</v>
       </c>
       <c r="AD18" s="47" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="19" spans="1:30" x14ac:dyDescent="0.15">
@@ -7432,7 +8134,7 @@
     </row>
     <row r="20" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A20" s="49" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B20" s="49">
         <v>0</v>
@@ -7446,7 +8148,7 @@
       </c>
       <c r="F20" s="43"/>
       <c r="G20" s="49" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="H20" s="49">
         <v>0</v>
@@ -7460,7 +8162,7 @@
       </c>
       <c r="K20" s="43"/>
       <c r="L20" s="49" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="M20" s="49">
         <v>0</v>
@@ -7474,7 +8176,7 @@
       </c>
       <c r="P20" s="43"/>
       <c r="Q20" s="49" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="R20" s="49">
         <v>0</v>
@@ -7487,7 +8189,7 @@
         <v>0</v>
       </c>
       <c r="V20" s="49" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="W20" s="49">
         <v>0</v>
@@ -7500,7 +8202,7 @@
         <v>0</v>
       </c>
       <c r="AA20" s="49" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="AB20" s="49">
         <v>0</v>
@@ -7515,7 +8217,7 @@
     </row>
     <row r="21" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A21" s="49" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B21" s="49">
         <v>0</v>
@@ -7529,7 +8231,7 @@
       </c>
       <c r="F21" s="43"/>
       <c r="G21" s="49" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="H21" s="49">
         <v>0</v>
@@ -7543,7 +8245,7 @@
       </c>
       <c r="K21" s="43"/>
       <c r="L21" s="49" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="M21" s="49">
         <v>0</v>
@@ -7557,7 +8259,7 @@
       </c>
       <c r="P21" s="43"/>
       <c r="Q21" s="49" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="R21" s="49">
         <v>0</v>
@@ -7570,7 +8272,7 @@
         <v>0</v>
       </c>
       <c r="V21" s="49" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="W21" s="49">
         <v>0</v>
@@ -7583,7 +8285,7 @@
         <v>0</v>
       </c>
       <c r="AA21" s="49" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="AB21" s="49">
         <v>0</v>
@@ -7598,7 +8300,7 @@
     </row>
     <row r="22" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A22" s="49" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B22" s="49">
         <v>0</v>
@@ -7612,7 +8314,7 @@
       </c>
       <c r="F22" s="43"/>
       <c r="G22" s="49" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="H22" s="49">
         <v>0</v>
@@ -7626,7 +8328,7 @@
       </c>
       <c r="K22" s="43"/>
       <c r="L22" s="49" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="M22" s="49">
         <v>0</v>
@@ -7640,7 +8342,7 @@
       </c>
       <c r="P22" s="43"/>
       <c r="Q22" s="49" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="R22" s="49">
         <v>0</v>
@@ -7653,7 +8355,7 @@
         <v>0</v>
       </c>
       <c r="V22" s="49" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="W22" s="49">
         <v>0</v>
@@ -7666,7 +8368,7 @@
         <v>0</v>
       </c>
       <c r="AA22" s="49" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="AB22" s="49">
         <v>0</v>
@@ -7847,7 +8549,7 @@
     </row>
     <row r="25" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A25" s="49" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B25" s="49">
         <v>0</v>
@@ -7861,7 +8563,7 @@
       </c>
       <c r="F25" s="43"/>
       <c r="G25" s="49" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="H25" s="49">
         <v>0</v>
@@ -7875,7 +8577,7 @@
       </c>
       <c r="K25" s="43"/>
       <c r="L25" s="49" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="M25" s="49">
         <v>0</v>
@@ -7889,7 +8591,7 @@
       </c>
       <c r="P25" s="43"/>
       <c r="Q25" s="49" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="R25" s="49">
         <v>0</v>
@@ -7902,7 +8604,7 @@
         <v>0</v>
       </c>
       <c r="V25" s="49" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="W25" s="49">
         <v>0</v>
@@ -7915,7 +8617,7 @@
         <v>0</v>
       </c>
       <c r="AA25" s="49" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="AB25" s="49">
         <v>0</v>
@@ -8013,7 +8715,7 @@
     </row>
     <row r="27" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A27" s="49" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B27" s="49">
         <v>0</v>
@@ -8027,7 +8729,7 @@
       </c>
       <c r="F27" s="43"/>
       <c r="G27" s="49" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="H27" s="49">
         <v>0</v>
@@ -8041,7 +8743,7 @@
       </c>
       <c r="K27" s="43"/>
       <c r="L27" s="49" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="M27" s="49">
         <v>0</v>
@@ -8055,7 +8757,7 @@
       </c>
       <c r="P27" s="43"/>
       <c r="Q27" s="49" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="R27" s="49">
         <v>0</v>
@@ -8068,7 +8770,7 @@
         <v>0</v>
       </c>
       <c r="V27" s="49" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="W27" s="49">
         <v>0</v>
@@ -8081,7 +8783,7 @@
         <v>0</v>
       </c>
       <c r="AA27" s="49" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="AB27" s="49">
         <v>0</v>
@@ -8179,7 +8881,7 @@
     </row>
     <row r="29" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A29" s="50" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B29" s="50">
         <f>SUM(B19:B28)</f>
@@ -8195,7 +8897,7 @@
       </c>
       <c r="F29" s="51"/>
       <c r="G29" s="50" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="H29" s="50">
         <f>SUM(H19:H28)</f>
@@ -8227,7 +8929,7 @@
       </c>
       <c r="P29" s="51"/>
       <c r="Q29" s="50" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="R29" s="50">
         <f>SUM(R19:R28)</f>
@@ -8242,7 +8944,7 @@
         <v>0</v>
       </c>
       <c r="V29" s="50" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="W29" s="50">
         <f>SUM(W19:W28)</f>
@@ -8274,63 +8976,63 @@
     </row>
     <row r="30" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A30" s="50" t="s">
-        <v>101</v>
-      </c>
-      <c r="B30" s="74">
+        <v>98</v>
+      </c>
+      <c r="B30" s="86">
         <f>B29-C29-D29</f>
         <v>0</v>
       </c>
-      <c r="C30" s="74"/>
-      <c r="D30" s="74"/>
+      <c r="C30" s="86"/>
+      <c r="D30" s="86"/>
       <c r="E30" s="52"/>
       <c r="F30" s="52"/>
       <c r="G30" s="50" t="s">
-        <v>101</v>
-      </c>
-      <c r="H30" s="70">
+        <v>98</v>
+      </c>
+      <c r="H30" s="81">
         <f>H29-I29-J29</f>
         <v>0</v>
       </c>
-      <c r="I30" s="71"/>
-      <c r="J30" s="72"/>
+      <c r="I30" s="82"/>
+      <c r="J30" s="83"/>
       <c r="K30" s="53"/>
       <c r="L30" s="50" t="s">
-        <v>101</v>
-      </c>
-      <c r="M30" s="70">
+        <v>98</v>
+      </c>
+      <c r="M30" s="81">
         <f>M29-N29-O29</f>
         <v>0</v>
       </c>
-      <c r="N30" s="71"/>
-      <c r="O30" s="72"/>
+      <c r="N30" s="82"/>
+      <c r="O30" s="83"/>
       <c r="P30" s="53"/>
       <c r="Q30" s="50" t="s">
-        <v>101</v>
-      </c>
-      <c r="R30" s="70">
+        <v>98</v>
+      </c>
+      <c r="R30" s="81">
         <f>R29-S29-T29</f>
         <v>0</v>
       </c>
-      <c r="S30" s="71"/>
-      <c r="T30" s="72"/>
+      <c r="S30" s="82"/>
+      <c r="T30" s="83"/>
       <c r="V30" s="50" t="s">
-        <v>101</v>
-      </c>
-      <c r="W30" s="70">
+        <v>98</v>
+      </c>
+      <c r="W30" s="81">
         <f>X29+Y29-W29</f>
         <v>0</v>
       </c>
-      <c r="X30" s="71"/>
-      <c r="Y30" s="72"/>
+      <c r="X30" s="82"/>
+      <c r="Y30" s="83"/>
       <c r="AA30" s="50" t="s">
-        <v>101</v>
-      </c>
-      <c r="AB30" s="70">
+        <v>98</v>
+      </c>
+      <c r="AB30" s="81">
         <f>AB29-AC29-AD29</f>
         <v>0</v>
       </c>
-      <c r="AC30" s="71"/>
-      <c r="AD30" s="72"/>
+      <c r="AC30" s="82"/>
+      <c r="AD30" s="83"/>
     </row>
     <row r="31" spans="1:30" x14ac:dyDescent="0.15">
       <c r="V31" s="29"/>
@@ -8389,16 +9091,218 @@
       <c r="X34" s="43"/>
       <c r="Y34" s="43"/>
     </row>
+    <row r="36" spans="1:25" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A36" s="78" t="s">
+        <v>145</v>
+      </c>
+      <c r="B36" s="79"/>
+      <c r="C36" s="79"/>
+      <c r="D36" s="80"/>
+    </row>
+    <row r="37" spans="1:25" ht="20.25" x14ac:dyDescent="0.15">
+      <c r="A37" s="46" t="s">
+        <v>94</v>
+      </c>
+      <c r="B37" s="47" t="s">
+        <v>95</v>
+      </c>
+      <c r="C37" s="47" t="s">
+        <v>45</v>
+      </c>
+      <c r="D37" s="47" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="38" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="A38" s="49" t="s">
+        <v>48</v>
+      </c>
+      <c r="B38" s="49">
+        <v>0</v>
+      </c>
+      <c r="C38" s="49">
+        <f>B38*H3</f>
+        <v>0</v>
+      </c>
+      <c r="D38" s="49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="A39" s="49" t="s">
+        <v>89</v>
+      </c>
+      <c r="B39" s="49">
+        <v>0</v>
+      </c>
+      <c r="C39" s="49">
+        <f t="shared" ref="C39:C47" si="6">B39*H4</f>
+        <v>0</v>
+      </c>
+      <c r="D39" s="49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="A40" s="49" t="s">
+        <v>90</v>
+      </c>
+      <c r="B40" s="49">
+        <v>0</v>
+      </c>
+      <c r="C40" s="49">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="D40" s="49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="A41" s="49" t="s">
+        <v>91</v>
+      </c>
+      <c r="B41" s="49">
+        <v>0</v>
+      </c>
+      <c r="C41" s="49">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="D41" s="49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="A42" s="49" t="s">
+        <v>53</v>
+      </c>
+      <c r="B42" s="49">
+        <v>0</v>
+      </c>
+      <c r="C42" s="49">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="D42" s="49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="A43" s="49" t="s">
+        <v>59</v>
+      </c>
+      <c r="B43" s="49">
+        <v>0</v>
+      </c>
+      <c r="C43" s="49">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="D43" s="49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="A44" s="49" t="s">
+        <v>92</v>
+      </c>
+      <c r="B44" s="49">
+        <v>0</v>
+      </c>
+      <c r="C44" s="49">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="D44" s="49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="A45" s="49" t="s">
+        <v>62</v>
+      </c>
+      <c r="B45" s="49">
+        <v>0</v>
+      </c>
+      <c r="C45" s="49">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="D45" s="49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="A46" s="49" t="s">
+        <v>93</v>
+      </c>
+      <c r="B46" s="49">
+        <v>0</v>
+      </c>
+      <c r="C46" s="49">
+        <f>B46*H11</f>
+        <v>0</v>
+      </c>
+      <c r="D46" s="49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="A47" s="49" t="s">
+        <v>49</v>
+      </c>
+      <c r="B47" s="49">
+        <v>0</v>
+      </c>
+      <c r="C47" s="49">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="D47" s="49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="A48" s="50" t="s">
+        <v>35</v>
+      </c>
+      <c r="B48" s="50">
+        <f>SUM(B38:B47)</f>
+        <v>0</v>
+      </c>
+      <c r="C48" s="50">
+        <f>SUM(C38:C47)</f>
+        <v>0</v>
+      </c>
+      <c r="D48" s="50">
+        <f>SUM(D38:D47)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A49" s="50" t="s">
+        <v>98</v>
+      </c>
+      <c r="B49" s="81">
+        <f>B48-C48-D48</f>
+        <v>0</v>
+      </c>
+      <c r="C49" s="82"/>
+      <c r="D49" s="83"/>
+    </row>
   </sheetData>
-  <mergeCells count="13">
+  <mergeCells count="15">
+    <mergeCell ref="A36:D36"/>
+    <mergeCell ref="B49:D49"/>
     <mergeCell ref="A17:D17"/>
     <mergeCell ref="B30:D30"/>
     <mergeCell ref="W30:Y30"/>
-    <mergeCell ref="B1:G1"/>
     <mergeCell ref="G17:J17"/>
     <mergeCell ref="Q17:T17"/>
     <mergeCell ref="H30:J30"/>
     <mergeCell ref="R30:T30"/>
+    <mergeCell ref="B1:H1"/>
     <mergeCell ref="AA17:AD17"/>
     <mergeCell ref="AB30:AD30"/>
     <mergeCell ref="V17:Y17"/>
@@ -8412,10 +9316,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:C24"/>
   <sheetViews>
-    <sheetView topLeftCell="A51" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J27" sqref="J27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -8426,17 +9330,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B1" s="76" t="s">
-        <v>109</v>
-      </c>
-      <c r="C1" s="76"/>
+      <c r="B1" s="87" t="s">
+        <v>106</v>
+      </c>
+      <c r="C1" s="87"/>
     </row>
     <row r="2" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B2">
         <v>5000</v>
       </c>
       <c r="C2" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.15">
@@ -8444,7 +9348,7 @@
         <v>500</v>
       </c>
       <c r="C3" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.15">
@@ -8452,7 +9356,7 @@
         <v>800</v>
       </c>
       <c r="C4" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.15">
@@ -8460,7 +9364,7 @@
         <v>400</v>
       </c>
       <c r="C5" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.15">
@@ -8468,7 +9372,7 @@
         <v>800</v>
       </c>
       <c r="C6" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.15">
@@ -8476,7 +9380,7 @@
         <v>-4825</v>
       </c>
       <c r="C7" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.15">
@@ -8484,7 +9388,7 @@
         <v>9000</v>
       </c>
       <c r="C8" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="9" spans="2:3" x14ac:dyDescent="0.15">
@@ -8492,7 +9396,7 @@
         <v>-4800</v>
       </c>
       <c r="C9" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="10" spans="2:3" x14ac:dyDescent="0.15">
@@ -8500,7 +9404,7 @@
         <v>17192</v>
       </c>
       <c r="C10" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="11" spans="2:3" x14ac:dyDescent="0.15">
@@ -8508,7 +9412,7 @@
         <v>-2400</v>
       </c>
       <c r="C11" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="12" spans="2:3" x14ac:dyDescent="0.15">
@@ -8516,7 +9420,7 @@
         <v>-2500</v>
       </c>
       <c r="C12" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="13" spans="2:3" x14ac:dyDescent="0.15">
@@ -8524,7 +9428,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="14" spans="2:3" x14ac:dyDescent="0.15">
@@ -8532,7 +9436,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
     </row>
     <row r="15" spans="2:3" x14ac:dyDescent="0.15">
@@ -8540,7 +9444,7 @@
         <v>1200</v>
       </c>
       <c r="C15" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="16" spans="2:3" x14ac:dyDescent="0.15">
@@ -8548,7 +9452,7 @@
         <v>-173</v>
       </c>
       <c r="C16" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.15">
@@ -8556,7 +9460,7 @@
         <v>-38500</v>
       </c>
       <c r="C17" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.15">
@@ -8564,7 +9468,7 @@
         <v>1000</v>
       </c>
       <c r="C18" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.15">
@@ -8572,7 +9476,7 @@
         <v>500</v>
       </c>
       <c r="C19" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.15">
@@ -8583,7 +9487,7 @@
         <v>5000</v>
       </c>
       <c r="C20" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.15">
@@ -8594,7 +9498,7 @@
         <v>25000</v>
       </c>
       <c r="C21" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.15">
@@ -8602,10 +9506,10 @@
         <v>43239</v>
       </c>
       <c r="B22">
-        <v>-4800</v>
+        <v>-4500</v>
       </c>
       <c r="C22" t="s">
-        <v>127</v>
+        <v>150</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.15">
@@ -8616,7 +9520,18 @@
         <v>-5000</v>
       </c>
       <c r="C23" t="s">
-        <v>129</v>
+        <v>125</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A24" s="54">
+        <v>43252</v>
+      </c>
+      <c r="B24">
+        <v>100</v>
+      </c>
+      <c r="C24" t="s">
+        <v>149</v>
       </c>
     </row>
   </sheetData>
@@ -8644,28 +9559,28 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C1" t="s">
+        <v>131</v>
+      </c>
+      <c r="D1" t="s">
         <v>136</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E1" t="s">
+        <v>135</v>
+      </c>
+      <c r="F1" t="s">
+        <v>134</v>
+      </c>
+      <c r="G1" t="s">
         <v>137</v>
       </c>
-      <c r="C1" t="s">
-        <v>135</v>
-      </c>
-      <c r="D1" t="s">
-        <v>140</v>
-      </c>
-      <c r="E1" t="s">
-        <v>139</v>
-      </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>138</v>
-      </c>
-      <c r="G1" t="s">
-        <v>141</v>
-      </c>
-      <c r="H1" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.15">
@@ -8702,4 +9617,482 @@
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D36"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I30" sqref="I30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="8.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="40.125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A1" s="67" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="67"/>
+      <c r="C1" s="67"/>
+      <c r="D1" s="67"/>
+    </row>
+    <row r="2" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="63" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="63" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="63" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="63" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A3" s="5">
+        <v>43195</v>
+      </c>
+      <c r="B3" s="4">
+        <v>899</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A4" s="5">
+        <v>43204</v>
+      </c>
+      <c r="B4" s="4">
+        <v>40</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A5" s="5">
+        <v>43207</v>
+      </c>
+      <c r="B5" s="4">
+        <v>20</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A6" s="5">
+        <v>43210</v>
+      </c>
+      <c r="B6" s="4">
+        <v>200</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A7" s="5">
+        <v>43216</v>
+      </c>
+      <c r="B7" s="4">
+        <v>58</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A8" s="5">
+        <v>43216</v>
+      </c>
+      <c r="B8" s="4">
+        <v>500</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A9" s="5">
+        <v>43216</v>
+      </c>
+      <c r="B9" s="4">
+        <v>30</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A10" s="5">
+        <v>43216</v>
+      </c>
+      <c r="B10" s="4">
+        <v>30</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A11" s="5">
+        <v>43217</v>
+      </c>
+      <c r="B11" s="4">
+        <v>225</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A12" s="5">
+        <v>43218</v>
+      </c>
+      <c r="B12" s="4">
+        <v>88</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A13" s="5"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A14" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="B14" s="21">
+        <f>SUM(B3:B13)</f>
+        <v>2090</v>
+      </c>
+      <c r="C14" s="21"/>
+      <c r="D14" s="21"/>
+    </row>
+    <row r="17" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A17" s="67" t="s">
+        <v>7</v>
+      </c>
+      <c r="B17" s="67"/>
+      <c r="C17" s="67"/>
+      <c r="D17" s="67"/>
+    </row>
+    <row r="18" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A18" s="63" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" s="63" t="s">
+        <v>17</v>
+      </c>
+      <c r="C18" s="63" t="s">
+        <v>18</v>
+      </c>
+      <c r="D18" s="63" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A19" s="5">
+        <v>43223</v>
+      </c>
+      <c r="B19" s="66">
+        <v>100</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A20" s="5">
+        <v>43224</v>
+      </c>
+      <c r="B20" s="66">
+        <v>200</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A21" s="5">
+        <v>43224</v>
+      </c>
+      <c r="B21" s="66">
+        <v>2500</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A22" s="5">
+        <v>43224</v>
+      </c>
+      <c r="B22" s="66">
+        <v>20</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A23" s="5">
+        <v>43231</v>
+      </c>
+      <c r="B23" s="66">
+        <v>6</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A24" s="5">
+        <v>43232</v>
+      </c>
+      <c r="B24" s="66">
+        <v>3</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A25" s="5">
+        <v>43235</v>
+      </c>
+      <c r="B25" s="66">
+        <v>8</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A26" s="5">
+        <v>43238</v>
+      </c>
+      <c r="B26" s="66">
+        <v>10</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A27" s="5">
+        <v>43237</v>
+      </c>
+      <c r="B27" s="66">
+        <v>30</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A28" s="5">
+        <v>43237</v>
+      </c>
+      <c r="B28" s="66">
+        <v>864</v>
+      </c>
+      <c r="C28" s="4"/>
+      <c r="D28" s="4" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A29" s="5">
+        <v>43240</v>
+      </c>
+      <c r="B29" s="66">
+        <v>4</v>
+      </c>
+      <c r="C29" s="4"/>
+      <c r="D29" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A30" s="5">
+        <v>43243</v>
+      </c>
+      <c r="B30" s="66">
+        <v>5</v>
+      </c>
+      <c r="C30" s="4"/>
+      <c r="D30" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A31" s="5">
+        <v>43246</v>
+      </c>
+      <c r="B31" s="66">
+        <v>5</v>
+      </c>
+      <c r="C31" s="4"/>
+      <c r="D31" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A32" s="5">
+        <v>43247</v>
+      </c>
+      <c r="B32" s="66">
+        <v>100</v>
+      </c>
+      <c r="C32" s="4"/>
+      <c r="D32" s="4" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A33" s="5">
+        <v>43247</v>
+      </c>
+      <c r="B33" s="66">
+        <v>100</v>
+      </c>
+      <c r="C33" s="4"/>
+      <c r="D33" s="4" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A34" s="17">
+        <v>43251</v>
+      </c>
+      <c r="B34" s="66">
+        <v>30</v>
+      </c>
+      <c r="C34" s="56" t="s">
+        <v>147</v>
+      </c>
+      <c r="D34" s="56" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A35" s="17">
+        <v>43251</v>
+      </c>
+      <c r="B35" s="66">
+        <v>80</v>
+      </c>
+      <c r="C35" s="56" t="s">
+        <v>147</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A36" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="B36" s="21">
+        <f>SUM(B19:B35)</f>
+        <v>4065</v>
+      </c>
+      <c r="C36" s="21"/>
+      <c r="D36" s="21"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A17:D17"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G40" sqref="G40"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData/>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>